--- a/shenghe_backend/国标项目模板.xlsx
+++ b/shenghe_backend/国标项目模板.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="3"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="407" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1512" uniqueCount="630">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1510" uniqueCount="630">
   <si>
     <t xml:space="preserve"> </t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -723,27 +723,12 @@
     <t>insert into bodyCheckup_itemdetail (item_id, age, sex, staDate, endDate, value) select id, 12, 'F', date('now'), '2999-12-31', 0 from bodyCheckup_itemmaster where name='体重';</t>
   </si>
   <si>
-    <t>INSERT INTO bodyCheckup_itemscorestandard(periodType, lowScore, highScore, scoreDesc, color, itemDetail_id) SELECT 'FAILED', 92.4, 98.25, '', '#FF001A', (select id from bodyCheckup_itemdetail where age=4 and sex='M' and item_id=(select id from bodyCheckup_itemmaster where name='身高'));</t>
-  </si>
-  <si>
     <t>INSERT INTO bodyCheckup_itemscorestandard(periodType, lowScore, highScore, scoreDesc, color, itemDetail_id) SELECT 'FAILED', 98.6, 104.9, '', '#FF001A', (select id from bodyCheckup_itemdetail where age=5 and sex='M' and item_id=(select id from bodyCheckup_itemmaster where name='身高'));</t>
   </si>
   <si>
-    <t>INSERT INTO bodyCheckup_itemscorestandard(periodType, lowScore, highScore, scoreDesc, color, itemDetail_id) SELECT 'FAILED', 104.1, 110.85, '', '#FF001A', (select id from bodyCheckup_itemdetail where age=6 and sex='M' and item_id=(select id from bodyCheckup_itemmaster where name='身高'));</t>
-  </si>
-  <si>
     <t>INSERT INTO bodyCheckup_itemscorestandard(periodType, lowScore, highScore, scoreDesc, color, itemDetail_id) SELECT 'FAILED', 109, 116.5, '', '#FF001A', (select id from bodyCheckup_itemdetail where age=7 and sex='M' and item_id=(select id from bodyCheckup_itemmaster where name='身高'));</t>
   </si>
   <si>
-    <t>INSERT INTO bodyCheckup_itemscorestandard(periodType, lowScore, highScore, scoreDesc, color, itemDetail_id) SELECT 'FAILED', 114, 121.95, '', '#FF001A', (select id from bodyCheckup_itemdetail where age=8 and sex='M' and item_id=(select id from bodyCheckup_itemmaster where name='身高'));</t>
-  </si>
-  <si>
-    <t>INSERT INTO bodyCheckup_itemscorestandard(periodType, lowScore, highScore, scoreDesc, color, itemDetail_id) SELECT 'FAILED', 118.2, 126.75, '', '#FF001A', (select id from bodyCheckup_itemdetail where age=9 and sex='M' and item_id=(select id from bodyCheckup_itemmaster where name='身高'));</t>
-  </si>
-  <si>
-    <t>INSERT INTO bodyCheckup_itemscorestandard(periodType, lowScore, highScore, scoreDesc, color, itemDetail_id) SELECT 'FAILED', 121.8, 130.95, '', '#FF001A', (select id from bodyCheckup_itemdetail where age=10 and sex='M' and item_id=(select id from bodyCheckup_itemmaster where name='身高'));</t>
-  </si>
-  <si>
     <t>INSERT INTO bodyCheckup_itemscorestandard(periodType, lowScore, highScore, scoreDesc, color, itemDetail_id) SELECT 'FAILED', 125.5, 135.4, '', '#FF001A', (select id from bodyCheckup_itemdetail where age=11 and sex='M' and item_id=(select id from bodyCheckup_itemmaster where name='身高'));</t>
   </si>
   <si>
@@ -759,15 +744,9 @@
     <t>INSERT INTO bodyCheckup_itemscorestandard(periodType, lowScore, highScore, scoreDesc, color, itemDetail_id) SELECT 'FAILED', 103.2, 109.8, '', '#FF001A', (select id from bodyCheckup_itemdetail where age=6 and sex='F' and item_id=(select id from bodyCheckup_itemmaster where name='身高'));</t>
   </si>
   <si>
-    <t>INSERT INTO bodyCheckup_itemscorestandard(periodType, lowScore, highScore, scoreDesc, color, itemDetail_id) SELECT 'FAILED', 107.8, 115.15, '', '#FF001A', (select id from bodyCheckup_itemdetail where age=7 and sex='F' and item_id=(select id from bodyCheckup_itemmaster where name='身高'));</t>
-  </si>
-  <si>
     <t>INSERT INTO bodyCheckup_itemscorestandard(periodType, lowScore, highScore, scoreDesc, color, itemDetail_id) SELECT 'FAILED', 112.7, 120.5, '', '#FF001A', (select id from bodyCheckup_itemdetail where age=8 and sex='F' and item_id=(select id from bodyCheckup_itemmaster where name='身高'));</t>
   </si>
   <si>
-    <t>INSERT INTO bodyCheckup_itemscorestandard(periodType, lowScore, highScore, scoreDesc, color, itemDetail_id) SELECT 'FAILED', 116.9, 125.45, '', '#FF001A', (select id from bodyCheckup_itemdetail where age=9 and sex='F' and item_id=(select id from bodyCheckup_itemmaster where name='身高'));</t>
-  </si>
-  <si>
     <t>INSERT INTO bodyCheckup_itemscorestandard(periodType, lowScore, highScore, scoreDesc, color, itemDetail_id) SELECT 'FAILED', 121.4, 130.7, '', '#FF001A', (select id from bodyCheckup_itemdetail where age=10 and sex='F' and item_id=(select id from bodyCheckup_itemmaster where name='身高'));</t>
   </si>
   <si>
@@ -804,60 +783,6 @@
     <t>INSERT INTO bodyCheckup_itemscorestandard(periodType, lowScore, highScore, scoreDesc, color, itemDetail_id) SELECT 'FAILED', 21.44, 29.18, '', '#FF001A', (select id from bodyCheckup_itemdetail where age=10 and sex='F' and item_id=(select id from bodyCheckup_itemmaster where name='体重'));</t>
   </si>
   <si>
-    <t>INSERT INTO bodyCheckup_itemscorestandard(periodType, lowScore, highScore, scoreDesc, color, itemDetail_id) SELECT 'PASS', 98.26, 102.15, '', '#00FF59', (select id from bodyCheckup_itemdetail where age=4 and sex='M' and item_id=(select id from bodyCheckup_itemmaster where name='身高'));</t>
-  </si>
-  <si>
-    <t>INSERT INTO bodyCheckup_itemscorestandard(periodType, lowScore, highScore, scoreDesc, color, itemDetail_id) SELECT 'PASS', 104.91, 109.15, '', '#00FF59', (select id from bodyCheckup_itemdetail where age=5 and sex='M' and item_id=(select id from bodyCheckup_itemmaster where name='身高'));</t>
-  </si>
-  <si>
-    <t>INSERT INTO bodyCheckup_itemscorestandard(periodType, lowScore, highScore, scoreDesc, color, itemDetail_id) SELECT 'PASS', 110.86, 115.4, '', '#00FF59', (select id from bodyCheckup_itemdetail where age=6 and sex='M' and item_id=(select id from bodyCheckup_itemmaster where name='身高'));</t>
-  </si>
-  <si>
-    <t>INSERT INTO bodyCheckup_itemscorestandard(periodType, lowScore, highScore, scoreDesc, color, itemDetail_id) SELECT 'PASS', 116.51, 121.5, '', '#00FF59', (select id from bodyCheckup_itemdetail where age=7 and sex='M' and item_id=(select id from bodyCheckup_itemmaster where name='身高'));</t>
-  </si>
-  <si>
-    <t>INSERT INTO bodyCheckup_itemscorestandard(periodType, lowScore, highScore, scoreDesc, color, itemDetail_id) SELECT 'PASS', 121.96, 127.3, '', '#00FF59', (select id from bodyCheckup_itemdetail where age=8 and sex='M' and item_id=(select id from bodyCheckup_itemmaster where name='身高'));</t>
-  </si>
-  <si>
-    <t>INSERT INTO bodyCheckup_itemscorestandard(periodType, lowScore, highScore, scoreDesc, color, itemDetail_id) SELECT 'PASS', 126.76, 132.5, '', '#00FF59', (select id from bodyCheckup_itemdetail where age=9 and sex='M' and item_id=(select id from bodyCheckup_itemmaster where name='身高'));</t>
-  </si>
-  <si>
-    <t>INSERT INTO bodyCheckup_itemscorestandard(periodType, lowScore, highScore, scoreDesc, color, itemDetail_id) SELECT 'PASS', 130.96, 137.1, '', '#00FF59', (select id from bodyCheckup_itemdetail where age=10 and sex='M' and item_id=(select id from bodyCheckup_itemmaster where name='身高'));</t>
-  </si>
-  <si>
-    <t>INSERT INTO bodyCheckup_itemscorestandard(periodType, lowScore, highScore, scoreDesc, color, itemDetail_id) SELECT 'PASS', 135.41, 142, '', '#00FF59', (select id from bodyCheckup_itemdetail where age=11 and sex='M' and item_id=(select id from bodyCheckup_itemmaster where name='身高'));</t>
-  </si>
-  <si>
-    <t>INSERT INTO bodyCheckup_itemscorestandard(periodType, lowScore, highScore, scoreDesc, color, itemDetail_id) SELECT 'PASS', 140.91, 148.25, '', '#00FF59', (select id from bodyCheckup_itemdetail where age=12 and sex='M' and item_id=(select id from bodyCheckup_itemmaster where name='身高'));</t>
-  </si>
-  <si>
-    <t>INSERT INTO bodyCheckup_itemscorestandard(periodType, lowScore, highScore, scoreDesc, color, itemDetail_id) SELECT 'PASS', 97.31, 101.15, '', '#00FF59', (select id from bodyCheckup_itemdetail where age=4 and sex='F' and item_id=(select id from bodyCheckup_itemmaster where name='身高'));</t>
-  </si>
-  <si>
-    <t>INSERT INTO bodyCheckup_itemscorestandard(periodType, lowScore, highScore, scoreDesc, color, itemDetail_id) SELECT 'PASS', 103.91, 108.1, '', '#00FF59', (select id from bodyCheckup_itemdetail where age=5 and sex='F' and item_id=(select id from bodyCheckup_itemmaster where name='身高'));</t>
-  </si>
-  <si>
-    <t>INSERT INTO bodyCheckup_itemscorestandard(periodType, lowScore, highScore, scoreDesc, color, itemDetail_id) SELECT 'PASS', 109.81, 114.3, '', '#00FF59', (select id from bodyCheckup_itemdetail where age=6 and sex='F' and item_id=(select id from bodyCheckup_itemmaster where name='身高'));</t>
-  </si>
-  <si>
-    <t>INSERT INTO bodyCheckup_itemscorestandard(periodType, lowScore, highScore, scoreDesc, color, itemDetail_id) SELECT 'PASS', 115.16, 120.05, '', '#00FF59', (select id from bodyCheckup_itemdetail where age=7 and sex='F' and item_id=(select id from bodyCheckup_itemmaster where name='身高'));</t>
-  </si>
-  <si>
-    <t>INSERT INTO bodyCheckup_itemscorestandard(periodType, lowScore, highScore, scoreDesc, color, itemDetail_id) SELECT 'PASS', 120.51, 125.8, '', '#00FF59', (select id from bodyCheckup_itemdetail where age=8 and sex='F' and item_id=(select id from bodyCheckup_itemmaster where name='身高'));</t>
-  </si>
-  <si>
-    <t>INSERT INTO bodyCheckup_itemscorestandard(periodType, lowScore, highScore, scoreDesc, color, itemDetail_id) SELECT 'PASS', 125.46, 131.2, '', '#00FF59', (select id from bodyCheckup_itemdetail where age=9 and sex='F' and item_id=(select id from bodyCheckup_itemmaster where name='身高'));</t>
-  </si>
-  <si>
-    <t>INSERT INTO bodyCheckup_itemscorestandard(periodType, lowScore, highScore, scoreDesc, color, itemDetail_id) SELECT 'PASS', 130.71, 136.95, '', '#00FF59', (select id from bodyCheckup_itemdetail where age=10 and sex='F' and item_id=(select id from bodyCheckup_itemmaster where name='身高'));</t>
-  </si>
-  <si>
-    <t>INSERT INTO bodyCheckup_itemscorestandard(periodType, lowScore, highScore, scoreDesc, color, itemDetail_id) SELECT 'PASS', 136.71, 143.3, '', '#00FF59', (select id from bodyCheckup_itemdetail where age=11 and sex='F' and item_id=(select id from bodyCheckup_itemmaster where name='身高'));</t>
-  </si>
-  <si>
-    <t>INSERT INTO bodyCheckup_itemscorestandard(periodType, lowScore, highScore, scoreDesc, color, itemDetail_id) SELECT 'PASS', 142.71, 149.15, '', '#00FF59', (select id from bodyCheckup_itemdetail where age=12 and sex='F' and item_id=(select id from bodyCheckup_itemmaster where name='身高'));</t>
-  </si>
-  <si>
     <t>INSERT INTO bodyCheckup_itemscorestandard(periodType, lowScore, highScore, scoreDesc, color, itemDetail_id) SELECT 'PASS', 25.29, 29.95, '', '#00FF59', (select id from bodyCheckup_itemdetail where age=8 and sex='M' and item_id=(select id from bodyCheckup_itemmaster where name='体重'));</t>
   </si>
   <si>
@@ -876,60 +801,6 @@
     <t>INSERT INTO bodyCheckup_itemscorestandard(periodType, lowScore, highScore, scoreDesc, color, itemDetail_id) SELECT 'PASS', 21.2, 24.4, '', '#00FF59', (select id from bodyCheckup_itemdetail where age=7 and sex='F' and item_id=(select id from bodyCheckup_itemmaster where name='体重'));</t>
   </si>
   <si>
-    <t>INSERT INTO bodyCheckup_itemscorestandard(periodType, lowScore, highScore, scoreDesc, color, itemDetail_id) SELECT 'GOOD', 102.16, 106.15, '', '#FF00FF', (select id from bodyCheckup_itemdetail where age=4 and sex='M' and item_id=(select id from bodyCheckup_itemmaster where name='身高'));</t>
-  </si>
-  <si>
-    <t>INSERT INTO bodyCheckup_itemscorestandard(periodType, lowScore, highScore, scoreDesc, color, itemDetail_id) SELECT 'GOOD', 109.16, 113.5, '', '#FF00FF', (select id from bodyCheckup_itemdetail where age=5 and sex='M' and item_id=(select id from bodyCheckup_itemmaster where name='身高'));</t>
-  </si>
-  <si>
-    <t>INSERT INTO bodyCheckup_itemscorestandard(periodType, lowScore, highScore, scoreDesc, color, itemDetail_id) SELECT 'GOOD', 115.41, 120.05, '', '#FF00FF', (select id from bodyCheckup_itemdetail where age=6 and sex='M' and item_id=(select id from bodyCheckup_itemmaster where name='身高'));</t>
-  </si>
-  <si>
-    <t>INSERT INTO bodyCheckup_itemscorestandard(periodType, lowScore, highScore, scoreDesc, color, itemDetail_id) SELECT 'GOOD', 121.51, 126.55, '', '#FF00FF', (select id from bodyCheckup_itemdetail where age=7 and sex='M' and item_id=(select id from bodyCheckup_itemmaster where name='身高'));</t>
-  </si>
-  <si>
-    <t>INSERT INTO bodyCheckup_itemscorestandard(periodType, lowScore, highScore, scoreDesc, color, itemDetail_id) SELECT 'GOOD', 127.31, 132.75, '', '#FF00FF', (select id from bodyCheckup_itemdetail where age=8 and sex='M' and item_id=(select id from bodyCheckup_itemmaster where name='身高'));</t>
-  </si>
-  <si>
-    <t>INSERT INTO bodyCheckup_itemscorestandard(periodType, lowScore, highScore, scoreDesc, color, itemDetail_id) SELECT 'GOOD', 132.51, 138.3, '', '#FF00FF', (select id from bodyCheckup_itemdetail where age=9 and sex='M' and item_id=(select id from bodyCheckup_itemmaster where name='身高'));</t>
-  </si>
-  <si>
-    <t>INSERT INTO bodyCheckup_itemscorestandard(periodType, lowScore, highScore, scoreDesc, color, itemDetail_id) SELECT 'GOOD', 137.11, 143.3, '', '#FF00FF', (select id from bodyCheckup_itemdetail where age=10 and sex='M' and item_id=(select id from bodyCheckup_itemmaster where name='身高'));</t>
-  </si>
-  <si>
-    <t>INSERT INTO bodyCheckup_itemscorestandard(periodType, lowScore, highScore, scoreDesc, color, itemDetail_id) SELECT 'GOOD', 142.01, 148.7, '', '#FF00FF', (select id from bodyCheckup_itemdetail where age=11 and sex='M' and item_id=(select id from bodyCheckup_itemmaster where name='身高'));</t>
-  </si>
-  <si>
-    <t>INSERT INTO bodyCheckup_itemscorestandard(periodType, lowScore, highScore, scoreDesc, color, itemDetail_id) SELECT 'GOOD', 148.26, 155.65, '', '#FF00FF', (select id from bodyCheckup_itemdetail where age=12 and sex='M' and item_id=(select id from bodyCheckup_itemmaster where name='身高'));</t>
-  </si>
-  <si>
-    <t>INSERT INTO bodyCheckup_itemscorestandard(periodType, lowScore, highScore, scoreDesc, color, itemDetail_id) SELECT 'GOOD', 101.16, 105.05, '', '#FF00FF', (select id from bodyCheckup_itemdetail where age=4 and sex='F' and item_id=(select id from bodyCheckup_itemmaster where name='身高'));</t>
-  </si>
-  <si>
-    <t>INSERT INTO bodyCheckup_itemscorestandard(periodType, lowScore, highScore, scoreDesc, color, itemDetail_id) SELECT 'GOOD', 108.11, 112.35, '', '#FF00FF', (select id from bodyCheckup_itemdetail where age=5 and sex='F' and item_id=(select id from bodyCheckup_itemmaster where name='身高'));</t>
-  </si>
-  <si>
-    <t>INSERT INTO bodyCheckup_itemscorestandard(periodType, lowScore, highScore, scoreDesc, color, itemDetail_id) SELECT 'GOOD', 114.31, 118.9, '', '#FF00FF', (select id from bodyCheckup_itemdetail where age=6 and sex='F' and item_id=(select id from bodyCheckup_itemmaster where name='身高'));</t>
-  </si>
-  <si>
-    <t>INSERT INTO bodyCheckup_itemscorestandard(periodType, lowScore, highScore, scoreDesc, color, itemDetail_id) SELECT 'GOOD', 120.06, 125.05, '', '#FF00FF', (select id from bodyCheckup_itemdetail where age=7 and sex='F' and item_id=(select id from bodyCheckup_itemmaster where name='身高'));</t>
-  </si>
-  <si>
-    <t>INSERT INTO bodyCheckup_itemscorestandard(periodType, lowScore, highScore, scoreDesc, color, itemDetail_id) SELECT 'GOOD', 125.81, 131.2, '', '#FF00FF', (select id from bodyCheckup_itemdetail where age=8 and sex='F' and item_id=(select id from bodyCheckup_itemmaster where name='身高'));</t>
-  </si>
-  <si>
-    <t>INSERT INTO bodyCheckup_itemscorestandard(periodType, lowScore, highScore, scoreDesc, color, itemDetail_id) SELECT 'GOOD', 131.21, 137, '', '#FF00FF', (select id from bodyCheckup_itemdetail where age=9 and sex='F' and item_id=(select id from bodyCheckup_itemmaster where name='身高'));</t>
-  </si>
-  <si>
-    <t>INSERT INTO bodyCheckup_itemscorestandard(periodType, lowScore, highScore, scoreDesc, color, itemDetail_id) SELECT 'GOOD', 136.96, 143.25, '', '#FF00FF', (select id from bodyCheckup_itemdetail where age=10 and sex='F' and item_id=(select id from bodyCheckup_itemmaster where name='身高'));</t>
-  </si>
-  <si>
-    <t>INSERT INTO bodyCheckup_itemscorestandard(periodType, lowScore, highScore, scoreDesc, color, itemDetail_id) SELECT 'GOOD', 143.31, 149.95, '', '#FF00FF', (select id from bodyCheckup_itemdetail where age=11 and sex='F' and item_id=(select id from bodyCheckup_itemmaster where name='身高'));</t>
-  </si>
-  <si>
-    <t>INSERT INTO bodyCheckup_itemscorestandard(periodType, lowScore, highScore, scoreDesc, color, itemDetail_id) SELECT 'GOOD', 149.16, 155.6, '', '#FF00FF', (select id from bodyCheckup_itemdetail where age=12 and sex='F' and item_id=(select id from bodyCheckup_itemmaster where name='身高'));</t>
-  </si>
-  <si>
     <t>INSERT INTO bodyCheckup_itemscorestandard(periodType, lowScore, highScore, scoreDesc, color, itemDetail_id) SELECT 'GOOD', 20.23, 22.92, '', '#FF00FF', (select id from bodyCheckup_itemdetail where age=5 and sex='M' and item_id=(select id from bodyCheckup_itemmaster where name='体重'));</t>
   </si>
   <si>
@@ -942,60 +813,6 @@
     <t>INSERT INTO bodyCheckup_itemscorestandard(periodType, lowScore, highScore, scoreDesc, color, itemDetail_id) SELECT 'GOOD', 19.47, 22.08, '', '#FF00FF', (select id from bodyCheckup_itemdetail where age=5 and sex='F' and item_id=(select id from bodyCheckup_itemmaster where name='体重'));</t>
   </si>
   <si>
-    <t>INSERT INTO bodyCheckup_itemscorestandard(periodType, lowScore, highScore, scoreDesc, color, itemDetail_id) SELECT 'EXCELLENT', 106.16, 112.3, '', '#0026FF', (select id from bodyCheckup_itemdetail where age=4 and sex='M' and item_id=(select id from bodyCheckup_itemmaster where name='身高'));</t>
-  </si>
-  <si>
-    <t>INSERT INTO bodyCheckup_itemscorestandard(periodType, lowScore, highScore, scoreDesc, color, itemDetail_id) SELECT 'EXCELLENT', 113.51, 120.1, '', '#0026FF', (select id from bodyCheckup_itemdetail where age=5 and sex='M' and item_id=(select id from bodyCheckup_itemmaster where name='身高'));</t>
-  </si>
-  <si>
-    <t>INSERT INTO bodyCheckup_itemscorestandard(periodType, lowScore, highScore, scoreDesc, color, itemDetail_id) SELECT 'EXCELLENT', 120.06, 127.1, '', '#0026FF', (select id from bodyCheckup_itemdetail where age=6 and sex='M' and item_id=(select id from bodyCheckup_itemmaster where name='身高'));</t>
-  </si>
-  <si>
-    <t>INSERT INTO bodyCheckup_itemscorestandard(periodType, lowScore, highScore, scoreDesc, color, itemDetail_id) SELECT 'EXCELLENT', 126.56, 134.2, '', '#0026FF', (select id from bodyCheckup_itemdetail where age=7 and sex='M' and item_id=(select id from bodyCheckup_itemmaster where name='身高'));</t>
-  </si>
-  <si>
-    <t>INSERT INTO bodyCheckup_itemscorestandard(periodType, lowScore, highScore, scoreDesc, color, itemDetail_id) SELECT 'EXCELLENT', 132.76, 141, '', '#0026FF', (select id from bodyCheckup_itemdetail where age=8 and sex='M' and item_id=(select id from bodyCheckup_itemmaster where name='身高'));</t>
-  </si>
-  <si>
-    <t>INSERT INTO bodyCheckup_itemscorestandard(periodType, lowScore, highScore, scoreDesc, color, itemDetail_id) SELECT 'EXCELLENT', 138.31, 147, '', '#0026FF', (select id from bodyCheckup_itemdetail where age=9 and sex='M' and item_id=(select id from bodyCheckup_itemmaster where name='身高'));</t>
-  </si>
-  <si>
-    <t>INSERT INTO bodyCheckup_itemscorestandard(periodType, lowScore, highScore, scoreDesc, color, itemDetail_id) SELECT 'EXCELLENT', 143.31, 152.6, '', '#0026FF', (select id from bodyCheckup_itemdetail where age=10 and sex='M' and item_id=(select id from bodyCheckup_itemmaster where name='身高'));</t>
-  </si>
-  <si>
-    <t>INSERT INTO bodyCheckup_itemscorestandard(periodType, lowScore, highScore, scoreDesc, color, itemDetail_id) SELECT 'EXCELLENT', 148.71, 158.9, '', '#0026FF', (select id from bodyCheckup_itemdetail where age=11 and sex='M' and item_id=(select id from bodyCheckup_itemmaster where name='身高'));</t>
-  </si>
-  <si>
-    <t>INSERT INTO bodyCheckup_itemscorestandard(periodType, lowScore, highScore, scoreDesc, color, itemDetail_id) SELECT 'EXCELLENT', 155.66, 166.9, '', '#0026FF', (select id from bodyCheckup_itemdetail where age=12 and sex='M' and item_id=(select id from bodyCheckup_itemmaster where name='身高'));</t>
-  </si>
-  <si>
-    <t>INSERT INTO bodyCheckup_itemscorestandard(periodType, lowScore, highScore, scoreDesc, color, itemDetail_id) SELECT 'EXCELLENT', 105.06, 110.9, '', '#0026FF', (select id from bodyCheckup_itemdetail where age=4 and sex='F' and item_id=(select id from bodyCheckup_itemmaster where name='身高'));</t>
-  </si>
-  <si>
-    <t>INSERT INTO bodyCheckup_itemscorestandard(periodType, lowScore, highScore, scoreDesc, color, itemDetail_id) SELECT 'EXCELLENT', 112.36, 118.8, '', '#0026FF', (select id from bodyCheckup_itemdetail where age=5 and sex='F' and item_id=(select id from bodyCheckup_itemmaster where name='身高'));</t>
-  </si>
-  <si>
-    <t>INSERT INTO bodyCheckup_itemscorestandard(periodType, lowScore, highScore, scoreDesc, color, itemDetail_id) SELECT 'EXCELLENT', 118.91, 125.8, '', '#0026FF', (select id from bodyCheckup_itemdetail where age=6 and sex='F' and item_id=(select id from bodyCheckup_itemmaster where name='身高'));</t>
-  </si>
-  <si>
-    <t>INSERT INTO bodyCheckup_itemscorestandard(periodType, lowScore, highScore, scoreDesc, color, itemDetail_id) SELECT 'EXCELLENT', 125.06, 132.7, '', '#0026FF', (select id from bodyCheckup_itemdetail where age=7 and sex='F' and item_id=(select id from bodyCheckup_itemmaster where name='身高'));</t>
-  </si>
-  <si>
-    <t>INSERT INTO bodyCheckup_itemscorestandard(periodType, lowScore, highScore, scoreDesc, color, itemDetail_id) SELECT 'EXCELLENT', 131.21, 139.3, '', '#0026FF', (select id from bodyCheckup_itemdetail where age=8 and sex='F' and item_id=(select id from bodyCheckup_itemmaster where name='身高'));</t>
-  </si>
-  <si>
-    <t>INSERT INTO bodyCheckup_itemscorestandard(periodType, lowScore, highScore, scoreDesc, color, itemDetail_id) SELECT 'EXCELLENT', 137.01, 145.7, '', '#0026FF', (select id from bodyCheckup_itemdetail where age=9 and sex='F' and item_id=(select id from bodyCheckup_itemmaster where name='身高'));</t>
-  </si>
-  <si>
-    <t>INSERT INTO bodyCheckup_itemscorestandard(periodType, lowScore, highScore, scoreDesc, color, itemDetail_id) SELECT 'EXCELLENT', 143.26, 152.7, '', '#0026FF', (select id from bodyCheckup_itemdetail where age=10 and sex='F' and item_id=(select id from bodyCheckup_itemmaster where name='身高'));</t>
-  </si>
-  <si>
-    <t>INSERT INTO bodyCheckup_itemscorestandard(periodType, lowScore, highScore, scoreDesc, color, itemDetail_id) SELECT 'EXCELLENT', 149.96, 160, '', '#0026FF', (select id from bodyCheckup_itemdetail where age=11 and sex='F' and item_id=(select id from bodyCheckup_itemmaster where name='身高'));</t>
-  </si>
-  <si>
-    <t>INSERT INTO bodyCheckup_itemscorestandard(periodType, lowScore, highScore, scoreDesc, color, itemDetail_id) SELECT 'EXCELLENT', 155.61, 165.2, '', '#0026FF', (select id from bodyCheckup_itemdetail where age=12 and sex='F' and item_id=(select id from bodyCheckup_itemmaster where name='身高'));</t>
-  </si>
-  <si>
     <t>INSERT INTO bodyCheckup_itemscorestandard(periodType, lowScore, highScore, scoreDesc, color, itemDetail_id) SELECT 'EXCELLENT', 19.85, 23.35, '', '#0026FF', (select id from bodyCheckup_itemdetail where age=4 and sex='M' and item_id=(select id from bodyCheckup_itemmaster where name='体重'));</t>
   </si>
   <si>
@@ -1960,6 +1777,189 @@
   </si>
   <si>
     <t>INSERT INTO bodyCheckup_itemscorestandard(periodType, lowScore, highScore, scoreDesc, color, itemDetail_id) SELECT 'EXCELLENT', 49.45, 65.47, '', '#0026FF', (select id from bodyCheckup_itemdetail where age=11 and sex='F' and item_id=(select id from bodyCheckup_itemmaster where name='体重'));</t>
+  </si>
+  <si>
+    <t>INSERT INTO bodyCheckup_itemscorestandard(periodType, lowScore, highScore, scoreDesc, color, itemDetail_id) SELECT 'FAILED', 92.4, 98.3, '', '#FF001A', (select id from bodyCheckup_itemdetail where age=4 and sex='M' and item_id=(select id from bodyCheckup_itemmaster where name='身高'));</t>
+  </si>
+  <si>
+    <t>INSERT INTO bodyCheckup_itemscorestandard(periodType, lowScore, highScore, scoreDesc, color, itemDetail_id) SELECT 'FAILED', 104.1, 110.9, '', '#FF001A', (select id from bodyCheckup_itemdetail where age=6 and sex='M' and item_id=(select id from bodyCheckup_itemmaster where name='身高'));</t>
+  </si>
+  <si>
+    <t>INSERT INTO bodyCheckup_itemscorestandard(periodType, lowScore, highScore, scoreDesc, color, itemDetail_id) SELECT 'FAILED', 114, 122, '', '#FF001A', (select id from bodyCheckup_itemdetail where age=8 and sex='M' and item_id=(select id from bodyCheckup_itemmaster where name='身高'));</t>
+  </si>
+  <si>
+    <t>INSERT INTO bodyCheckup_itemscorestandard(periodType, lowScore, highScore, scoreDesc, color, itemDetail_id) SELECT 'FAILED', 118.2, 126.8, '', '#FF001A', (select id from bodyCheckup_itemdetail where age=9 and sex='M' and item_id=(select id from bodyCheckup_itemmaster where name='身高'));</t>
+  </si>
+  <si>
+    <t>INSERT INTO bodyCheckup_itemscorestandard(periodType, lowScore, highScore, scoreDesc, color, itemDetail_id) SELECT 'FAILED', 121.8, 131, '', '#FF001A', (select id from bodyCheckup_itemdetail where age=10 and sex='M' and item_id=(select id from bodyCheckup_itemmaster where name='身高'));</t>
+  </si>
+  <si>
+    <t>INSERT INTO bodyCheckup_itemscorestandard(periodType, lowScore, highScore, scoreDesc, color, itemDetail_id) SELECT 'FAILED', 107.8, 115.2, '', '#FF001A', (select id from bodyCheckup_itemdetail where age=7 and sex='F' and item_id=(select id from bodyCheckup_itemmaster where name='身高'));</t>
+  </si>
+  <si>
+    <t>INSERT INTO bodyCheckup_itemscorestandard(periodType, lowScore, highScore, scoreDesc, color, itemDetail_id) SELECT 'FAILED', 116.9, 125.5, '', '#FF001A', (select id from bodyCheckup_itemdetail where age=9 and sex='F' and item_id=(select id from bodyCheckup_itemmaster where name='身高'));</t>
+  </si>
+  <si>
+    <t>INSERT INTO bodyCheckup_itemscorestandard(periodType, lowScore, highScore, scoreDesc, color, itemDetail_id) SELECT 'PASS', 98.4, 102.2, '', '#00FF59', (select id from bodyCheckup_itemdetail where age=4 and sex='M' and item_id=(select id from bodyCheckup_itemmaster where name='身高'));</t>
+  </si>
+  <si>
+    <t>INSERT INTO bodyCheckup_itemscorestandard(periodType, lowScore, highScore, scoreDesc, color, itemDetail_id) SELECT 'PASS', 105, 109.2, '', '#00FF59', (select id from bodyCheckup_itemdetail where age=5 and sex='M' and item_id=(select id from bodyCheckup_itemmaster where name='身高'));</t>
+  </si>
+  <si>
+    <t>INSERT INTO bodyCheckup_itemscorestandard(periodType, lowScore, highScore, scoreDesc, color, itemDetail_id) SELECT 'PASS', 111, 115.4, '', '#00FF59', (select id from bodyCheckup_itemdetail where age=6 and sex='M' and item_id=(select id from bodyCheckup_itemmaster where name='身高'));</t>
+  </si>
+  <si>
+    <t>INSERT INTO bodyCheckup_itemscorestandard(periodType, lowScore, highScore, scoreDesc, color, itemDetail_id) SELECT 'PASS', 116.6, 121.5, '', '#00FF59', (select id from bodyCheckup_itemdetail where age=7 and sex='M' and item_id=(select id from bodyCheckup_itemmaster where name='身高'));</t>
+  </si>
+  <si>
+    <t>INSERT INTO bodyCheckup_itemscorestandard(periodType, lowScore, highScore, scoreDesc, color, itemDetail_id) SELECT 'PASS', 122.1, 127.3, '', '#00FF59', (select id from bodyCheckup_itemdetail where age=8 and sex='M' and item_id=(select id from bodyCheckup_itemmaster where name='身高'));</t>
+  </si>
+  <si>
+    <t>INSERT INTO bodyCheckup_itemscorestandard(periodType, lowScore, highScore, scoreDesc, color, itemDetail_id) SELECT 'PASS', 126.9, 132.5, '', '#00FF59', (select id from bodyCheckup_itemdetail where age=9 and sex='M' and item_id=(select id from bodyCheckup_itemmaster where name='身高'));</t>
+  </si>
+  <si>
+    <t>INSERT INTO bodyCheckup_itemscorestandard(periodType, lowScore, highScore, scoreDesc, color, itemDetail_id) SELECT 'PASS', 131.1, 137.1, '', '#00FF59', (select id from bodyCheckup_itemdetail where age=10 and sex='M' and item_id=(select id from bodyCheckup_itemmaster where name='身高'));</t>
+  </si>
+  <si>
+    <t>INSERT INTO bodyCheckup_itemscorestandard(periodType, lowScore, highScore, scoreDesc, color, itemDetail_id) SELECT 'PASS', 135.5, 142, '', '#00FF59', (select id from bodyCheckup_itemdetail where age=11 and sex='M' and item_id=(select id from bodyCheckup_itemmaster where name='身高'));</t>
+  </si>
+  <si>
+    <t>INSERT INTO bodyCheckup_itemscorestandard(periodType, lowScore, highScore, scoreDesc, color, itemDetail_id) SELECT 'PASS', 141, 148.3, '', '#00FF59', (select id from bodyCheckup_itemdetail where age=12 and sex='M' and item_id=(select id from bodyCheckup_itemmaster where name='身高'));</t>
+  </si>
+  <si>
+    <t>INSERT INTO bodyCheckup_itemscorestandard(periodType, lowScore, highScore, scoreDesc, color, itemDetail_id) SELECT 'PASS', 97.4, 101.2, '', '#00FF59', (select id from bodyCheckup_itemdetail where age=4 and sex='F' and item_id=(select id from bodyCheckup_itemmaster where name='身高'));</t>
+  </si>
+  <si>
+    <t>INSERT INTO bodyCheckup_itemscorestandard(periodType, lowScore, highScore, scoreDesc, color, itemDetail_id) SELECT 'PASS', 104, 108.1, '', '#00FF59', (select id from bodyCheckup_itemdetail where age=5 and sex='F' and item_id=(select id from bodyCheckup_itemmaster where name='身高'));</t>
+  </si>
+  <si>
+    <t>INSERT INTO bodyCheckup_itemscorestandard(periodType, lowScore, highScore, scoreDesc, color, itemDetail_id) SELECT 'PASS', 109.9, 114.3, '', '#00FF59', (select id from bodyCheckup_itemdetail where age=6 and sex='F' and item_id=(select id from bodyCheckup_itemmaster where name='身高'));</t>
+  </si>
+  <si>
+    <t>INSERT INTO bodyCheckup_itemscorestandard(periodType, lowScore, highScore, scoreDesc, color, itemDetail_id) SELECT 'PASS', 115.3, 120.1, '', '#00FF59', (select id from bodyCheckup_itemdetail where age=7 and sex='F' and item_id=(select id from bodyCheckup_itemmaster where name='身高'));</t>
+  </si>
+  <si>
+    <t>INSERT INTO bodyCheckup_itemscorestandard(periodType, lowScore, highScore, scoreDesc, color, itemDetail_id) SELECT 'PASS', 120.6, 125.8, '', '#00FF59', (select id from bodyCheckup_itemdetail where age=8 and sex='F' and item_id=(select id from bodyCheckup_itemmaster where name='身高'));</t>
+  </si>
+  <si>
+    <t>INSERT INTO bodyCheckup_itemscorestandard(periodType, lowScore, highScore, scoreDesc, color, itemDetail_id) SELECT 'PASS', 125.6, 131.2, '', '#00FF59', (select id from bodyCheckup_itemdetail where age=9 and sex='F' and item_id=(select id from bodyCheckup_itemmaster where name='身高'));</t>
+  </si>
+  <si>
+    <t>INSERT INTO bodyCheckup_itemscorestandard(periodType, lowScore, highScore, scoreDesc, color, itemDetail_id) SELECT 'PASS', 130.8, 137, '', '#00FF59', (select id from bodyCheckup_itemdetail where age=10 and sex='F' and item_id=(select id from bodyCheckup_itemmaster where name='身高'));</t>
+  </si>
+  <si>
+    <t>INSERT INTO bodyCheckup_itemscorestandard(periodType, lowScore, highScore, scoreDesc, color, itemDetail_id) SELECT 'PASS', 136.8, 143.3, '', '#00FF59', (select id from bodyCheckup_itemdetail where age=11 and sex='F' and item_id=(select id from bodyCheckup_itemmaster where name='身高'));</t>
+  </si>
+  <si>
+    <t>INSERT INTO bodyCheckup_itemscorestandard(periodType, lowScore, highScore, scoreDesc, color, itemDetail_id) SELECT 'PASS', 142.8, 149.2, '', '#00FF59', (select id from bodyCheckup_itemdetail where age=12 and sex='F' and item_id=(select id from bodyCheckup_itemmaster where name='身高'));</t>
+  </si>
+  <si>
+    <t>INSERT INTO bodyCheckup_itemscorestandard(periodType, lowScore, highScore, scoreDesc, color, itemDetail_id) SELECT 'GOOD', 102.3, 106.2, '', '#FF00FF', (select id from bodyCheckup_itemdetail where age=4 and sex='M' and item_id=(select id from bodyCheckup_itemmaster where name='身高'));</t>
+  </si>
+  <si>
+    <t>INSERT INTO bodyCheckup_itemscorestandard(periodType, lowScore, highScore, scoreDesc, color, itemDetail_id) SELECT 'GOOD', 109.3, 113.5, '', '#FF00FF', (select id from bodyCheckup_itemdetail where age=5 and sex='M' and item_id=(select id from bodyCheckup_itemmaster where name='身高'));</t>
+  </si>
+  <si>
+    <t>INSERT INTO bodyCheckup_itemscorestandard(periodType, lowScore, highScore, scoreDesc, color, itemDetail_id) SELECT 'GOOD', 115.5, 120.1, '', '#FF00FF', (select id from bodyCheckup_itemdetail where age=6 and sex='M' and item_id=(select id from bodyCheckup_itemmaster where name='身高'));</t>
+  </si>
+  <si>
+    <t>INSERT INTO bodyCheckup_itemscorestandard(periodType, lowScore, highScore, scoreDesc, color, itemDetail_id) SELECT 'GOOD', 121.6, 126.6, '', '#FF00FF', (select id from bodyCheckup_itemdetail where age=7 and sex='M' and item_id=(select id from bodyCheckup_itemmaster where name='身高'));</t>
+  </si>
+  <si>
+    <t>INSERT INTO bodyCheckup_itemscorestandard(periodType, lowScore, highScore, scoreDesc, color, itemDetail_id) SELECT 'GOOD', 127.4, 132.8, '', '#FF00FF', (select id from bodyCheckup_itemdetail where age=8 and sex='M' and item_id=(select id from bodyCheckup_itemmaster where name='身高'));</t>
+  </si>
+  <si>
+    <t>INSERT INTO bodyCheckup_itemscorestandard(periodType, lowScore, highScore, scoreDesc, color, itemDetail_id) SELECT 'GOOD', 132.6, 138.3, '', '#FF00FF', (select id from bodyCheckup_itemdetail where age=9 and sex='M' and item_id=(select id from bodyCheckup_itemmaster where name='身高'));</t>
+  </si>
+  <si>
+    <t>INSERT INTO bodyCheckup_itemscorestandard(periodType, lowScore, highScore, scoreDesc, color, itemDetail_id) SELECT 'GOOD', 137.2, 143.3, '', '#FF00FF', (select id from bodyCheckup_itemdetail where age=10 and sex='M' and item_id=(select id from bodyCheckup_itemmaster where name='身高'));</t>
+  </si>
+  <si>
+    <t>INSERT INTO bodyCheckup_itemscorestandard(periodType, lowScore, highScore, scoreDesc, color, itemDetail_id) SELECT 'GOOD', 142.1, 148.7, '', '#FF00FF', (select id from bodyCheckup_itemdetail where age=11 and sex='M' and item_id=(select id from bodyCheckup_itemmaster where name='身高'));</t>
+  </si>
+  <si>
+    <t>INSERT INTO bodyCheckup_itemscorestandard(periodType, lowScore, highScore, scoreDesc, color, itemDetail_id) SELECT 'GOOD', 148.4, 155.7, '', '#FF00FF', (select id from bodyCheckup_itemdetail where age=12 and sex='M' and item_id=(select id from bodyCheckup_itemmaster where name='身高'));</t>
+  </si>
+  <si>
+    <t>INSERT INTO bodyCheckup_itemscorestandard(periodType, lowScore, highScore, scoreDesc, color, itemDetail_id) SELECT 'GOOD', 101.3, 105.1, '', '#FF00FF', (select id from bodyCheckup_itemdetail where age=4 and sex='F' and item_id=(select id from bodyCheckup_itemmaster where name='身高'));</t>
+  </si>
+  <si>
+    <t>INSERT INTO bodyCheckup_itemscorestandard(periodType, lowScore, highScore, scoreDesc, color, itemDetail_id) SELECT 'GOOD', 108.2, 112.4, '', '#FF00FF', (select id from bodyCheckup_itemdetail where age=5 and sex='F' and item_id=(select id from bodyCheckup_itemmaster where name='身高'));</t>
+  </si>
+  <si>
+    <t>INSERT INTO bodyCheckup_itemscorestandard(periodType, lowScore, highScore, scoreDesc, color, itemDetail_id) SELECT 'GOOD', 114.4, 118.9, '', '#FF00FF', (select id from bodyCheckup_itemdetail where age=6 and sex='F' and item_id=(select id from bodyCheckup_itemmaster where name='身高'));</t>
+  </si>
+  <si>
+    <t>INSERT INTO bodyCheckup_itemscorestandard(periodType, lowScore, highScore, scoreDesc, color, itemDetail_id) SELECT 'GOOD', 120.2, 125.1, '', '#FF00FF', (select id from bodyCheckup_itemdetail where age=7 and sex='F' and item_id=(select id from bodyCheckup_itemmaster where name='身高'));</t>
+  </si>
+  <si>
+    <t>INSERT INTO bodyCheckup_itemscorestandard(periodType, lowScore, highScore, scoreDesc, color, itemDetail_id) SELECT 'GOOD', 125.9, 131.2, '', '#FF00FF', (select id from bodyCheckup_itemdetail where age=8 and sex='F' and item_id=(select id from bodyCheckup_itemmaster where name='身高'));</t>
+  </si>
+  <si>
+    <t>INSERT INTO bodyCheckup_itemscorestandard(periodType, lowScore, highScore, scoreDesc, color, itemDetail_id) SELECT 'GOOD', 131.3, 137, '', '#FF00FF', (select id from bodyCheckup_itemdetail where age=9 and sex='F' and item_id=(select id from bodyCheckup_itemmaster where name='身高'));</t>
+  </si>
+  <si>
+    <t>INSERT INTO bodyCheckup_itemscorestandard(periodType, lowScore, highScore, scoreDesc, color, itemDetail_id) SELECT 'GOOD', 137.1, 143.3, '', '#FF00FF', (select id from bodyCheckup_itemdetail where age=10 and sex='F' and item_id=(select id from bodyCheckup_itemmaster where name='身高'));</t>
+  </si>
+  <si>
+    <t>INSERT INTO bodyCheckup_itemscorestandard(periodType, lowScore, highScore, scoreDesc, color, itemDetail_id) SELECT 'GOOD', 143.4, 150, '', '#FF00FF', (select id from bodyCheckup_itemdetail where age=11 and sex='F' and item_id=(select id from bodyCheckup_itemmaster where name='身高'));</t>
+  </si>
+  <si>
+    <t>INSERT INTO bodyCheckup_itemscorestandard(periodType, lowScore, highScore, scoreDesc, color, itemDetail_id) SELECT 'GOOD', 149.3, 155.6, '', '#FF00FF', (select id from bodyCheckup_itemdetail where age=12 and sex='F' and item_id=(select id from bodyCheckup_itemmaster where name='身高'));</t>
+  </si>
+  <si>
+    <t>INSERT INTO bodyCheckup_itemscorestandard(periodType, lowScore, highScore, scoreDesc, color, itemDetail_id) SELECT 'EXCELLENT', 106.3, 112.3, '', '#0026FF', (select id from bodyCheckup_itemdetail where age=4 and sex='M' and item_id=(select id from bodyCheckup_itemmaster where name='身高'));</t>
+  </si>
+  <si>
+    <t>INSERT INTO bodyCheckup_itemscorestandard(periodType, lowScore, highScore, scoreDesc, color, itemDetail_id) SELECT 'EXCELLENT', 113.6, 120.1, '', '#0026FF', (select id from bodyCheckup_itemdetail where age=5 and sex='M' and item_id=(select id from bodyCheckup_itemmaster where name='身高'));</t>
+  </si>
+  <si>
+    <t>INSERT INTO bodyCheckup_itemscorestandard(periodType, lowScore, highScore, scoreDesc, color, itemDetail_id) SELECT 'EXCELLENT', 120.2, 127.1, '', '#0026FF', (select id from bodyCheckup_itemdetail where age=6 and sex='M' and item_id=(select id from bodyCheckup_itemmaster where name='身高'));</t>
+  </si>
+  <si>
+    <t>INSERT INTO bodyCheckup_itemscorestandard(periodType, lowScore, highScore, scoreDesc, color, itemDetail_id) SELECT 'EXCELLENT', 126.7, 134.2, '', '#0026FF', (select id from bodyCheckup_itemdetail where age=7 and sex='M' and item_id=(select id from bodyCheckup_itemmaster where name='身高'));</t>
+  </si>
+  <si>
+    <t>INSERT INTO bodyCheckup_itemscorestandard(periodType, lowScore, highScore, scoreDesc, color, itemDetail_id) SELECT 'EXCELLENT', 132.9, 141, '', '#0026FF', (select id from bodyCheckup_itemdetail where age=8 and sex='M' and item_id=(select id from bodyCheckup_itemmaster where name='身高'));</t>
+  </si>
+  <si>
+    <t>INSERT INTO bodyCheckup_itemscorestandard(periodType, lowScore, highScore, scoreDesc, color, itemDetail_id) SELECT 'EXCELLENT', 138.4, 147, '', '#0026FF', (select id from bodyCheckup_itemdetail where age=9 and sex='M' and item_id=(select id from bodyCheckup_itemmaster where name='身高'));</t>
+  </si>
+  <si>
+    <t>INSERT INTO bodyCheckup_itemscorestandard(periodType, lowScore, highScore, scoreDesc, color, itemDetail_id) SELECT 'EXCELLENT', 143.4, 152.6, '', '#0026FF', (select id from bodyCheckup_itemdetail where age=10 and sex='M' and item_id=(select id from bodyCheckup_itemmaster where name='身高'));</t>
+  </si>
+  <si>
+    <t>INSERT INTO bodyCheckup_itemscorestandard(periodType, lowScore, highScore, scoreDesc, color, itemDetail_id) SELECT 'EXCELLENT', 148.8, 158.9, '', '#0026FF', (select id from bodyCheckup_itemdetail where age=11 and sex='M' and item_id=(select id from bodyCheckup_itemmaster where name='身高'));</t>
+  </si>
+  <si>
+    <t>INSERT INTO bodyCheckup_itemscorestandard(periodType, lowScore, highScore, scoreDesc, color, itemDetail_id) SELECT 'EXCELLENT', 155.8, 166.9, '', '#0026FF', (select id from bodyCheckup_itemdetail where age=12 and sex='M' and item_id=(select id from bodyCheckup_itemmaster where name='身高'));</t>
+  </si>
+  <si>
+    <t>INSERT INTO bodyCheckup_itemscorestandard(periodType, lowScore, highScore, scoreDesc, color, itemDetail_id) SELECT 'EXCELLENT', 105.2, 110.9, '', '#0026FF', (select id from bodyCheckup_itemdetail where age=4 and sex='F' and item_id=(select id from bodyCheckup_itemmaster where name='身高'));</t>
+  </si>
+  <si>
+    <t>INSERT INTO bodyCheckup_itemscorestandard(periodType, lowScore, highScore, scoreDesc, color, itemDetail_id) SELECT 'EXCELLENT', 112.5, 118.8, '', '#0026FF', (select id from bodyCheckup_itemdetail where age=5 and sex='F' and item_id=(select id from bodyCheckup_itemmaster where name='身高'));</t>
+  </si>
+  <si>
+    <t>INSERT INTO bodyCheckup_itemscorestandard(periodType, lowScore, highScore, scoreDesc, color, itemDetail_id) SELECT 'EXCELLENT', 119, 125.8, '', '#0026FF', (select id from bodyCheckup_itemdetail where age=6 and sex='F' and item_id=(select id from bodyCheckup_itemmaster where name='身高'));</t>
+  </si>
+  <si>
+    <t>INSERT INTO bodyCheckup_itemscorestandard(periodType, lowScore, highScore, scoreDesc, color, itemDetail_id) SELECT 'EXCELLENT', 125.2, 132.7, '', '#0026FF', (select id from bodyCheckup_itemdetail where age=7 and sex='F' and item_id=(select id from bodyCheckup_itemmaster where name='身高'));</t>
+  </si>
+  <si>
+    <t>INSERT INTO bodyCheckup_itemscorestandard(periodType, lowScore, highScore, scoreDesc, color, itemDetail_id) SELECT 'EXCELLENT', 131.3, 139.3, '', '#0026FF', (select id from bodyCheckup_itemdetail where age=8 and sex='F' and item_id=(select id from bodyCheckup_itemmaster where name='身高'));</t>
+  </si>
+  <si>
+    <t>INSERT INTO bodyCheckup_itemscorestandard(periodType, lowScore, highScore, scoreDesc, color, itemDetail_id) SELECT 'EXCELLENT', 137.1, 145.7, '', '#0026FF', (select id from bodyCheckup_itemdetail where age=9 and sex='F' and item_id=(select id from bodyCheckup_itemmaster where name='身高'));</t>
+  </si>
+  <si>
+    <t>INSERT INTO bodyCheckup_itemscorestandard(periodType, lowScore, highScore, scoreDesc, color, itemDetail_id) SELECT 'EXCELLENT', 143.4, 152.7, '', '#0026FF', (select id from bodyCheckup_itemdetail where age=10 and sex='F' and item_id=(select id from bodyCheckup_itemmaster where name='身高'));</t>
+  </si>
+  <si>
+    <t>INSERT INTO bodyCheckup_itemscorestandard(periodType, lowScore, highScore, scoreDesc, color, itemDetail_id) SELECT 'EXCELLENT', 150.1, 160, '', '#0026FF', (select id from bodyCheckup_itemdetail where age=11 and sex='F' and item_id=(select id from bodyCheckup_itemmaster where name='身高'));</t>
+  </si>
+  <si>
+    <t>INSERT INTO bodyCheckup_itemscorestandard(periodType, lowScore, highScore, scoreDesc, color, itemDetail_id) SELECT 'EXCELLENT', 155.7, 165.2, '', '#0026FF', (select id from bodyCheckup_itemdetail where age=12 and sex='F' and item_id=(select id from bodyCheckup_itemmaster where name='身高'));</t>
   </si>
 </sst>
 </file>
@@ -2337,10 +2337,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M11"/>
+  <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2:G11"/>
+      <selection activeCell="M3" sqref="M3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2356,7 +2356,7 @@
     <col min="12" max="12" width="15.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="18.75" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:7" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -2376,7 +2376,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -2399,11 +2399,8 @@
         <f>"insert into bodyCheckup_itemmaster (type, name, unit, nonmemberUseYn, memberUseYn, useYn) values ("&amp;IF(A2="体质类",1,2)&amp;", '"&amp;TRIM(B2)&amp;"', '"&amp;TRIM(C2)&amp;"', '"&amp;D2&amp;"', '"&amp;E2&amp;"', '"&amp;F2&amp;"');"</f>
         <v>insert into bodyCheckup_itemmaster (type, name, unit, nonmemberUseYn, memberUseYn, useYn) values (1, '身高', 'cm', 'Y', 'Y', 'Y');</v>
       </c>
-      <c r="M2" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.15">
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -2426,11 +2423,8 @@
         <f t="shared" ref="G3:G11" si="0">"insert into bodyCheckup_itemmaster (type, name, unit, nonmemberUseYn, memberUseYn, useYn) values ("&amp;IF(A3="体质类",1,2)&amp;", '"&amp;TRIM(B3)&amp;"', '"&amp;TRIM(C3)&amp;"', '"&amp;D3&amp;"', '"&amp;E3&amp;"', '"&amp;F3&amp;"');"</f>
         <v>insert into bodyCheckup_itemmaster (type, name, unit, nonmemberUseYn, memberUseYn, useYn) values (1, '体重', 'kg', 'Y', 'Y', 'Y');</v>
       </c>
-      <c r="M3" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.15">
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
         <v>14</v>
       </c>
@@ -2454,7 +2448,7 @@
         <v>insert into bodyCheckup_itemmaster (type, name, unit, nonmemberUseYn, memberUseYn, useYn) values (2, '肺活量', 'ml', 'Y', 'Y', 'Y');</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
         <v>14</v>
       </c>
@@ -2478,7 +2472,7 @@
         <v>insert into bodyCheckup_itemmaster (type, name, unit, nonmemberUseYn, memberUseYn, useYn) values (2, '平衡木', '秒', 'Y', 'Y', 'Y');</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
         <v>14</v>
       </c>
@@ -2502,7 +2496,7 @@
         <v>insert into bodyCheckup_itemmaster (type, name, unit, nonmemberUseYn, memberUseYn, useYn) values (2, '坐位体前屈', 'cm', 'Y', 'Y', 'Y');</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
         <v>17</v>
       </c>
@@ -2526,7 +2520,7 @@
         <v>insert into bodyCheckup_itemmaster (type, name, unit, nonmemberUseYn, memberUseYn, useYn) values (2, '立定跳远', 'cm', 'Y', 'Y', 'Y');</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
         <v>17</v>
       </c>
@@ -2550,7 +2544,7 @@
         <v>insert into bodyCheckup_itemmaster (type, name, unit, nonmemberUseYn, memberUseYn, useYn) values (2, '仰卧起坐', '次', 'Y', 'Y', 'Y');</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
         <v>17</v>
       </c>
@@ -2574,7 +2568,7 @@
         <v>insert into bodyCheckup_itemmaster (type, name, unit, nonmemberUseYn, memberUseYn, useYn) values (2, '50米折返跑', '秒', 'Y', 'Y', 'Y');</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
         <v>17</v>
       </c>
@@ -2598,7 +2592,7 @@
         <v>insert into bodyCheckup_itemmaster (type, name, unit, nonmemberUseYn, memberUseYn, useYn) values (2, '10米折返跑', '秒', 'Y', 'Y', 'Y');</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
         <v>17</v>
       </c>
@@ -2634,7 +2628,7 @@
   <dimension ref="A1:AA39"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="Z2" sqref="Z2:Z41"/>
+      <selection activeCell="Z22" sqref="Z22:Z39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2713,28 +2707,28 @@
         <v>92.399999999999991</v>
       </c>
       <c r="J3">
-        <f>ROUND((D3+E3)/2,2)</f>
-        <v>98.25</v>
+        <f>ROUND((D3+E3)/2,1)</f>
+        <v>98.3</v>
       </c>
       <c r="K3">
-        <f>J3+0.01</f>
-        <v>98.26</v>
+        <f>J3+0.1</f>
+        <v>98.399999999999991</v>
       </c>
       <c r="L3">
-        <f>ROUND((E3+F3)/2,2)</f>
-        <v>102.15</v>
+        <f>ROUND((E3+F3)/2,1)</f>
+        <v>102.2</v>
       </c>
       <c r="M3">
-        <f>L3+0.01</f>
-        <v>102.16000000000001</v>
+        <f>L3+0.1</f>
+        <v>102.3</v>
       </c>
       <c r="N3">
-        <f>ROUND((F3+G3)/2,2)</f>
-        <v>106.15</v>
+        <f>ROUND((F3+G3)/2,1)</f>
+        <v>106.2</v>
       </c>
       <c r="O3">
-        <f>N3+0.01</f>
-        <v>106.16000000000001</v>
+        <f>N3+0.1</f>
+        <v>106.3</v>
       </c>
       <c r="P3">
         <f>G3+(G3-F3)</f>
@@ -2749,28 +2743,28 @@
       </c>
       <c r="T3" t="str">
         <f>"INSERT INTO bodyCheckup_itemscorestandard(periodType, lowScore, highScore, scoreDesc, color, itemDetail_id) SELECT '"&amp;I$1&amp;"', "&amp;I3&amp;", "&amp;J3&amp;", '', '"&amp;J$1&amp;"', (select id from bodyCheckup_itemdetail where age="&amp;$B3&amp;" and sex='"&amp;IF($C3="男", "M", "F")&amp;"' and item_id=(select id from bodyCheckup_itemmaster where name='"&amp;$A3&amp;"'));"</f>
-        <v>INSERT INTO bodyCheckup_itemscorestandard(periodType, lowScore, highScore, scoreDesc, color, itemDetail_id) SELECT 'FAILED', 92.4, 98.25, '', '#FF001A', (select id from bodyCheckup_itemdetail where age=4 and sex='M' and item_id=(select id from bodyCheckup_itemmaster where name='身高'));</v>
+        <v>INSERT INTO bodyCheckup_itemscorestandard(periodType, lowScore, highScore, scoreDesc, color, itemDetail_id) SELECT 'FAILED', 92.4, 98.3, '', '#FF001A', (select id from bodyCheckup_itemdetail where age=4 and sex='M' and item_id=(select id from bodyCheckup_itemmaster where name='身高'));</v>
       </c>
       <c r="U3" t="s">
         <v>0</v>
       </c>
       <c r="V3" t="str">
         <f>"INSERT INTO bodyCheckup_itemscorestandard(periodType, lowScore, highScore, scoreDesc, color, itemDetail_id) SELECT '"&amp;K$1&amp;"', "&amp;K3&amp;", "&amp;L3&amp;", '', '"&amp;L$1&amp;"', (select id from bodyCheckup_itemdetail where age="&amp;$B3&amp;" and sex='"&amp;IF($C3="男", "M", "F")&amp;"' and item_id=(select id from bodyCheckup_itemmaster where name='"&amp;$A3&amp;"'));"</f>
-        <v>INSERT INTO bodyCheckup_itemscorestandard(periodType, lowScore, highScore, scoreDesc, color, itemDetail_id) SELECT 'PASS', 98.26, 102.15, '', '#00FF59', (select id from bodyCheckup_itemdetail where age=4 and sex='M' and item_id=(select id from bodyCheckup_itemmaster where name='身高'));</v>
+        <v>INSERT INTO bodyCheckup_itemscorestandard(periodType, lowScore, highScore, scoreDesc, color, itemDetail_id) SELECT 'PASS', 98.4, 102.2, '', '#00FF59', (select id from bodyCheckup_itemdetail where age=4 and sex='M' and item_id=(select id from bodyCheckup_itemmaster where name='身高'));</v>
       </c>
       <c r="W3" t="s">
         <v>0</v>
       </c>
       <c r="X3" t="str">
         <f>"INSERT INTO bodyCheckup_itemscorestandard(periodType, lowScore, highScore, scoreDesc, color, itemDetail_id) SELECT '"&amp;M$1&amp;"', "&amp;M3&amp;", "&amp;N3&amp;", '', '"&amp;N$1&amp;"', (select id from bodyCheckup_itemdetail where age="&amp;$B3&amp;" and sex='"&amp;IF($C3="男", "M", "F")&amp;"' and item_id=(select id from bodyCheckup_itemmaster where name='"&amp;$A3&amp;"'));"</f>
-        <v>INSERT INTO bodyCheckup_itemscorestandard(periodType, lowScore, highScore, scoreDesc, color, itemDetail_id) SELECT 'GOOD', 102.16, 106.15, '', '#FF00FF', (select id from bodyCheckup_itemdetail where age=4 and sex='M' and item_id=(select id from bodyCheckup_itemmaster where name='身高'));</v>
+        <v>INSERT INTO bodyCheckup_itemscorestandard(periodType, lowScore, highScore, scoreDesc, color, itemDetail_id) SELECT 'GOOD', 102.3, 106.2, '', '#FF00FF', (select id from bodyCheckup_itemdetail where age=4 and sex='M' and item_id=(select id from bodyCheckup_itemmaster where name='身高'));</v>
       </c>
       <c r="Y3" t="s">
         <v>0</v>
       </c>
       <c r="Z3" t="str">
         <f>"INSERT INTO bodyCheckup_itemscorestandard(periodType, lowScore, highScore, scoreDesc, color, itemDetail_id) SELECT '"&amp;O$1&amp;"', "&amp;O3&amp;", "&amp;P3&amp;", '', '"&amp;P$1&amp;"', (select id from bodyCheckup_itemdetail where age="&amp;$B3&amp;" and sex='"&amp;IF($C3="男", "M", "F")&amp;"' and item_id=(select id from bodyCheckup_itemmaster where name='"&amp;$A3&amp;"'));"</f>
-        <v>INSERT INTO bodyCheckup_itemscorestandard(periodType, lowScore, highScore, scoreDesc, color, itemDetail_id) SELECT 'EXCELLENT', 106.16, 112.3, '', '#0026FF', (select id from bodyCheckup_itemdetail where age=4 and sex='M' and item_id=(select id from bodyCheckup_itemmaster where name='身高'));</v>
+        <v>INSERT INTO bodyCheckup_itemscorestandard(periodType, lowScore, highScore, scoreDesc, color, itemDetail_id) SELECT 'EXCELLENT', 106.3, 112.3, '', '#0026FF', (select id from bodyCheckup_itemdetail where age=4 and sex='M' and item_id=(select id from bodyCheckup_itemmaster where name='身高'));</v>
       </c>
       <c r="AA3" t="s">
         <v>0</v>
@@ -2803,28 +2797,28 @@
         <v>98.6</v>
       </c>
       <c r="J4">
-        <f t="shared" ref="J4:J39" si="1">ROUND((D4+E4)/2,2)</f>
+        <f t="shared" ref="J4:J39" si="1">ROUND((D4+E4)/2,1)</f>
         <v>104.9</v>
       </c>
       <c r="K4">
-        <f t="shared" ref="K4:K39" si="2">J4+0.01</f>
-        <v>104.91000000000001</v>
+        <f t="shared" ref="K4:K39" si="2">J4+0.1</f>
+        <v>105</v>
       </c>
       <c r="L4">
-        <f t="shared" ref="L4:L39" si="3">ROUND((E4+F4)/2,2)</f>
-        <v>109.15</v>
+        <f t="shared" ref="L4:L39" si="3">ROUND((E4+F4)/2,1)</f>
+        <v>109.2</v>
       </c>
       <c r="M4">
-        <f t="shared" ref="M4:M39" si="4">L4+0.01</f>
-        <v>109.16000000000001</v>
+        <f t="shared" ref="M4:M39" si="4">L4+0.1</f>
+        <v>109.3</v>
       </c>
       <c r="N4">
-        <f t="shared" ref="N4:N39" si="5">ROUND((F4+G4)/2,2)</f>
+        <f t="shared" ref="N4:N39" si="5">ROUND((F4+G4)/2,1)</f>
         <v>113.5</v>
       </c>
       <c r="O4">
-        <f t="shared" ref="O4:O39" si="6">N4+0.01</f>
-        <v>113.51</v>
+        <f t="shared" ref="O4:O39" si="6">N4+0.1</f>
+        <v>113.6</v>
       </c>
       <c r="P4">
         <f t="shared" ref="P4:P39" si="7">G4+(G4-F4)</f>
@@ -2846,21 +2840,21 @@
       </c>
       <c r="V4" t="str">
         <f t="shared" ref="V4:V39" si="10">"INSERT INTO bodyCheckup_itemscorestandard(periodType, lowScore, highScore, scoreDesc, color, itemDetail_id) SELECT '"&amp;K$1&amp;"', "&amp;K4&amp;", "&amp;L4&amp;", '', '"&amp;L$1&amp;"', (select id from bodyCheckup_itemdetail where age="&amp;$B4&amp;" and sex='"&amp;IF($C4="男", "M", "F")&amp;"' and item_id=(select id from bodyCheckup_itemmaster where name='"&amp;$A4&amp;"'));"</f>
-        <v>INSERT INTO bodyCheckup_itemscorestandard(periodType, lowScore, highScore, scoreDesc, color, itemDetail_id) SELECT 'PASS', 104.91, 109.15, '', '#00FF59', (select id from bodyCheckup_itemdetail where age=5 and sex='M' and item_id=(select id from bodyCheckup_itemmaster where name='身高'));</v>
+        <v>INSERT INTO bodyCheckup_itemscorestandard(periodType, lowScore, highScore, scoreDesc, color, itemDetail_id) SELECT 'PASS', 105, 109.2, '', '#00FF59', (select id from bodyCheckup_itemdetail where age=5 and sex='M' and item_id=(select id from bodyCheckup_itemmaster where name='身高'));</v>
       </c>
       <c r="W4" t="s">
         <v>0</v>
       </c>
       <c r="X4" t="str">
         <f t="shared" ref="X4:X39" si="11">"INSERT INTO bodyCheckup_itemscorestandard(periodType, lowScore, highScore, scoreDesc, color, itemDetail_id) SELECT '"&amp;M$1&amp;"', "&amp;M4&amp;", "&amp;N4&amp;", '', '"&amp;N$1&amp;"', (select id from bodyCheckup_itemdetail where age="&amp;$B4&amp;" and sex='"&amp;IF($C4="男", "M", "F")&amp;"' and item_id=(select id from bodyCheckup_itemmaster where name='"&amp;$A4&amp;"'));"</f>
-        <v>INSERT INTO bodyCheckup_itemscorestandard(periodType, lowScore, highScore, scoreDesc, color, itemDetail_id) SELECT 'GOOD', 109.16, 113.5, '', '#FF00FF', (select id from bodyCheckup_itemdetail where age=5 and sex='M' and item_id=(select id from bodyCheckup_itemmaster where name='身高'));</v>
+        <v>INSERT INTO bodyCheckup_itemscorestandard(periodType, lowScore, highScore, scoreDesc, color, itemDetail_id) SELECT 'GOOD', 109.3, 113.5, '', '#FF00FF', (select id from bodyCheckup_itemdetail where age=5 and sex='M' and item_id=(select id from bodyCheckup_itemmaster where name='身高'));</v>
       </c>
       <c r="Y4" t="s">
         <v>0</v>
       </c>
       <c r="Z4" t="str">
         <f t="shared" ref="Z4:Z39" si="12">"INSERT INTO bodyCheckup_itemscorestandard(periodType, lowScore, highScore, scoreDesc, color, itemDetail_id) SELECT '"&amp;O$1&amp;"', "&amp;O4&amp;", "&amp;P4&amp;", '', '"&amp;P$1&amp;"', (select id from bodyCheckup_itemdetail where age="&amp;$B4&amp;" and sex='"&amp;IF($C4="男", "M", "F")&amp;"' and item_id=(select id from bodyCheckup_itemmaster where name='"&amp;$A4&amp;"'));"</f>
-        <v>INSERT INTO bodyCheckup_itemscorestandard(periodType, lowScore, highScore, scoreDesc, color, itemDetail_id) SELECT 'EXCELLENT', 113.51, 120.1, '', '#0026FF', (select id from bodyCheckup_itemdetail where age=5 and sex='M' and item_id=(select id from bodyCheckup_itemmaster where name='身高'));</v>
+        <v>INSERT INTO bodyCheckup_itemscorestandard(periodType, lowScore, highScore, scoreDesc, color, itemDetail_id) SELECT 'EXCELLENT', 113.6, 120.1, '', '#0026FF', (select id from bodyCheckup_itemdetail where age=5 and sex='M' and item_id=(select id from bodyCheckup_itemmaster where name='身高'));</v>
       </c>
       <c r="AA4" t="s">
         <v>0</v>
@@ -2894,11 +2888,11 @@
       </c>
       <c r="J5">
         <f t="shared" si="1"/>
-        <v>110.85</v>
+        <v>110.9</v>
       </c>
       <c r="K5">
         <f t="shared" si="2"/>
-        <v>110.86</v>
+        <v>111</v>
       </c>
       <c r="L5">
         <f t="shared" si="3"/>
@@ -2906,15 +2900,15 @@
       </c>
       <c r="M5">
         <f t="shared" si="4"/>
-        <v>115.41000000000001</v>
+        <v>115.5</v>
       </c>
       <c r="N5">
         <f t="shared" si="5"/>
-        <v>120.05</v>
+        <v>120.1</v>
       </c>
       <c r="O5">
         <f t="shared" si="6"/>
-        <v>120.06</v>
+        <v>120.19999999999999</v>
       </c>
       <c r="P5">
         <f t="shared" si="7"/>
@@ -2929,28 +2923,28 @@
       </c>
       <c r="T5" t="str">
         <f t="shared" si="9"/>
-        <v>INSERT INTO bodyCheckup_itemscorestandard(periodType, lowScore, highScore, scoreDesc, color, itemDetail_id) SELECT 'FAILED', 104.1, 110.85, '', '#FF001A', (select id from bodyCheckup_itemdetail where age=6 and sex='M' and item_id=(select id from bodyCheckup_itemmaster where name='身高'));</v>
+        <v>INSERT INTO bodyCheckup_itemscorestandard(periodType, lowScore, highScore, scoreDesc, color, itemDetail_id) SELECT 'FAILED', 104.1, 110.9, '', '#FF001A', (select id from bodyCheckup_itemdetail where age=6 and sex='M' and item_id=(select id from bodyCheckup_itemmaster where name='身高'));</v>
       </c>
       <c r="U5" t="s">
         <v>0</v>
       </c>
       <c r="V5" t="str">
         <f t="shared" si="10"/>
-        <v>INSERT INTO bodyCheckup_itemscorestandard(periodType, lowScore, highScore, scoreDesc, color, itemDetail_id) SELECT 'PASS', 110.86, 115.4, '', '#00FF59', (select id from bodyCheckup_itemdetail where age=6 and sex='M' and item_id=(select id from bodyCheckup_itemmaster where name='身高'));</v>
+        <v>INSERT INTO bodyCheckup_itemscorestandard(periodType, lowScore, highScore, scoreDesc, color, itemDetail_id) SELECT 'PASS', 111, 115.4, '', '#00FF59', (select id from bodyCheckup_itemdetail where age=6 and sex='M' and item_id=(select id from bodyCheckup_itemmaster where name='身高'));</v>
       </c>
       <c r="W5" t="s">
         <v>0</v>
       </c>
       <c r="X5" t="str">
         <f t="shared" si="11"/>
-        <v>INSERT INTO bodyCheckup_itemscorestandard(periodType, lowScore, highScore, scoreDesc, color, itemDetail_id) SELECT 'GOOD', 115.41, 120.05, '', '#FF00FF', (select id from bodyCheckup_itemdetail where age=6 and sex='M' and item_id=(select id from bodyCheckup_itemmaster where name='身高'));</v>
+        <v>INSERT INTO bodyCheckup_itemscorestandard(periodType, lowScore, highScore, scoreDesc, color, itemDetail_id) SELECT 'GOOD', 115.5, 120.1, '', '#FF00FF', (select id from bodyCheckup_itemdetail where age=6 and sex='M' and item_id=(select id from bodyCheckup_itemmaster where name='身高'));</v>
       </c>
       <c r="Y5" t="s">
         <v>0</v>
       </c>
       <c r="Z5" t="str">
         <f t="shared" si="12"/>
-        <v>INSERT INTO bodyCheckup_itemscorestandard(periodType, lowScore, highScore, scoreDesc, color, itemDetail_id) SELECT 'EXCELLENT', 120.06, 127.1, '', '#0026FF', (select id from bodyCheckup_itemdetail where age=6 and sex='M' and item_id=(select id from bodyCheckup_itemmaster where name='身高'));</v>
+        <v>INSERT INTO bodyCheckup_itemscorestandard(periodType, lowScore, highScore, scoreDesc, color, itemDetail_id) SELECT 'EXCELLENT', 120.2, 127.1, '', '#0026FF', (select id from bodyCheckup_itemdetail where age=6 and sex='M' and item_id=(select id from bodyCheckup_itemmaster where name='身高'));</v>
       </c>
       <c r="AA5" t="s">
         <v>0</v>
@@ -2988,7 +2982,7 @@
       </c>
       <c r="K6">
         <f t="shared" si="2"/>
-        <v>116.51</v>
+        <v>116.6</v>
       </c>
       <c r="L6">
         <f t="shared" si="3"/>
@@ -2996,15 +2990,15 @@
       </c>
       <c r="M6">
         <f t="shared" si="4"/>
-        <v>121.51</v>
+        <v>121.6</v>
       </c>
       <c r="N6">
         <f t="shared" si="5"/>
-        <v>126.55</v>
+        <v>126.6</v>
       </c>
       <c r="O6">
         <f t="shared" si="6"/>
-        <v>126.56</v>
+        <v>126.69999999999999</v>
       </c>
       <c r="P6">
         <f t="shared" si="7"/>
@@ -3026,21 +3020,21 @@
       </c>
       <c r="V6" t="str">
         <f t="shared" si="10"/>
-        <v>INSERT INTO bodyCheckup_itemscorestandard(periodType, lowScore, highScore, scoreDesc, color, itemDetail_id) SELECT 'PASS', 116.51, 121.5, '', '#00FF59', (select id from bodyCheckup_itemdetail where age=7 and sex='M' and item_id=(select id from bodyCheckup_itemmaster where name='身高'));</v>
+        <v>INSERT INTO bodyCheckup_itemscorestandard(periodType, lowScore, highScore, scoreDesc, color, itemDetail_id) SELECT 'PASS', 116.6, 121.5, '', '#00FF59', (select id from bodyCheckup_itemdetail where age=7 and sex='M' and item_id=(select id from bodyCheckup_itemmaster where name='身高'));</v>
       </c>
       <c r="W6" t="s">
         <v>0</v>
       </c>
       <c r="X6" t="str">
         <f t="shared" si="11"/>
-        <v>INSERT INTO bodyCheckup_itemscorestandard(periodType, lowScore, highScore, scoreDesc, color, itemDetail_id) SELECT 'GOOD', 121.51, 126.55, '', '#FF00FF', (select id from bodyCheckup_itemdetail where age=7 and sex='M' and item_id=(select id from bodyCheckup_itemmaster where name='身高'));</v>
+        <v>INSERT INTO bodyCheckup_itemscorestandard(periodType, lowScore, highScore, scoreDesc, color, itemDetail_id) SELECT 'GOOD', 121.6, 126.6, '', '#FF00FF', (select id from bodyCheckup_itemdetail where age=7 and sex='M' and item_id=(select id from bodyCheckup_itemmaster where name='身高'));</v>
       </c>
       <c r="Y6" t="s">
         <v>0</v>
       </c>
       <c r="Z6" t="str">
         <f t="shared" si="12"/>
-        <v>INSERT INTO bodyCheckup_itemscorestandard(periodType, lowScore, highScore, scoreDesc, color, itemDetail_id) SELECT 'EXCELLENT', 126.56, 134.2, '', '#0026FF', (select id from bodyCheckup_itemdetail where age=7 and sex='M' and item_id=(select id from bodyCheckup_itemmaster where name='身高'));</v>
+        <v>INSERT INTO bodyCheckup_itemscorestandard(periodType, lowScore, highScore, scoreDesc, color, itemDetail_id) SELECT 'EXCELLENT', 126.7, 134.2, '', '#0026FF', (select id from bodyCheckup_itemdetail where age=7 and sex='M' and item_id=(select id from bodyCheckup_itemmaster where name='身高'));</v>
       </c>
       <c r="AA6" t="s">
         <v>0</v>
@@ -3074,11 +3068,11 @@
       </c>
       <c r="J7">
         <f t="shared" si="1"/>
-        <v>121.95</v>
+        <v>122</v>
       </c>
       <c r="K7">
         <f t="shared" si="2"/>
-        <v>121.96000000000001</v>
+        <v>122.1</v>
       </c>
       <c r="L7">
         <f t="shared" si="3"/>
@@ -3086,15 +3080,15 @@
       </c>
       <c r="M7">
         <f t="shared" si="4"/>
-        <v>127.31</v>
+        <v>127.39999999999999</v>
       </c>
       <c r="N7">
         <f t="shared" si="5"/>
-        <v>132.75</v>
+        <v>132.80000000000001</v>
       </c>
       <c r="O7">
         <f t="shared" si="6"/>
-        <v>132.76</v>
+        <v>132.9</v>
       </c>
       <c r="P7">
         <f t="shared" si="7"/>
@@ -3109,28 +3103,28 @@
       </c>
       <c r="T7" t="str">
         <f t="shared" si="9"/>
-        <v>INSERT INTO bodyCheckup_itemscorestandard(periodType, lowScore, highScore, scoreDesc, color, itemDetail_id) SELECT 'FAILED', 114, 121.95, '', '#FF001A', (select id from bodyCheckup_itemdetail where age=8 and sex='M' and item_id=(select id from bodyCheckup_itemmaster where name='身高'));</v>
+        <v>INSERT INTO bodyCheckup_itemscorestandard(periodType, lowScore, highScore, scoreDesc, color, itemDetail_id) SELECT 'FAILED', 114, 122, '', '#FF001A', (select id from bodyCheckup_itemdetail where age=8 and sex='M' and item_id=(select id from bodyCheckup_itemmaster where name='身高'));</v>
       </c>
       <c r="U7" t="s">
         <v>0</v>
       </c>
       <c r="V7" t="str">
         <f t="shared" si="10"/>
-        <v>INSERT INTO bodyCheckup_itemscorestandard(periodType, lowScore, highScore, scoreDesc, color, itemDetail_id) SELECT 'PASS', 121.96, 127.3, '', '#00FF59', (select id from bodyCheckup_itemdetail where age=8 and sex='M' and item_id=(select id from bodyCheckup_itemmaster where name='身高'));</v>
+        <v>INSERT INTO bodyCheckup_itemscorestandard(periodType, lowScore, highScore, scoreDesc, color, itemDetail_id) SELECT 'PASS', 122.1, 127.3, '', '#00FF59', (select id from bodyCheckup_itemdetail where age=8 and sex='M' and item_id=(select id from bodyCheckup_itemmaster where name='身高'));</v>
       </c>
       <c r="W7" t="s">
         <v>0</v>
       </c>
       <c r="X7" t="str">
         <f t="shared" si="11"/>
-        <v>INSERT INTO bodyCheckup_itemscorestandard(periodType, lowScore, highScore, scoreDesc, color, itemDetail_id) SELECT 'GOOD', 127.31, 132.75, '', '#FF00FF', (select id from bodyCheckup_itemdetail where age=8 and sex='M' and item_id=(select id from bodyCheckup_itemmaster where name='身高'));</v>
+        <v>INSERT INTO bodyCheckup_itemscorestandard(periodType, lowScore, highScore, scoreDesc, color, itemDetail_id) SELECT 'GOOD', 127.4, 132.8, '', '#FF00FF', (select id from bodyCheckup_itemdetail where age=8 and sex='M' and item_id=(select id from bodyCheckup_itemmaster where name='身高'));</v>
       </c>
       <c r="Y7" t="s">
         <v>0</v>
       </c>
       <c r="Z7" t="str">
         <f t="shared" si="12"/>
-        <v>INSERT INTO bodyCheckup_itemscorestandard(periodType, lowScore, highScore, scoreDesc, color, itemDetail_id) SELECT 'EXCELLENT', 132.76, 141, '', '#0026FF', (select id from bodyCheckup_itemdetail where age=8 and sex='M' and item_id=(select id from bodyCheckup_itemmaster where name='身高'));</v>
+        <v>INSERT INTO bodyCheckup_itemscorestandard(periodType, lowScore, highScore, scoreDesc, color, itemDetail_id) SELECT 'EXCELLENT', 132.9, 141, '', '#0026FF', (select id from bodyCheckup_itemdetail where age=8 and sex='M' and item_id=(select id from bodyCheckup_itemmaster where name='身高'));</v>
       </c>
       <c r="AA7" t="s">
         <v>0</v>
@@ -3164,11 +3158,11 @@
       </c>
       <c r="J8">
         <f t="shared" si="1"/>
-        <v>126.75</v>
+        <v>126.8</v>
       </c>
       <c r="K8">
         <f t="shared" si="2"/>
-        <v>126.76</v>
+        <v>126.89999999999999</v>
       </c>
       <c r="L8">
         <f t="shared" si="3"/>
@@ -3176,7 +3170,7 @@
       </c>
       <c r="M8">
         <f t="shared" si="4"/>
-        <v>132.51</v>
+        <v>132.6</v>
       </c>
       <c r="N8">
         <f t="shared" si="5"/>
@@ -3184,7 +3178,7 @@
       </c>
       <c r="O8">
         <f t="shared" si="6"/>
-        <v>138.31</v>
+        <v>138.4</v>
       </c>
       <c r="P8">
         <f t="shared" si="7"/>
@@ -3199,28 +3193,28 @@
       </c>
       <c r="T8" t="str">
         <f t="shared" si="9"/>
-        <v>INSERT INTO bodyCheckup_itemscorestandard(periodType, lowScore, highScore, scoreDesc, color, itemDetail_id) SELECT 'FAILED', 118.2, 126.75, '', '#FF001A', (select id from bodyCheckup_itemdetail where age=9 and sex='M' and item_id=(select id from bodyCheckup_itemmaster where name='身高'));</v>
+        <v>INSERT INTO bodyCheckup_itemscorestandard(periodType, lowScore, highScore, scoreDesc, color, itemDetail_id) SELECT 'FAILED', 118.2, 126.8, '', '#FF001A', (select id from bodyCheckup_itemdetail where age=9 and sex='M' and item_id=(select id from bodyCheckup_itemmaster where name='身高'));</v>
       </c>
       <c r="U8" t="s">
         <v>0</v>
       </c>
       <c r="V8" t="str">
         <f t="shared" si="10"/>
-        <v>INSERT INTO bodyCheckup_itemscorestandard(periodType, lowScore, highScore, scoreDesc, color, itemDetail_id) SELECT 'PASS', 126.76, 132.5, '', '#00FF59', (select id from bodyCheckup_itemdetail where age=9 and sex='M' and item_id=(select id from bodyCheckup_itemmaster where name='身高'));</v>
+        <v>INSERT INTO bodyCheckup_itemscorestandard(periodType, lowScore, highScore, scoreDesc, color, itemDetail_id) SELECT 'PASS', 126.9, 132.5, '', '#00FF59', (select id from bodyCheckup_itemdetail where age=9 and sex='M' and item_id=(select id from bodyCheckup_itemmaster where name='身高'));</v>
       </c>
       <c r="W8" t="s">
         <v>0</v>
       </c>
       <c r="X8" t="str">
         <f t="shared" si="11"/>
-        <v>INSERT INTO bodyCheckup_itemscorestandard(periodType, lowScore, highScore, scoreDesc, color, itemDetail_id) SELECT 'GOOD', 132.51, 138.3, '', '#FF00FF', (select id from bodyCheckup_itemdetail where age=9 and sex='M' and item_id=(select id from bodyCheckup_itemmaster where name='身高'));</v>
+        <v>INSERT INTO bodyCheckup_itemscorestandard(periodType, lowScore, highScore, scoreDesc, color, itemDetail_id) SELECT 'GOOD', 132.6, 138.3, '', '#FF00FF', (select id from bodyCheckup_itemdetail where age=9 and sex='M' and item_id=(select id from bodyCheckup_itemmaster where name='身高'));</v>
       </c>
       <c r="Y8" t="s">
         <v>0</v>
       </c>
       <c r="Z8" t="str">
         <f t="shared" si="12"/>
-        <v>INSERT INTO bodyCheckup_itemscorestandard(periodType, lowScore, highScore, scoreDesc, color, itemDetail_id) SELECT 'EXCELLENT', 138.31, 147, '', '#0026FF', (select id from bodyCheckup_itemdetail where age=9 and sex='M' and item_id=(select id from bodyCheckup_itemmaster where name='身高'));</v>
+        <v>INSERT INTO bodyCheckup_itemscorestandard(periodType, lowScore, highScore, scoreDesc, color, itemDetail_id) SELECT 'EXCELLENT', 138.4, 147, '', '#0026FF', (select id from bodyCheckup_itemdetail where age=9 and sex='M' and item_id=(select id from bodyCheckup_itemmaster where name='身高'));</v>
       </c>
       <c r="AA8" t="s">
         <v>0</v>
@@ -3254,11 +3248,11 @@
       </c>
       <c r="J9">
         <f t="shared" si="1"/>
-        <v>130.94999999999999</v>
+        <v>131</v>
       </c>
       <c r="K9">
         <f t="shared" si="2"/>
-        <v>130.95999999999998</v>
+        <v>131.1</v>
       </c>
       <c r="L9">
         <f t="shared" si="3"/>
@@ -3266,7 +3260,7 @@
       </c>
       <c r="M9">
         <f t="shared" si="4"/>
-        <v>137.10999999999999</v>
+        <v>137.19999999999999</v>
       </c>
       <c r="N9">
         <f t="shared" si="5"/>
@@ -3274,7 +3268,7 @@
       </c>
       <c r="O9">
         <f t="shared" si="6"/>
-        <v>143.31</v>
+        <v>143.4</v>
       </c>
       <c r="P9">
         <f t="shared" si="7"/>
@@ -3289,28 +3283,28 @@
       </c>
       <c r="T9" t="str">
         <f t="shared" si="9"/>
-        <v>INSERT INTO bodyCheckup_itemscorestandard(periodType, lowScore, highScore, scoreDesc, color, itemDetail_id) SELECT 'FAILED', 121.8, 130.95, '', '#FF001A', (select id from bodyCheckup_itemdetail where age=10 and sex='M' and item_id=(select id from bodyCheckup_itemmaster where name='身高'));</v>
+        <v>INSERT INTO bodyCheckup_itemscorestandard(periodType, lowScore, highScore, scoreDesc, color, itemDetail_id) SELECT 'FAILED', 121.8, 131, '', '#FF001A', (select id from bodyCheckup_itemdetail where age=10 and sex='M' and item_id=(select id from bodyCheckup_itemmaster where name='身高'));</v>
       </c>
       <c r="U9" t="s">
         <v>0</v>
       </c>
       <c r="V9" t="str">
         <f t="shared" si="10"/>
-        <v>INSERT INTO bodyCheckup_itemscorestandard(periodType, lowScore, highScore, scoreDesc, color, itemDetail_id) SELECT 'PASS', 130.96, 137.1, '', '#00FF59', (select id from bodyCheckup_itemdetail where age=10 and sex='M' and item_id=(select id from bodyCheckup_itemmaster where name='身高'));</v>
+        <v>INSERT INTO bodyCheckup_itemscorestandard(periodType, lowScore, highScore, scoreDesc, color, itemDetail_id) SELECT 'PASS', 131.1, 137.1, '', '#00FF59', (select id from bodyCheckup_itemdetail where age=10 and sex='M' and item_id=(select id from bodyCheckup_itemmaster where name='身高'));</v>
       </c>
       <c r="W9" t="s">
         <v>0</v>
       </c>
       <c r="X9" t="str">
         <f t="shared" si="11"/>
-        <v>INSERT INTO bodyCheckup_itemscorestandard(periodType, lowScore, highScore, scoreDesc, color, itemDetail_id) SELECT 'GOOD', 137.11, 143.3, '', '#FF00FF', (select id from bodyCheckup_itemdetail where age=10 and sex='M' and item_id=(select id from bodyCheckup_itemmaster where name='身高'));</v>
+        <v>INSERT INTO bodyCheckup_itemscorestandard(periodType, lowScore, highScore, scoreDesc, color, itemDetail_id) SELECT 'GOOD', 137.2, 143.3, '', '#FF00FF', (select id from bodyCheckup_itemdetail where age=10 and sex='M' and item_id=(select id from bodyCheckup_itemmaster where name='身高'));</v>
       </c>
       <c r="Y9" t="s">
         <v>0</v>
       </c>
       <c r="Z9" t="str">
         <f t="shared" si="12"/>
-        <v>INSERT INTO bodyCheckup_itemscorestandard(periodType, lowScore, highScore, scoreDesc, color, itemDetail_id) SELECT 'EXCELLENT', 143.31, 152.6, '', '#0026FF', (select id from bodyCheckup_itemdetail where age=10 and sex='M' and item_id=(select id from bodyCheckup_itemmaster where name='身高'));</v>
+        <v>INSERT INTO bodyCheckup_itemscorestandard(periodType, lowScore, highScore, scoreDesc, color, itemDetail_id) SELECT 'EXCELLENT', 143.4, 152.6, '', '#0026FF', (select id from bodyCheckup_itemdetail where age=10 and sex='M' and item_id=(select id from bodyCheckup_itemmaster where name='身高'));</v>
       </c>
       <c r="AA9" t="s">
         <v>0</v>
@@ -3348,7 +3342,7 @@
       </c>
       <c r="K10">
         <f t="shared" si="2"/>
-        <v>135.41</v>
+        <v>135.5</v>
       </c>
       <c r="L10">
         <f t="shared" si="3"/>
@@ -3356,7 +3350,7 @@
       </c>
       <c r="M10">
         <f t="shared" si="4"/>
-        <v>142.01</v>
+        <v>142.1</v>
       </c>
       <c r="N10">
         <f t="shared" si="5"/>
@@ -3364,7 +3358,7 @@
       </c>
       <c r="O10">
         <f t="shared" si="6"/>
-        <v>148.70999999999998</v>
+        <v>148.79999999999998</v>
       </c>
       <c r="P10">
         <f t="shared" si="7"/>
@@ -3386,21 +3380,21 @@
       </c>
       <c r="V10" t="str">
         <f t="shared" si="10"/>
-        <v>INSERT INTO bodyCheckup_itemscorestandard(periodType, lowScore, highScore, scoreDesc, color, itemDetail_id) SELECT 'PASS', 135.41, 142, '', '#00FF59', (select id from bodyCheckup_itemdetail where age=11 and sex='M' and item_id=(select id from bodyCheckup_itemmaster where name='身高'));</v>
+        <v>INSERT INTO bodyCheckup_itemscorestandard(periodType, lowScore, highScore, scoreDesc, color, itemDetail_id) SELECT 'PASS', 135.5, 142, '', '#00FF59', (select id from bodyCheckup_itemdetail where age=11 and sex='M' and item_id=(select id from bodyCheckup_itemmaster where name='身高'));</v>
       </c>
       <c r="W10" t="s">
         <v>0</v>
       </c>
       <c r="X10" t="str">
         <f t="shared" si="11"/>
-        <v>INSERT INTO bodyCheckup_itemscorestandard(periodType, lowScore, highScore, scoreDesc, color, itemDetail_id) SELECT 'GOOD', 142.01, 148.7, '', '#FF00FF', (select id from bodyCheckup_itemdetail where age=11 and sex='M' and item_id=(select id from bodyCheckup_itemmaster where name='身高'));</v>
+        <v>INSERT INTO bodyCheckup_itemscorestandard(periodType, lowScore, highScore, scoreDesc, color, itemDetail_id) SELECT 'GOOD', 142.1, 148.7, '', '#FF00FF', (select id from bodyCheckup_itemdetail where age=11 and sex='M' and item_id=(select id from bodyCheckup_itemmaster where name='身高'));</v>
       </c>
       <c r="Y10" t="s">
         <v>0</v>
       </c>
       <c r="Z10" t="str">
         <f t="shared" si="12"/>
-        <v>INSERT INTO bodyCheckup_itemscorestandard(periodType, lowScore, highScore, scoreDesc, color, itemDetail_id) SELECT 'EXCELLENT', 148.71, 158.9, '', '#0026FF', (select id from bodyCheckup_itemdetail where age=11 and sex='M' and item_id=(select id from bodyCheckup_itemmaster where name='身高'));</v>
+        <v>INSERT INTO bodyCheckup_itemscorestandard(periodType, lowScore, highScore, scoreDesc, color, itemDetail_id) SELECT 'EXCELLENT', 148.8, 158.9, '', '#0026FF', (select id from bodyCheckup_itemdetail where age=11 and sex='M' and item_id=(select id from bodyCheckup_itemmaster where name='身高'));</v>
       </c>
       <c r="AA10" t="s">
         <v>0</v>
@@ -3438,23 +3432,23 @@
       </c>
       <c r="K11">
         <f t="shared" si="2"/>
-        <v>140.91</v>
+        <v>141</v>
       </c>
       <c r="L11">
         <f t="shared" si="3"/>
-        <v>148.25</v>
+        <v>148.30000000000001</v>
       </c>
       <c r="M11">
         <f t="shared" si="4"/>
-        <v>148.26</v>
+        <v>148.4</v>
       </c>
       <c r="N11">
         <f t="shared" si="5"/>
-        <v>155.65</v>
+        <v>155.69999999999999</v>
       </c>
       <c r="O11">
         <f t="shared" si="6"/>
-        <v>155.66</v>
+        <v>155.79999999999998</v>
       </c>
       <c r="P11">
         <f t="shared" si="7"/>
@@ -3476,21 +3470,21 @@
       </c>
       <c r="V11" t="str">
         <f t="shared" si="10"/>
-        <v>INSERT INTO bodyCheckup_itemscorestandard(periodType, lowScore, highScore, scoreDesc, color, itemDetail_id) SELECT 'PASS', 140.91, 148.25, '', '#00FF59', (select id from bodyCheckup_itemdetail where age=12 and sex='M' and item_id=(select id from bodyCheckup_itemmaster where name='身高'));</v>
+        <v>INSERT INTO bodyCheckup_itemscorestandard(periodType, lowScore, highScore, scoreDesc, color, itemDetail_id) SELECT 'PASS', 141, 148.3, '', '#00FF59', (select id from bodyCheckup_itemdetail where age=12 and sex='M' and item_id=(select id from bodyCheckup_itemmaster where name='身高'));</v>
       </c>
       <c r="W11" t="s">
         <v>0</v>
       </c>
       <c r="X11" t="str">
         <f t="shared" si="11"/>
-        <v>INSERT INTO bodyCheckup_itemscorestandard(periodType, lowScore, highScore, scoreDesc, color, itemDetail_id) SELECT 'GOOD', 148.26, 155.65, '', '#FF00FF', (select id from bodyCheckup_itemdetail where age=12 and sex='M' and item_id=(select id from bodyCheckup_itemmaster where name='身高'));</v>
+        <v>INSERT INTO bodyCheckup_itemscorestandard(periodType, lowScore, highScore, scoreDesc, color, itemDetail_id) SELECT 'GOOD', 148.4, 155.7, '', '#FF00FF', (select id from bodyCheckup_itemdetail where age=12 and sex='M' and item_id=(select id from bodyCheckup_itemmaster where name='身高'));</v>
       </c>
       <c r="Y11" t="s">
         <v>0</v>
       </c>
       <c r="Z11" t="str">
         <f t="shared" si="12"/>
-        <v>INSERT INTO bodyCheckup_itemscorestandard(periodType, lowScore, highScore, scoreDesc, color, itemDetail_id) SELECT 'EXCELLENT', 155.66, 166.9, '', '#0026FF', (select id from bodyCheckup_itemdetail where age=12 and sex='M' and item_id=(select id from bodyCheckup_itemmaster where name='身高'));</v>
+        <v>INSERT INTO bodyCheckup_itemscorestandard(periodType, lowScore, highScore, scoreDesc, color, itemDetail_id) SELECT 'EXCELLENT', 155.8, 166.9, '', '#0026FF', (select id from bodyCheckup_itemdetail where age=12 and sex='M' and item_id=(select id from bodyCheckup_itemmaster where name='身高'));</v>
       </c>
       <c r="AA11" t="s">
         <v>0</v>
@@ -3528,23 +3522,23 @@
       </c>
       <c r="K12">
         <f t="shared" si="2"/>
-        <v>97.31</v>
+        <v>97.399999999999991</v>
       </c>
       <c r="L12">
         <f t="shared" si="3"/>
-        <v>101.15</v>
+        <v>101.2</v>
       </c>
       <c r="M12">
         <f t="shared" si="4"/>
-        <v>101.16000000000001</v>
+        <v>101.3</v>
       </c>
       <c r="N12">
         <f t="shared" si="5"/>
-        <v>105.05</v>
+        <v>105.1</v>
       </c>
       <c r="O12">
         <f t="shared" si="6"/>
-        <v>105.06</v>
+        <v>105.19999999999999</v>
       </c>
       <c r="P12">
         <f t="shared" si="7"/>
@@ -3566,21 +3560,21 @@
       </c>
       <c r="V12" t="str">
         <f t="shared" si="10"/>
-        <v>INSERT INTO bodyCheckup_itemscorestandard(periodType, lowScore, highScore, scoreDesc, color, itemDetail_id) SELECT 'PASS', 97.31, 101.15, '', '#00FF59', (select id from bodyCheckup_itemdetail where age=4 and sex='F' and item_id=(select id from bodyCheckup_itemmaster where name='身高'));</v>
+        <v>INSERT INTO bodyCheckup_itemscorestandard(periodType, lowScore, highScore, scoreDesc, color, itemDetail_id) SELECT 'PASS', 97.4, 101.2, '', '#00FF59', (select id from bodyCheckup_itemdetail where age=4 and sex='F' and item_id=(select id from bodyCheckup_itemmaster where name='身高'));</v>
       </c>
       <c r="W12" t="s">
         <v>0</v>
       </c>
       <c r="X12" t="str">
         <f t="shared" si="11"/>
-        <v>INSERT INTO bodyCheckup_itemscorestandard(periodType, lowScore, highScore, scoreDesc, color, itemDetail_id) SELECT 'GOOD', 101.16, 105.05, '', '#FF00FF', (select id from bodyCheckup_itemdetail where age=4 and sex='F' and item_id=(select id from bodyCheckup_itemmaster where name='身高'));</v>
+        <v>INSERT INTO bodyCheckup_itemscorestandard(periodType, lowScore, highScore, scoreDesc, color, itemDetail_id) SELECT 'GOOD', 101.3, 105.1, '', '#FF00FF', (select id from bodyCheckup_itemdetail where age=4 and sex='F' and item_id=(select id from bodyCheckup_itemmaster where name='身高'));</v>
       </c>
       <c r="Y12" t="s">
         <v>0</v>
       </c>
       <c r="Z12" t="str">
         <f t="shared" si="12"/>
-        <v>INSERT INTO bodyCheckup_itemscorestandard(periodType, lowScore, highScore, scoreDesc, color, itemDetail_id) SELECT 'EXCELLENT', 105.06, 110.9, '', '#0026FF', (select id from bodyCheckup_itemdetail where age=4 and sex='F' and item_id=(select id from bodyCheckup_itemmaster where name='身高'));</v>
+        <v>INSERT INTO bodyCheckup_itemscorestandard(periodType, lowScore, highScore, scoreDesc, color, itemDetail_id) SELECT 'EXCELLENT', 105.2, 110.9, '', '#0026FF', (select id from bodyCheckup_itemdetail where age=4 and sex='F' and item_id=(select id from bodyCheckup_itemmaster where name='身高'));</v>
       </c>
       <c r="AA12" t="s">
         <v>0</v>
@@ -3618,7 +3612,7 @@
       </c>
       <c r="K13">
         <f t="shared" si="2"/>
-        <v>103.91000000000001</v>
+        <v>104</v>
       </c>
       <c r="L13">
         <f t="shared" si="3"/>
@@ -3626,15 +3620,15 @@
       </c>
       <c r="M13">
         <f t="shared" si="4"/>
-        <v>108.11</v>
+        <v>108.19999999999999</v>
       </c>
       <c r="N13">
         <f t="shared" si="5"/>
-        <v>112.35</v>
+        <v>112.4</v>
       </c>
       <c r="O13">
         <f t="shared" si="6"/>
-        <v>112.36</v>
+        <v>112.5</v>
       </c>
       <c r="P13">
         <f t="shared" si="7"/>
@@ -3656,21 +3650,21 @@
       </c>
       <c r="V13" t="str">
         <f t="shared" si="10"/>
-        <v>INSERT INTO bodyCheckup_itemscorestandard(periodType, lowScore, highScore, scoreDesc, color, itemDetail_id) SELECT 'PASS', 103.91, 108.1, '', '#00FF59', (select id from bodyCheckup_itemdetail where age=5 and sex='F' and item_id=(select id from bodyCheckup_itemmaster where name='身高'));</v>
+        <v>INSERT INTO bodyCheckup_itemscorestandard(periodType, lowScore, highScore, scoreDesc, color, itemDetail_id) SELECT 'PASS', 104, 108.1, '', '#00FF59', (select id from bodyCheckup_itemdetail where age=5 and sex='F' and item_id=(select id from bodyCheckup_itemmaster where name='身高'));</v>
       </c>
       <c r="W13" t="s">
         <v>0</v>
       </c>
       <c r="X13" t="str">
         <f t="shared" si="11"/>
-        <v>INSERT INTO bodyCheckup_itemscorestandard(periodType, lowScore, highScore, scoreDesc, color, itemDetail_id) SELECT 'GOOD', 108.11, 112.35, '', '#FF00FF', (select id from bodyCheckup_itemdetail where age=5 and sex='F' and item_id=(select id from bodyCheckup_itemmaster where name='身高'));</v>
+        <v>INSERT INTO bodyCheckup_itemscorestandard(periodType, lowScore, highScore, scoreDesc, color, itemDetail_id) SELECT 'GOOD', 108.2, 112.4, '', '#FF00FF', (select id from bodyCheckup_itemdetail where age=5 and sex='F' and item_id=(select id from bodyCheckup_itemmaster where name='身高'));</v>
       </c>
       <c r="Y13" t="s">
         <v>0</v>
       </c>
       <c r="Z13" t="str">
         <f t="shared" si="12"/>
-        <v>INSERT INTO bodyCheckup_itemscorestandard(periodType, lowScore, highScore, scoreDesc, color, itemDetail_id) SELECT 'EXCELLENT', 112.36, 118.8, '', '#0026FF', (select id from bodyCheckup_itemdetail where age=5 and sex='F' and item_id=(select id from bodyCheckup_itemmaster where name='身高'));</v>
+        <v>INSERT INTO bodyCheckup_itemscorestandard(periodType, lowScore, highScore, scoreDesc, color, itemDetail_id) SELECT 'EXCELLENT', 112.5, 118.8, '', '#0026FF', (select id from bodyCheckup_itemdetail where age=5 and sex='F' and item_id=(select id from bodyCheckup_itemmaster where name='身高'));</v>
       </c>
       <c r="AA13" t="s">
         <v>0</v>
@@ -3708,7 +3702,7 @@
       </c>
       <c r="K14">
         <f t="shared" si="2"/>
-        <v>109.81</v>
+        <v>109.89999999999999</v>
       </c>
       <c r="L14">
         <f t="shared" si="3"/>
@@ -3716,7 +3710,7 @@
       </c>
       <c r="M14">
         <f t="shared" si="4"/>
-        <v>114.31</v>
+        <v>114.39999999999999</v>
       </c>
       <c r="N14">
         <f t="shared" si="5"/>
@@ -3724,7 +3718,7 @@
       </c>
       <c r="O14">
         <f t="shared" si="6"/>
-        <v>118.91000000000001</v>
+        <v>119</v>
       </c>
       <c r="P14">
         <f t="shared" si="7"/>
@@ -3746,21 +3740,21 @@
       </c>
       <c r="V14" t="str">
         <f t="shared" si="10"/>
-        <v>INSERT INTO bodyCheckup_itemscorestandard(periodType, lowScore, highScore, scoreDesc, color, itemDetail_id) SELECT 'PASS', 109.81, 114.3, '', '#00FF59', (select id from bodyCheckup_itemdetail where age=6 and sex='F' and item_id=(select id from bodyCheckup_itemmaster where name='身高'));</v>
+        <v>INSERT INTO bodyCheckup_itemscorestandard(periodType, lowScore, highScore, scoreDesc, color, itemDetail_id) SELECT 'PASS', 109.9, 114.3, '', '#00FF59', (select id from bodyCheckup_itemdetail where age=6 and sex='F' and item_id=(select id from bodyCheckup_itemmaster where name='身高'));</v>
       </c>
       <c r="W14" t="s">
         <v>0</v>
       </c>
       <c r="X14" t="str">
         <f t="shared" si="11"/>
-        <v>INSERT INTO bodyCheckup_itemscorestandard(periodType, lowScore, highScore, scoreDesc, color, itemDetail_id) SELECT 'GOOD', 114.31, 118.9, '', '#FF00FF', (select id from bodyCheckup_itemdetail where age=6 and sex='F' and item_id=(select id from bodyCheckup_itemmaster where name='身高'));</v>
+        <v>INSERT INTO bodyCheckup_itemscorestandard(periodType, lowScore, highScore, scoreDesc, color, itemDetail_id) SELECT 'GOOD', 114.4, 118.9, '', '#FF00FF', (select id from bodyCheckup_itemdetail where age=6 and sex='F' and item_id=(select id from bodyCheckup_itemmaster where name='身高'));</v>
       </c>
       <c r="Y14" t="s">
         <v>0</v>
       </c>
       <c r="Z14" t="str">
         <f t="shared" si="12"/>
-        <v>INSERT INTO bodyCheckup_itemscorestandard(periodType, lowScore, highScore, scoreDesc, color, itemDetail_id) SELECT 'EXCELLENT', 118.91, 125.8, '', '#0026FF', (select id from bodyCheckup_itemdetail where age=6 and sex='F' and item_id=(select id from bodyCheckup_itemmaster where name='身高'));</v>
+        <v>INSERT INTO bodyCheckup_itemscorestandard(periodType, lowScore, highScore, scoreDesc, color, itemDetail_id) SELECT 'EXCELLENT', 119, 125.8, '', '#0026FF', (select id from bodyCheckup_itemdetail where age=6 and sex='F' and item_id=(select id from bodyCheckup_itemmaster where name='身高'));</v>
       </c>
       <c r="AA14" t="s">
         <v>0</v>
@@ -3794,27 +3788,27 @@
       </c>
       <c r="J15">
         <f t="shared" si="1"/>
-        <v>115.15</v>
+        <v>115.2</v>
       </c>
       <c r="K15">
         <f t="shared" si="2"/>
-        <v>115.16000000000001</v>
+        <v>115.3</v>
       </c>
       <c r="L15">
         <f t="shared" si="3"/>
-        <v>120.05</v>
+        <v>120.1</v>
       </c>
       <c r="M15">
         <f t="shared" si="4"/>
-        <v>120.06</v>
+        <v>120.19999999999999</v>
       </c>
       <c r="N15">
         <f t="shared" si="5"/>
-        <v>125.05</v>
+        <v>125.1</v>
       </c>
       <c r="O15">
         <f t="shared" si="6"/>
-        <v>125.06</v>
+        <v>125.19999999999999</v>
       </c>
       <c r="P15">
         <f t="shared" si="7"/>
@@ -3829,28 +3823,28 @@
       </c>
       <c r="T15" t="str">
         <f t="shared" si="9"/>
-        <v>INSERT INTO bodyCheckup_itemscorestandard(periodType, lowScore, highScore, scoreDesc, color, itemDetail_id) SELECT 'FAILED', 107.8, 115.15, '', '#FF001A', (select id from bodyCheckup_itemdetail where age=7 and sex='F' and item_id=(select id from bodyCheckup_itemmaster where name='身高'));</v>
+        <v>INSERT INTO bodyCheckup_itemscorestandard(periodType, lowScore, highScore, scoreDesc, color, itemDetail_id) SELECT 'FAILED', 107.8, 115.2, '', '#FF001A', (select id from bodyCheckup_itemdetail where age=7 and sex='F' and item_id=(select id from bodyCheckup_itemmaster where name='身高'));</v>
       </c>
       <c r="U15" t="s">
         <v>0</v>
       </c>
       <c r="V15" t="str">
         <f t="shared" si="10"/>
-        <v>INSERT INTO bodyCheckup_itemscorestandard(periodType, lowScore, highScore, scoreDesc, color, itemDetail_id) SELECT 'PASS', 115.16, 120.05, '', '#00FF59', (select id from bodyCheckup_itemdetail where age=7 and sex='F' and item_id=(select id from bodyCheckup_itemmaster where name='身高'));</v>
+        <v>INSERT INTO bodyCheckup_itemscorestandard(periodType, lowScore, highScore, scoreDesc, color, itemDetail_id) SELECT 'PASS', 115.3, 120.1, '', '#00FF59', (select id from bodyCheckup_itemdetail where age=7 and sex='F' and item_id=(select id from bodyCheckup_itemmaster where name='身高'));</v>
       </c>
       <c r="W15" t="s">
         <v>0</v>
       </c>
       <c r="X15" t="str">
         <f t="shared" si="11"/>
-        <v>INSERT INTO bodyCheckup_itemscorestandard(periodType, lowScore, highScore, scoreDesc, color, itemDetail_id) SELECT 'GOOD', 120.06, 125.05, '', '#FF00FF', (select id from bodyCheckup_itemdetail where age=7 and sex='F' and item_id=(select id from bodyCheckup_itemmaster where name='身高'));</v>
+        <v>INSERT INTO bodyCheckup_itemscorestandard(periodType, lowScore, highScore, scoreDesc, color, itemDetail_id) SELECT 'GOOD', 120.2, 125.1, '', '#FF00FF', (select id from bodyCheckup_itemdetail where age=7 and sex='F' and item_id=(select id from bodyCheckup_itemmaster where name='身高'));</v>
       </c>
       <c r="Y15" t="s">
         <v>0</v>
       </c>
       <c r="Z15" t="str">
         <f t="shared" si="12"/>
-        <v>INSERT INTO bodyCheckup_itemscorestandard(periodType, lowScore, highScore, scoreDesc, color, itemDetail_id) SELECT 'EXCELLENT', 125.06, 132.7, '', '#0026FF', (select id from bodyCheckup_itemdetail where age=7 and sex='F' and item_id=(select id from bodyCheckup_itemmaster where name='身高'));</v>
+        <v>INSERT INTO bodyCheckup_itemscorestandard(periodType, lowScore, highScore, scoreDesc, color, itemDetail_id) SELECT 'EXCELLENT', 125.2, 132.7, '', '#0026FF', (select id from bodyCheckup_itemdetail where age=7 and sex='F' and item_id=(select id from bodyCheckup_itemmaster where name='身高'));</v>
       </c>
       <c r="AA15" t="s">
         <v>0</v>
@@ -3888,7 +3882,7 @@
       </c>
       <c r="K16">
         <f t="shared" si="2"/>
-        <v>120.51</v>
+        <v>120.6</v>
       </c>
       <c r="L16">
         <f t="shared" si="3"/>
@@ -3896,7 +3890,7 @@
       </c>
       <c r="M16">
         <f t="shared" si="4"/>
-        <v>125.81</v>
+        <v>125.89999999999999</v>
       </c>
       <c r="N16">
         <f t="shared" si="5"/>
@@ -3904,7 +3898,7 @@
       </c>
       <c r="O16">
         <f t="shared" si="6"/>
-        <v>131.20999999999998</v>
+        <v>131.29999999999998</v>
       </c>
       <c r="P16">
         <f t="shared" si="7"/>
@@ -3926,21 +3920,21 @@
       </c>
       <c r="V16" t="str">
         <f t="shared" si="10"/>
-        <v>INSERT INTO bodyCheckup_itemscorestandard(periodType, lowScore, highScore, scoreDesc, color, itemDetail_id) SELECT 'PASS', 120.51, 125.8, '', '#00FF59', (select id from bodyCheckup_itemdetail where age=8 and sex='F' and item_id=(select id from bodyCheckup_itemmaster where name='身高'));</v>
+        <v>INSERT INTO bodyCheckup_itemscorestandard(periodType, lowScore, highScore, scoreDesc, color, itemDetail_id) SELECT 'PASS', 120.6, 125.8, '', '#00FF59', (select id from bodyCheckup_itemdetail where age=8 and sex='F' and item_id=(select id from bodyCheckup_itemmaster where name='身高'));</v>
       </c>
       <c r="W16" t="s">
         <v>0</v>
       </c>
       <c r="X16" t="str">
         <f t="shared" si="11"/>
-        <v>INSERT INTO bodyCheckup_itemscorestandard(periodType, lowScore, highScore, scoreDesc, color, itemDetail_id) SELECT 'GOOD', 125.81, 131.2, '', '#FF00FF', (select id from bodyCheckup_itemdetail where age=8 and sex='F' and item_id=(select id from bodyCheckup_itemmaster where name='身高'));</v>
+        <v>INSERT INTO bodyCheckup_itemscorestandard(periodType, lowScore, highScore, scoreDesc, color, itemDetail_id) SELECT 'GOOD', 125.9, 131.2, '', '#FF00FF', (select id from bodyCheckup_itemdetail where age=8 and sex='F' and item_id=(select id from bodyCheckup_itemmaster where name='身高'));</v>
       </c>
       <c r="Y16" t="s">
         <v>0</v>
       </c>
       <c r="Z16" t="str">
         <f t="shared" si="12"/>
-        <v>INSERT INTO bodyCheckup_itemscorestandard(periodType, lowScore, highScore, scoreDesc, color, itemDetail_id) SELECT 'EXCELLENT', 131.21, 139.3, '', '#0026FF', (select id from bodyCheckup_itemdetail where age=8 and sex='F' and item_id=(select id from bodyCheckup_itemmaster where name='身高'));</v>
+        <v>INSERT INTO bodyCheckup_itemscorestandard(periodType, lowScore, highScore, scoreDesc, color, itemDetail_id) SELECT 'EXCELLENT', 131.3, 139.3, '', '#0026FF', (select id from bodyCheckup_itemdetail where age=8 and sex='F' and item_id=(select id from bodyCheckup_itemmaster where name='身高'));</v>
       </c>
       <c r="AA16" t="s">
         <v>0</v>
@@ -3974,11 +3968,11 @@
       </c>
       <c r="J17">
         <f t="shared" si="1"/>
-        <v>125.45</v>
+        <v>125.5</v>
       </c>
       <c r="K17">
         <f t="shared" si="2"/>
-        <v>125.46000000000001</v>
+        <v>125.6</v>
       </c>
       <c r="L17">
         <f t="shared" si="3"/>
@@ -3986,7 +3980,7 @@
       </c>
       <c r="M17">
         <f t="shared" si="4"/>
-        <v>131.20999999999998</v>
+        <v>131.29999999999998</v>
       </c>
       <c r="N17">
         <f t="shared" si="5"/>
@@ -3994,7 +3988,7 @@
       </c>
       <c r="O17">
         <f t="shared" si="6"/>
-        <v>137.01</v>
+        <v>137.1</v>
       </c>
       <c r="P17">
         <f t="shared" si="7"/>
@@ -4009,28 +4003,28 @@
       </c>
       <c r="T17" t="str">
         <f t="shared" si="9"/>
-        <v>INSERT INTO bodyCheckup_itemscorestandard(periodType, lowScore, highScore, scoreDesc, color, itemDetail_id) SELECT 'FAILED', 116.9, 125.45, '', '#FF001A', (select id from bodyCheckup_itemdetail where age=9 and sex='F' and item_id=(select id from bodyCheckup_itemmaster where name='身高'));</v>
+        <v>INSERT INTO bodyCheckup_itemscorestandard(periodType, lowScore, highScore, scoreDesc, color, itemDetail_id) SELECT 'FAILED', 116.9, 125.5, '', '#FF001A', (select id from bodyCheckup_itemdetail where age=9 and sex='F' and item_id=(select id from bodyCheckup_itemmaster where name='身高'));</v>
       </c>
       <c r="U17" t="s">
         <v>0</v>
       </c>
       <c r="V17" t="str">
         <f t="shared" si="10"/>
-        <v>INSERT INTO bodyCheckup_itemscorestandard(periodType, lowScore, highScore, scoreDesc, color, itemDetail_id) SELECT 'PASS', 125.46, 131.2, '', '#00FF59', (select id from bodyCheckup_itemdetail where age=9 and sex='F' and item_id=(select id from bodyCheckup_itemmaster where name='身高'));</v>
+        <v>INSERT INTO bodyCheckup_itemscorestandard(periodType, lowScore, highScore, scoreDesc, color, itemDetail_id) SELECT 'PASS', 125.6, 131.2, '', '#00FF59', (select id from bodyCheckup_itemdetail where age=9 and sex='F' and item_id=(select id from bodyCheckup_itemmaster where name='身高'));</v>
       </c>
       <c r="W17" t="s">
         <v>0</v>
       </c>
       <c r="X17" t="str">
         <f t="shared" si="11"/>
-        <v>INSERT INTO bodyCheckup_itemscorestandard(periodType, lowScore, highScore, scoreDesc, color, itemDetail_id) SELECT 'GOOD', 131.21, 137, '', '#FF00FF', (select id from bodyCheckup_itemdetail where age=9 and sex='F' and item_id=(select id from bodyCheckup_itemmaster where name='身高'));</v>
+        <v>INSERT INTO bodyCheckup_itemscorestandard(periodType, lowScore, highScore, scoreDesc, color, itemDetail_id) SELECT 'GOOD', 131.3, 137, '', '#FF00FF', (select id from bodyCheckup_itemdetail where age=9 and sex='F' and item_id=(select id from bodyCheckup_itemmaster where name='身高'));</v>
       </c>
       <c r="Y17" t="s">
         <v>0</v>
       </c>
       <c r="Z17" t="str">
         <f t="shared" si="12"/>
-        <v>INSERT INTO bodyCheckup_itemscorestandard(periodType, lowScore, highScore, scoreDesc, color, itemDetail_id) SELECT 'EXCELLENT', 137.01, 145.7, '', '#0026FF', (select id from bodyCheckup_itemdetail where age=9 and sex='F' and item_id=(select id from bodyCheckup_itemmaster where name='身高'));</v>
+        <v>INSERT INTO bodyCheckup_itemscorestandard(periodType, lowScore, highScore, scoreDesc, color, itemDetail_id) SELECT 'EXCELLENT', 137.1, 145.7, '', '#0026FF', (select id from bodyCheckup_itemdetail where age=9 and sex='F' and item_id=(select id from bodyCheckup_itemmaster where name='身高'));</v>
       </c>
       <c r="AA17" t="s">
         <v>0</v>
@@ -4068,23 +4062,23 @@
       </c>
       <c r="K18">
         <f t="shared" si="2"/>
-        <v>130.70999999999998</v>
+        <v>130.79999999999998</v>
       </c>
       <c r="L18">
         <f t="shared" si="3"/>
-        <v>136.94999999999999</v>
+        <v>137</v>
       </c>
       <c r="M18">
         <f t="shared" si="4"/>
-        <v>136.95999999999998</v>
+        <v>137.1</v>
       </c>
       <c r="N18">
         <f t="shared" si="5"/>
-        <v>143.25</v>
+        <v>143.30000000000001</v>
       </c>
       <c r="O18">
         <f t="shared" si="6"/>
-        <v>143.26</v>
+        <v>143.4</v>
       </c>
       <c r="P18">
         <f t="shared" si="7"/>
@@ -4106,21 +4100,21 @@
       </c>
       <c r="V18" t="str">
         <f t="shared" si="10"/>
-        <v>INSERT INTO bodyCheckup_itemscorestandard(periodType, lowScore, highScore, scoreDesc, color, itemDetail_id) SELECT 'PASS', 130.71, 136.95, '', '#00FF59', (select id from bodyCheckup_itemdetail where age=10 and sex='F' and item_id=(select id from bodyCheckup_itemmaster where name='身高'));</v>
+        <v>INSERT INTO bodyCheckup_itemscorestandard(periodType, lowScore, highScore, scoreDesc, color, itemDetail_id) SELECT 'PASS', 130.8, 137, '', '#00FF59', (select id from bodyCheckup_itemdetail where age=10 and sex='F' and item_id=(select id from bodyCheckup_itemmaster where name='身高'));</v>
       </c>
       <c r="W18" t="s">
         <v>0</v>
       </c>
       <c r="X18" t="str">
         <f t="shared" si="11"/>
-        <v>INSERT INTO bodyCheckup_itemscorestandard(periodType, lowScore, highScore, scoreDesc, color, itemDetail_id) SELECT 'GOOD', 136.96, 143.25, '', '#FF00FF', (select id from bodyCheckup_itemdetail where age=10 and sex='F' and item_id=(select id from bodyCheckup_itemmaster where name='身高'));</v>
+        <v>INSERT INTO bodyCheckup_itemscorestandard(periodType, lowScore, highScore, scoreDesc, color, itemDetail_id) SELECT 'GOOD', 137.1, 143.3, '', '#FF00FF', (select id from bodyCheckup_itemdetail where age=10 and sex='F' and item_id=(select id from bodyCheckup_itemmaster where name='身高'));</v>
       </c>
       <c r="Y18" t="s">
         <v>0</v>
       </c>
       <c r="Z18" t="str">
         <f t="shared" si="12"/>
-        <v>INSERT INTO bodyCheckup_itemscorestandard(periodType, lowScore, highScore, scoreDesc, color, itemDetail_id) SELECT 'EXCELLENT', 143.26, 152.7, '', '#0026FF', (select id from bodyCheckup_itemdetail where age=10 and sex='F' and item_id=(select id from bodyCheckup_itemmaster where name='身高'));</v>
+        <v>INSERT INTO bodyCheckup_itemscorestandard(periodType, lowScore, highScore, scoreDesc, color, itemDetail_id) SELECT 'EXCELLENT', 143.4, 152.7, '', '#0026FF', (select id from bodyCheckup_itemdetail where age=10 and sex='F' and item_id=(select id from bodyCheckup_itemmaster where name='身高'));</v>
       </c>
       <c r="AA18" t="s">
         <v>0</v>
@@ -4158,7 +4152,7 @@
       </c>
       <c r="K19">
         <f t="shared" si="2"/>
-        <v>136.70999999999998</v>
+        <v>136.79999999999998</v>
       </c>
       <c r="L19">
         <f t="shared" si="3"/>
@@ -4166,15 +4160,15 @@
       </c>
       <c r="M19">
         <f t="shared" si="4"/>
-        <v>143.31</v>
+        <v>143.4</v>
       </c>
       <c r="N19">
         <f t="shared" si="5"/>
-        <v>149.94999999999999</v>
+        <v>150</v>
       </c>
       <c r="O19">
         <f t="shared" si="6"/>
-        <v>149.95999999999998</v>
+        <v>150.1</v>
       </c>
       <c r="P19">
         <f t="shared" si="7"/>
@@ -4196,21 +4190,21 @@
       </c>
       <c r="V19" t="str">
         <f t="shared" si="10"/>
-        <v>INSERT INTO bodyCheckup_itemscorestandard(periodType, lowScore, highScore, scoreDesc, color, itemDetail_id) SELECT 'PASS', 136.71, 143.3, '', '#00FF59', (select id from bodyCheckup_itemdetail where age=11 and sex='F' and item_id=(select id from bodyCheckup_itemmaster where name='身高'));</v>
+        <v>INSERT INTO bodyCheckup_itemscorestandard(periodType, lowScore, highScore, scoreDesc, color, itemDetail_id) SELECT 'PASS', 136.8, 143.3, '', '#00FF59', (select id from bodyCheckup_itemdetail where age=11 and sex='F' and item_id=(select id from bodyCheckup_itemmaster where name='身高'));</v>
       </c>
       <c r="W19" t="s">
         <v>0</v>
       </c>
       <c r="X19" t="str">
         <f t="shared" si="11"/>
-        <v>INSERT INTO bodyCheckup_itemscorestandard(periodType, lowScore, highScore, scoreDesc, color, itemDetail_id) SELECT 'GOOD', 143.31, 149.95, '', '#FF00FF', (select id from bodyCheckup_itemdetail where age=11 and sex='F' and item_id=(select id from bodyCheckup_itemmaster where name='身高'));</v>
+        <v>INSERT INTO bodyCheckup_itemscorestandard(periodType, lowScore, highScore, scoreDesc, color, itemDetail_id) SELECT 'GOOD', 143.4, 150, '', '#FF00FF', (select id from bodyCheckup_itemdetail where age=11 and sex='F' and item_id=(select id from bodyCheckup_itemmaster where name='身高'));</v>
       </c>
       <c r="Y19" t="s">
         <v>0</v>
       </c>
       <c r="Z19" t="str">
         <f t="shared" si="12"/>
-        <v>INSERT INTO bodyCheckup_itemscorestandard(periodType, lowScore, highScore, scoreDesc, color, itemDetail_id) SELECT 'EXCELLENT', 149.96, 160, '', '#0026FF', (select id from bodyCheckup_itemdetail where age=11 and sex='F' and item_id=(select id from bodyCheckup_itemmaster where name='身高'));</v>
+        <v>INSERT INTO bodyCheckup_itemscorestandard(periodType, lowScore, highScore, scoreDesc, color, itemDetail_id) SELECT 'EXCELLENT', 150.1, 160, '', '#0026FF', (select id from bodyCheckup_itemdetail where age=11 and sex='F' and item_id=(select id from bodyCheckup_itemmaster where name='身高'));</v>
       </c>
       <c r="AA19" t="s">
         <v>0</v>
@@ -4248,15 +4242,15 @@
       </c>
       <c r="K20">
         <f t="shared" si="2"/>
-        <v>142.70999999999998</v>
+        <v>142.79999999999998</v>
       </c>
       <c r="L20">
         <f t="shared" si="3"/>
-        <v>149.15</v>
+        <v>149.19999999999999</v>
       </c>
       <c r="M20">
         <f t="shared" si="4"/>
-        <v>149.16</v>
+        <v>149.29999999999998</v>
       </c>
       <c r="N20">
         <f t="shared" si="5"/>
@@ -4264,7 +4258,7 @@
       </c>
       <c r="O20">
         <f t="shared" si="6"/>
-        <v>155.60999999999999</v>
+        <v>155.69999999999999</v>
       </c>
       <c r="P20">
         <f t="shared" si="7"/>
@@ -4286,21 +4280,21 @@
       </c>
       <c r="V20" t="str">
         <f t="shared" si="10"/>
-        <v>INSERT INTO bodyCheckup_itemscorestandard(periodType, lowScore, highScore, scoreDesc, color, itemDetail_id) SELECT 'PASS', 142.71, 149.15, '', '#00FF59', (select id from bodyCheckup_itemdetail where age=12 and sex='F' and item_id=(select id from bodyCheckup_itemmaster where name='身高'));</v>
+        <v>INSERT INTO bodyCheckup_itemscorestandard(periodType, lowScore, highScore, scoreDesc, color, itemDetail_id) SELECT 'PASS', 142.8, 149.2, '', '#00FF59', (select id from bodyCheckup_itemdetail where age=12 and sex='F' and item_id=(select id from bodyCheckup_itemmaster where name='身高'));</v>
       </c>
       <c r="W20" t="s">
         <v>0</v>
       </c>
       <c r="X20" t="str">
         <f t="shared" si="11"/>
-        <v>INSERT INTO bodyCheckup_itemscorestandard(periodType, lowScore, highScore, scoreDesc, color, itemDetail_id) SELECT 'GOOD', 149.16, 155.6, '', '#FF00FF', (select id from bodyCheckup_itemdetail where age=12 and sex='F' and item_id=(select id from bodyCheckup_itemmaster where name='身高'));</v>
+        <v>INSERT INTO bodyCheckup_itemscorestandard(periodType, lowScore, highScore, scoreDesc, color, itemDetail_id) SELECT 'GOOD', 149.3, 155.6, '', '#FF00FF', (select id from bodyCheckup_itemdetail where age=12 and sex='F' and item_id=(select id from bodyCheckup_itemmaster where name='身高'));</v>
       </c>
       <c r="Y20" t="s">
         <v>0</v>
       </c>
       <c r="Z20" t="str">
         <f t="shared" si="12"/>
-        <v>INSERT INTO bodyCheckup_itemscorestandard(periodType, lowScore, highScore, scoreDesc, color, itemDetail_id) SELECT 'EXCELLENT', 155.61, 165.2, '', '#0026FF', (select id from bodyCheckup_itemdetail where age=12 and sex='F' and item_id=(select id from bodyCheckup_itemmaster where name='身高'));</v>
+        <v>INSERT INTO bodyCheckup_itemscorestandard(periodType, lowScore, highScore, scoreDesc, color, itemDetail_id) SELECT 'EXCELLENT', 155.7, 165.2, '', '#0026FF', (select id from bodyCheckup_itemdetail where age=12 and sex='F' and item_id=(select id from bodyCheckup_itemmaster where name='身高'));</v>
       </c>
       <c r="AA20" t="s">
         <v>0</v>
@@ -4338,27 +4332,27 @@
         <v>13.120000000000001</v>
       </c>
       <c r="J22">
-        <f t="shared" si="1"/>
+        <f>ROUND((D22+E22)/2,2)</f>
         <v>15.76</v>
       </c>
       <c r="K22">
-        <f t="shared" si="2"/>
+        <f>J22+0.01</f>
         <v>15.77</v>
       </c>
       <c r="L22">
-        <f t="shared" si="3"/>
+        <f>ROUND((E22+F22)/2,2)</f>
         <v>17.66</v>
       </c>
       <c r="M22">
-        <f t="shared" si="4"/>
+        <f>L22+0.01</f>
         <v>17.670000000000002</v>
       </c>
       <c r="N22">
-        <f t="shared" si="5"/>
+        <f>ROUND((F22+G22)/2,2)</f>
         <v>19.84</v>
       </c>
       <c r="O22">
-        <f t="shared" si="6"/>
+        <f>N22+0.01</f>
         <v>19.850000000000001</v>
       </c>
       <c r="P22">
@@ -4424,35 +4418,35 @@
         <v>24.38</v>
       </c>
       <c r="I23">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="I23:I39" si="13">D23-(E23-D23)</f>
         <v>14.760000000000002</v>
       </c>
       <c r="J23">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="J23:J39" si="14">ROUND((D23+E23)/2,2)</f>
         <v>17.93</v>
       </c>
       <c r="K23">
-        <f t="shared" si="2"/>
+        <f t="shared" ref="K23:K39" si="15">J23+0.01</f>
         <v>17.940000000000001</v>
       </c>
       <c r="L23">
-        <f t="shared" si="3"/>
+        <f t="shared" ref="L23:L39" si="16">ROUND((E23+F23)/2,2)</f>
         <v>20.22</v>
       </c>
       <c r="M23">
-        <f t="shared" si="4"/>
+        <f t="shared" ref="M23:M39" si="17">L23+0.01</f>
         <v>20.23</v>
       </c>
       <c r="N23">
-        <f t="shared" si="5"/>
+        <f t="shared" ref="N23:N39" si="18">ROUND((F23+G23)/2,2)</f>
         <v>22.92</v>
       </c>
       <c r="O23">
-        <f t="shared" si="6"/>
+        <f t="shared" ref="O23:O39" si="19">N23+0.01</f>
         <v>22.930000000000003</v>
       </c>
       <c r="P23">
-        <f t="shared" si="7"/>
+        <f t="shared" ref="P23:P39" si="20">G23+(G23-F23)</f>
         <v>27.299999999999997</v>
       </c>
       <c r="R23" t="str">
@@ -4514,35 +4508,35 @@
         <v>28.03</v>
       </c>
       <c r="I24">
-        <f t="shared" si="0"/>
+        <f t="shared" si="13"/>
         <v>16.16</v>
       </c>
       <c r="J24">
-        <f t="shared" si="1"/>
+        <f t="shared" si="14"/>
         <v>19.989999999999998</v>
       </c>
       <c r="K24">
-        <f t="shared" si="2"/>
+        <f t="shared" si="15"/>
         <v>20</v>
       </c>
       <c r="L24">
-        <f t="shared" si="3"/>
+        <f t="shared" si="16"/>
         <v>22.79</v>
       </c>
       <c r="M24">
-        <f t="shared" si="4"/>
+        <f t="shared" si="17"/>
         <v>22.8</v>
       </c>
       <c r="N24">
-        <f t="shared" si="5"/>
+        <f t="shared" si="18"/>
         <v>26.18</v>
       </c>
       <c r="O24">
-        <f t="shared" si="6"/>
+        <f t="shared" si="19"/>
         <v>26.19</v>
       </c>
       <c r="P24">
-        <f t="shared" si="7"/>
+        <f t="shared" si="20"/>
         <v>31.740000000000002</v>
       </c>
       <c r="R24" t="str">
@@ -4604,35 +4598,35 @@
         <v>33.08</v>
       </c>
       <c r="I25">
-        <f t="shared" si="0"/>
+        <f t="shared" si="13"/>
         <v>17.599999999999998</v>
       </c>
       <c r="J25">
-        <f t="shared" si="1"/>
+        <f t="shared" si="14"/>
         <v>22.45</v>
       </c>
       <c r="K25">
-        <f t="shared" si="2"/>
+        <f t="shared" si="15"/>
         <v>22.46</v>
       </c>
       <c r="L25">
-        <f t="shared" si="3"/>
+        <f t="shared" si="16"/>
         <v>26.06</v>
       </c>
       <c r="M25">
-        <f t="shared" si="4"/>
+        <f t="shared" si="17"/>
         <v>26.07</v>
       </c>
       <c r="N25">
-        <f t="shared" si="5"/>
+        <f t="shared" si="18"/>
         <v>30.57</v>
       </c>
       <c r="O25">
-        <f t="shared" si="6"/>
+        <f t="shared" si="19"/>
         <v>30.580000000000002</v>
       </c>
       <c r="P25">
-        <f t="shared" si="7"/>
+        <f t="shared" si="20"/>
         <v>38.11</v>
       </c>
       <c r="R25" t="str">
@@ -4694,35 +4688,35 @@
         <v>39.409999999999997</v>
       </c>
       <c r="I26">
-        <f t="shared" si="0"/>
+        <f t="shared" si="13"/>
         <v>19.130000000000003</v>
       </c>
       <c r="J26">
-        <f t="shared" si="1"/>
+        <f t="shared" si="14"/>
         <v>25.28</v>
       </c>
       <c r="K26">
-        <f t="shared" si="2"/>
+        <f t="shared" si="15"/>
         <v>25.290000000000003</v>
       </c>
       <c r="L26">
-        <f t="shared" si="3"/>
+        <f t="shared" si="16"/>
         <v>29.95</v>
       </c>
       <c r="M26">
-        <f t="shared" si="4"/>
+        <f t="shared" si="17"/>
         <v>29.96</v>
       </c>
       <c r="N26">
-        <f t="shared" si="5"/>
+        <f t="shared" si="18"/>
         <v>35.99</v>
       </c>
       <c r="O26">
-        <f t="shared" si="6"/>
+        <f t="shared" si="19"/>
         <v>36</v>
       </c>
       <c r="P26">
-        <f t="shared" si="7"/>
+        <f t="shared" si="20"/>
         <v>46.249999999999993</v>
       </c>
       <c r="R26" t="str">
@@ -4784,35 +4778,35 @@
         <v>45.52</v>
       </c>
       <c r="I27">
-        <f t="shared" si="0"/>
+        <f t="shared" si="13"/>
         <v>20.54</v>
       </c>
       <c r="J27">
-        <f t="shared" si="1"/>
+        <f t="shared" si="14"/>
         <v>27.98</v>
       </c>
       <c r="K27">
-        <f t="shared" si="2"/>
+        <f t="shared" si="15"/>
         <v>27.990000000000002</v>
       </c>
       <c r="L27">
-        <f t="shared" si="3"/>
+        <f t="shared" si="16"/>
         <v>33.69</v>
       </c>
       <c r="M27">
-        <f t="shared" si="4"/>
+        <f t="shared" si="17"/>
         <v>33.699999999999996</v>
       </c>
       <c r="N27">
-        <f t="shared" si="5"/>
+        <f t="shared" si="18"/>
         <v>41.22</v>
       </c>
       <c r="O27">
-        <f t="shared" si="6"/>
+        <f t="shared" si="19"/>
         <v>41.23</v>
       </c>
       <c r="P27">
-        <f t="shared" si="7"/>
+        <f t="shared" si="20"/>
         <v>54.120000000000005</v>
       </c>
       <c r="R27" t="str">
@@ -4874,35 +4868,35 @@
         <v>51.38</v>
       </c>
       <c r="I28">
-        <f t="shared" si="0"/>
+        <f t="shared" si="13"/>
         <v>22.119999999999997</v>
       </c>
       <c r="J28">
-        <f t="shared" si="1"/>
+        <f t="shared" si="14"/>
         <v>30.84</v>
       </c>
       <c r="K28">
-        <f t="shared" si="2"/>
+        <f t="shared" si="15"/>
         <v>30.85</v>
       </c>
       <c r="L28">
-        <f t="shared" si="3"/>
+        <f t="shared" si="16"/>
         <v>37.53</v>
       </c>
       <c r="M28">
-        <f t="shared" si="4"/>
+        <f t="shared" si="17"/>
         <v>37.54</v>
       </c>
       <c r="N28">
-        <f t="shared" si="5"/>
+        <f t="shared" si="18"/>
         <v>46.35</v>
       </c>
       <c r="O28">
-        <f t="shared" si="6"/>
+        <f t="shared" si="19"/>
         <v>46.36</v>
       </c>
       <c r="P28">
-        <f t="shared" si="7"/>
+        <f t="shared" si="20"/>
         <v>61.45</v>
       </c>
       <c r="R28" t="str">
@@ -4964,35 +4958,35 @@
         <v>57.58</v>
       </c>
       <c r="I29">
-        <f t="shared" si="0"/>
+        <f t="shared" si="13"/>
         <v>24.21</v>
       </c>
       <c r="J29">
-        <f t="shared" si="1"/>
+        <f t="shared" si="14"/>
         <v>34.32</v>
       </c>
       <c r="K29">
-        <f t="shared" si="2"/>
+        <f t="shared" si="15"/>
         <v>34.33</v>
       </c>
       <c r="L29">
-        <f t="shared" si="3"/>
+        <f t="shared" si="16"/>
         <v>42.01</v>
       </c>
       <c r="M29">
-        <f t="shared" si="4"/>
+        <f t="shared" si="17"/>
         <v>42.019999999999996</v>
       </c>
       <c r="N29">
-        <f t="shared" si="5"/>
+        <f t="shared" si="18"/>
         <v>51.96</v>
       </c>
       <c r="O29">
-        <f t="shared" si="6"/>
+        <f t="shared" si="19"/>
         <v>51.97</v>
       </c>
       <c r="P29">
-        <f t="shared" si="7"/>
+        <f t="shared" si="20"/>
         <v>68.83</v>
       </c>
       <c r="R29" t="str">
@@ -5054,35 +5048,35 @@
         <v>64.680000000000007</v>
       </c>
       <c r="I30">
-        <f t="shared" si="0"/>
+        <f t="shared" si="13"/>
         <v>26.85</v>
       </c>
       <c r="J30">
-        <f t="shared" si="1"/>
+        <f t="shared" si="14"/>
         <v>38.58</v>
       </c>
       <c r="K30">
-        <f t="shared" si="2"/>
+        <f t="shared" si="15"/>
         <v>38.589999999999996</v>
       </c>
       <c r="L30">
-        <f t="shared" si="3"/>
+        <f t="shared" si="16"/>
         <v>47.4</v>
       </c>
       <c r="M30">
-        <f t="shared" si="4"/>
+        <f t="shared" si="17"/>
         <v>47.41</v>
       </c>
       <c r="N30">
-        <f t="shared" si="5"/>
+        <f t="shared" si="18"/>
         <v>58.5</v>
       </c>
       <c r="O30">
-        <f t="shared" si="6"/>
+        <f t="shared" si="19"/>
         <v>58.51</v>
       </c>
       <c r="P30">
-        <f t="shared" si="7"/>
+        <f t="shared" si="20"/>
         <v>77.050000000000011</v>
       </c>
       <c r="R30" t="str">
@@ -5144,35 +5138,35 @@
         <v>20.54</v>
       </c>
       <c r="I31">
-        <f t="shared" si="0"/>
+        <f t="shared" si="13"/>
         <v>12.709999999999997</v>
       </c>
       <c r="J31">
-        <f t="shared" si="1"/>
+        <f t="shared" si="14"/>
         <v>15.31</v>
       </c>
       <c r="K31">
-        <f t="shared" si="2"/>
+        <f t="shared" si="15"/>
         <v>15.32</v>
       </c>
       <c r="L31">
-        <f t="shared" si="3"/>
+        <f t="shared" si="16"/>
         <v>17.18</v>
       </c>
       <c r="M31">
-        <f t="shared" si="4"/>
+        <f t="shared" si="17"/>
         <v>17.190000000000001</v>
       </c>
       <c r="N31">
-        <f t="shared" si="5"/>
+        <f t="shared" si="18"/>
         <v>19.37</v>
       </c>
       <c r="O31">
-        <f t="shared" si="6"/>
+        <f t="shared" si="19"/>
         <v>19.380000000000003</v>
       </c>
       <c r="P31">
-        <f t="shared" si="7"/>
+        <f t="shared" si="20"/>
         <v>22.889999999999997</v>
       </c>
       <c r="R31" t="str">
@@ -5234,35 +5228,35 @@
         <v>23.5</v>
       </c>
       <c r="I32">
-        <f t="shared" si="0"/>
+        <f t="shared" si="13"/>
         <v>14.139999999999997</v>
       </c>
       <c r="J32">
-        <f t="shared" si="1"/>
+        <f t="shared" si="14"/>
         <v>17.23</v>
       </c>
       <c r="K32">
-        <f t="shared" si="2"/>
+        <f t="shared" si="15"/>
         <v>17.240000000000002</v>
       </c>
       <c r="L32">
-        <f t="shared" si="3"/>
+        <f t="shared" si="16"/>
         <v>19.46</v>
       </c>
       <c r="M32">
-        <f t="shared" si="4"/>
+        <f t="shared" si="17"/>
         <v>19.470000000000002</v>
       </c>
       <c r="N32">
-        <f t="shared" si="5"/>
+        <f t="shared" si="18"/>
         <v>22.08</v>
       </c>
       <c r="O32">
-        <f t="shared" si="6"/>
+        <f t="shared" si="19"/>
         <v>22.09</v>
       </c>
       <c r="P32">
-        <f t="shared" si="7"/>
+        <f t="shared" si="20"/>
         <v>26.34</v>
       </c>
       <c r="R32" t="str">
@@ -5324,35 +5318,35 @@
         <v>26.74</v>
       </c>
       <c r="I33">
-        <f t="shared" si="0"/>
+        <f t="shared" si="13"/>
         <v>15.510000000000002</v>
       </c>
       <c r="J33">
-        <f t="shared" si="1"/>
+        <f t="shared" si="14"/>
         <v>19.16</v>
       </c>
       <c r="K33">
-        <f t="shared" si="2"/>
+        <f t="shared" si="15"/>
         <v>19.170000000000002</v>
       </c>
       <c r="L33">
-        <f t="shared" si="3"/>
+        <f t="shared" si="16"/>
         <v>21.82</v>
       </c>
       <c r="M33">
-        <f t="shared" si="4"/>
+        <f t="shared" si="17"/>
         <v>21.830000000000002</v>
       </c>
       <c r="N33">
-        <f t="shared" si="5"/>
+        <f t="shared" si="18"/>
         <v>25.01</v>
       </c>
       <c r="O33">
-        <f t="shared" si="6"/>
+        <f t="shared" si="19"/>
         <v>25.020000000000003</v>
       </c>
       <c r="P33">
-        <f t="shared" si="7"/>
+        <f t="shared" si="20"/>
         <v>30.209999999999997</v>
       </c>
       <c r="R33" t="str">
@@ -5414,35 +5408,35 @@
         <v>30.45</v>
       </c>
       <c r="I34">
-        <f t="shared" si="0"/>
+        <f t="shared" si="13"/>
         <v>16.839999999999996</v>
       </c>
       <c r="J34">
-        <f t="shared" si="1"/>
+        <f t="shared" si="14"/>
         <v>21.19</v>
       </c>
       <c r="K34">
-        <f t="shared" si="2"/>
+        <f t="shared" si="15"/>
         <v>21.200000000000003</v>
       </c>
       <c r="L34">
-        <f t="shared" si="3"/>
+        <f t="shared" si="16"/>
         <v>24.4</v>
       </c>
       <c r="M34">
-        <f t="shared" si="4"/>
+        <f t="shared" si="17"/>
         <v>24.41</v>
       </c>
       <c r="N34">
-        <f t="shared" si="5"/>
+        <f t="shared" si="18"/>
         <v>28.31</v>
       </c>
       <c r="O34">
-        <f t="shared" si="6"/>
+        <f t="shared" si="19"/>
         <v>28.32</v>
       </c>
       <c r="P34">
-        <f t="shared" si="7"/>
+        <f t="shared" si="20"/>
         <v>34.739999999999995</v>
       </c>
       <c r="R34" t="str">
@@ -5504,35 +5498,35 @@
         <v>34.94</v>
       </c>
       <c r="I35">
-        <f t="shared" si="0"/>
+        <f t="shared" si="13"/>
         <v>18.25</v>
       </c>
       <c r="J35">
-        <f t="shared" si="1"/>
+        <f t="shared" si="14"/>
         <v>23.5</v>
       </c>
       <c r="K35">
-        <f t="shared" si="2"/>
+        <f t="shared" si="15"/>
         <v>23.51</v>
       </c>
       <c r="L35">
-        <f t="shared" si="3"/>
+        <f t="shared" si="16"/>
         <v>27.41</v>
       </c>
       <c r="M35">
-        <f t="shared" si="4"/>
+        <f t="shared" si="17"/>
         <v>27.42</v>
       </c>
       <c r="N35">
-        <f t="shared" si="5"/>
+        <f t="shared" si="18"/>
         <v>32.25</v>
       </c>
       <c r="O35">
-        <f t="shared" si="6"/>
+        <f t="shared" si="19"/>
         <v>32.26</v>
       </c>
       <c r="P35">
-        <f t="shared" si="7"/>
+        <f t="shared" si="20"/>
         <v>40.319999999999993</v>
       </c>
       <c r="R35" t="str">
@@ -5594,35 +5588,35 @@
         <v>40.32</v>
       </c>
       <c r="I36">
-        <f t="shared" si="0"/>
+        <f t="shared" si="13"/>
         <v>19.73</v>
       </c>
       <c r="J36">
-        <f t="shared" si="1"/>
+        <f t="shared" si="14"/>
         <v>26.08</v>
       </c>
       <c r="K36">
-        <f t="shared" si="2"/>
+        <f t="shared" si="15"/>
         <v>26.09</v>
       </c>
       <c r="L36">
-        <f t="shared" si="3"/>
+        <f t="shared" si="16"/>
         <v>30.85</v>
       </c>
       <c r="M36">
-        <f t="shared" si="4"/>
+        <f t="shared" si="17"/>
         <v>30.860000000000003</v>
       </c>
       <c r="N36">
-        <f t="shared" si="5"/>
+        <f t="shared" si="18"/>
         <v>36.92</v>
       </c>
       <c r="O36">
-        <f t="shared" si="6"/>
+        <f t="shared" si="19"/>
         <v>36.93</v>
       </c>
       <c r="P36">
-        <f t="shared" si="7"/>
+        <f t="shared" si="20"/>
         <v>47.13</v>
       </c>
       <c r="R36" t="str">
@@ -5684,35 +5678,35 @@
         <v>47.15</v>
       </c>
       <c r="I37">
-        <f t="shared" si="0"/>
+        <f t="shared" si="13"/>
         <v>21.44</v>
       </c>
       <c r="J37">
-        <f t="shared" si="1"/>
+        <f t="shared" si="14"/>
         <v>29.18</v>
       </c>
       <c r="K37">
-        <f t="shared" si="2"/>
+        <f t="shared" si="15"/>
         <v>29.19</v>
       </c>
       <c r="L37">
-        <f t="shared" si="3"/>
+        <f t="shared" si="16"/>
         <v>35.090000000000003</v>
       </c>
       <c r="M37">
-        <f t="shared" si="4"/>
+        <f t="shared" si="17"/>
         <v>35.1</v>
       </c>
       <c r="N37">
-        <f t="shared" si="5"/>
+        <f t="shared" si="18"/>
         <v>42.78</v>
       </c>
       <c r="O37">
-        <f t="shared" si="6"/>
+        <f t="shared" si="19"/>
         <v>42.79</v>
       </c>
       <c r="P37">
-        <f t="shared" si="7"/>
+        <f t="shared" si="20"/>
         <v>55.89</v>
       </c>
       <c r="R37" t="str">
@@ -5774,35 +5768,35 @@
         <v>54.78</v>
       </c>
       <c r="I38">
-        <f t="shared" si="0"/>
+        <f t="shared" si="13"/>
         <v>23.879999999999995</v>
       </c>
       <c r="J38">
-        <f t="shared" si="1"/>
+        <f t="shared" si="14"/>
         <v>33.049999999999997</v>
       </c>
       <c r="K38">
-        <f t="shared" si="2"/>
+        <f t="shared" si="15"/>
         <v>33.059999999999995</v>
       </c>
       <c r="L38">
-        <f t="shared" si="3"/>
+        <f t="shared" si="16"/>
         <v>40.1</v>
       </c>
       <c r="M38">
-        <f t="shared" si="4"/>
+        <f t="shared" si="17"/>
         <v>40.11</v>
       </c>
       <c r="N38">
-        <f t="shared" si="5"/>
+        <f t="shared" si="18"/>
         <v>49.44</v>
       </c>
       <c r="O38">
-        <f t="shared" si="6"/>
+        <f t="shared" si="19"/>
         <v>49.449999999999996</v>
       </c>
       <c r="P38">
-        <f t="shared" si="7"/>
+        <f t="shared" si="20"/>
         <v>65.47</v>
       </c>
       <c r="R38" t="str">
@@ -5864,35 +5858,35 @@
         <v>61.22</v>
       </c>
       <c r="I39">
-        <f t="shared" si="0"/>
+        <f t="shared" si="13"/>
         <v>27.309999999999995</v>
       </c>
       <c r="J39">
-        <f t="shared" si="1"/>
+        <f t="shared" si="14"/>
         <v>37.409999999999997</v>
       </c>
       <c r="K39">
-        <f t="shared" si="2"/>
+        <f t="shared" si="15"/>
         <v>37.419999999999995</v>
       </c>
       <c r="L39">
-        <f t="shared" si="3"/>
+        <f t="shared" si="16"/>
         <v>45.16</v>
       </c>
       <c r="M39">
-        <f t="shared" si="4"/>
+        <f t="shared" si="17"/>
         <v>45.169999999999995</v>
       </c>
       <c r="N39">
-        <f t="shared" si="5"/>
+        <f t="shared" si="18"/>
         <v>55.38</v>
       </c>
       <c r="O39">
-        <f t="shared" si="6"/>
+        <f t="shared" si="19"/>
         <v>55.39</v>
       </c>
       <c r="P39">
-        <f t="shared" si="7"/>
+        <f t="shared" si="20"/>
         <v>72.900000000000006</v>
       </c>
       <c r="R39" t="str">
@@ -5948,7 +5942,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V91"/>
   <sheetViews>
-    <sheetView zoomScale="25" zoomScaleNormal="25" workbookViewId="0">
+    <sheetView topLeftCell="A2" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="U2" sqref="U2:U93"/>
     </sheetView>
   </sheetViews>
@@ -11709,11 +11703,9 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A658"/>
+  <dimension ref="A1:A657"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A630" workbookViewId="0">
-      <selection sqref="A1:A658"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
@@ -11764,2806 +11756,2806 @@
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
-        <v>584</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A11" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A12" t="s">
-        <v>182</v>
+        <v>523</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A15" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A16" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A17" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A18" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A19" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A20" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A21" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A22" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A23" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A24" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A25" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A26" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A27" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A28" t="s">
-        <v>198</v>
+        <v>196</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A29" t="s">
+        <v>197</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A30" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A31" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A32" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A33" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A34" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A35" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A36" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A37" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A38" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A39" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A40" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A41" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A42" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A43" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
     </row>
     <row r="44" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A44" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
     </row>
     <row r="45" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A45" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
     </row>
     <row r="46" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A46" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
     </row>
     <row r="47" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A47" t="s">
-        <v>216</v>
+        <v>214</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A48" t="s">
+        <v>215</v>
       </c>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A49" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A50" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
     </row>
     <row r="51" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A51" t="s">
-        <v>219</v>
+        <v>569</v>
       </c>
     </row>
     <row r="52" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A52" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
     </row>
     <row r="53" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A53" t="s">
-        <v>221</v>
+        <v>570</v>
       </c>
     </row>
     <row r="54" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A54" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
     </row>
     <row r="55" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A55" t="s">
-        <v>223</v>
+        <v>571</v>
       </c>
     </row>
     <row r="56" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A56" t="s">
-        <v>224</v>
+        <v>572</v>
       </c>
     </row>
     <row r="57" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A57" t="s">
-        <v>225</v>
+        <v>573</v>
       </c>
     </row>
     <row r="58" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A58" t="s">
-        <v>226</v>
+        <v>219</v>
       </c>
     </row>
     <row r="59" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A59" t="s">
-        <v>227</v>
+        <v>220</v>
       </c>
     </row>
     <row r="60" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A60" t="s">
-        <v>228</v>
+        <v>221</v>
       </c>
     </row>
     <row r="61" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A61" t="s">
-        <v>229</v>
+        <v>222</v>
       </c>
     </row>
     <row r="62" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A62" t="s">
-        <v>230</v>
+        <v>223</v>
       </c>
     </row>
     <row r="63" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A63" t="s">
-        <v>231</v>
+        <v>574</v>
       </c>
     </row>
     <row r="64" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A64" t="s">
-        <v>232</v>
+        <v>224</v>
       </c>
     </row>
     <row r="65" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A65" t="s">
-        <v>233</v>
+        <v>575</v>
       </c>
     </row>
     <row r="66" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A66" t="s">
-        <v>234</v>
+        <v>225</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A67" t="s">
+        <v>226</v>
       </c>
     </row>
     <row r="68" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A68" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A69" t="s">
-        <v>585</v>
+        <v>227</v>
       </c>
     </row>
     <row r="70" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A70" t="s">
-        <v>586</v>
+        <v>228</v>
       </c>
     </row>
     <row r="71" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A71" t="s">
-        <v>587</v>
+        <v>524</v>
       </c>
     </row>
     <row r="72" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A72" t="s">
-        <v>236</v>
+        <v>525</v>
       </c>
     </row>
     <row r="73" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A73" t="s">
-        <v>237</v>
+        <v>526</v>
       </c>
     </row>
     <row r="74" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A74" t="s">
-        <v>588</v>
+        <v>229</v>
       </c>
     </row>
     <row r="75" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A75" t="s">
-        <v>238</v>
+        <v>230</v>
       </c>
     </row>
     <row r="76" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A76" t="s">
-        <v>239</v>
+        <v>527</v>
       </c>
     </row>
     <row r="77" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A77" t="s">
-        <v>589</v>
+        <v>231</v>
       </c>
     </row>
     <row r="78" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A78" t="s">
-        <v>240</v>
+        <v>232</v>
       </c>
     </row>
     <row r="79" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A79" t="s">
-        <v>590</v>
+        <v>528</v>
       </c>
     </row>
     <row r="80" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A80" t="s">
-        <v>241</v>
+        <v>233</v>
       </c>
     </row>
     <row r="81" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A81" t="s">
-        <v>242</v>
+        <v>529</v>
       </c>
     </row>
     <row r="82" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A82" t="s">
-        <v>591</v>
+        <v>234</v>
       </c>
     </row>
     <row r="83" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A83" t="s">
-        <v>243</v>
+        <v>235</v>
       </c>
     </row>
     <row r="84" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A84" t="s">
-        <v>592</v>
+        <v>530</v>
       </c>
     </row>
     <row r="85" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A85" t="s">
-        <v>593</v>
-      </c>
-    </row>
-    <row r="88" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A88" t="s">
-        <v>244</v>
+        <v>236</v>
+      </c>
+    </row>
+    <row r="86" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A86" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="87" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A87" t="s">
+        <v>532</v>
       </c>
     </row>
     <row r="89" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A89" t="s">
-        <v>245</v>
+        <v>576</v>
       </c>
     </row>
     <row r="90" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A90" t="s">
-        <v>246</v>
+        <v>577</v>
       </c>
     </row>
     <row r="91" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A91" t="s">
-        <v>247</v>
+        <v>578</v>
       </c>
     </row>
     <row r="92" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A92" t="s">
-        <v>248</v>
+        <v>579</v>
       </c>
     </row>
     <row r="93" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A93" t="s">
-        <v>249</v>
+        <v>580</v>
       </c>
     </row>
     <row r="94" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A94" t="s">
-        <v>250</v>
+        <v>581</v>
       </c>
     </row>
     <row r="95" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A95" t="s">
-        <v>251</v>
+        <v>582</v>
       </c>
     </row>
     <row r="96" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A96" t="s">
-        <v>252</v>
+        <v>583</v>
       </c>
     </row>
     <row r="97" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A97" t="s">
-        <v>253</v>
+        <v>584</v>
       </c>
     </row>
     <row r="98" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A98" t="s">
-        <v>254</v>
+        <v>585</v>
       </c>
     </row>
     <row r="99" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A99" t="s">
-        <v>255</v>
+        <v>586</v>
       </c>
     </row>
     <row r="100" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A100" t="s">
-        <v>256</v>
+        <v>587</v>
       </c>
     </row>
     <row r="101" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A101" t="s">
-        <v>257</v>
+        <v>588</v>
       </c>
     </row>
     <row r="102" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A102" t="s">
-        <v>258</v>
+        <v>589</v>
       </c>
     </row>
     <row r="103" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A103" t="s">
-        <v>259</v>
+        <v>590</v>
       </c>
     </row>
     <row r="104" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A104" t="s">
-        <v>260</v>
+        <v>591</v>
       </c>
     </row>
     <row r="105" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A105" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="107" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A107" t="s">
-        <v>594</v>
+        <v>592</v>
+      </c>
+    </row>
+    <row r="106" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A106" t="s">
+        <v>593</v>
       </c>
     </row>
     <row r="108" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A108" t="s">
-        <v>595</v>
+        <v>533</v>
       </c>
     </row>
     <row r="109" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A109" t="s">
-        <v>596</v>
+        <v>534</v>
       </c>
     </row>
     <row r="110" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A110" t="s">
-        <v>597</v>
+        <v>535</v>
       </c>
     </row>
     <row r="111" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A111" t="s">
-        <v>262</v>
+        <v>536</v>
       </c>
     </row>
     <row r="112" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A112" t="s">
-        <v>263</v>
+        <v>237</v>
       </c>
     </row>
     <row r="113" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A113" t="s">
-        <v>598</v>
+        <v>238</v>
       </c>
     </row>
     <row r="114" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A114" t="s">
-        <v>264</v>
+        <v>537</v>
       </c>
     </row>
     <row r="115" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A115" t="s">
-        <v>265</v>
+        <v>239</v>
       </c>
     </row>
     <row r="116" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A116" t="s">
-        <v>599</v>
+        <v>240</v>
       </c>
     </row>
     <row r="117" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A117" t="s">
-        <v>266</v>
+        <v>538</v>
       </c>
     </row>
     <row r="118" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A118" t="s">
-        <v>600</v>
+        <v>241</v>
       </c>
     </row>
     <row r="119" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A119" t="s">
-        <v>267</v>
+        <v>539</v>
       </c>
     </row>
     <row r="120" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A120" t="s">
-        <v>601</v>
+        <v>242</v>
       </c>
     </row>
     <row r="121" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A121" t="s">
-        <v>602</v>
+        <v>540</v>
       </c>
     </row>
     <row r="122" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A122" t="s">
-        <v>603</v>
+        <v>541</v>
       </c>
     </row>
     <row r="123" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A123" t="s">
-        <v>604</v>
+        <v>542</v>
       </c>
     </row>
     <row r="124" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A124" t="s">
-        <v>605</v>
+        <v>543</v>
+      </c>
+    </row>
+    <row r="125" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A125" t="s">
+        <v>544</v>
       </c>
     </row>
     <row r="127" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A127" t="s">
-        <v>268</v>
+        <v>594</v>
       </c>
     </row>
     <row r="128" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A128" t="s">
-        <v>269</v>
+        <v>595</v>
       </c>
     </row>
     <row r="129" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A129" t="s">
-        <v>270</v>
+        <v>596</v>
       </c>
     </row>
     <row r="130" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A130" t="s">
-        <v>271</v>
+        <v>597</v>
       </c>
     </row>
     <row r="131" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A131" t="s">
-        <v>272</v>
+        <v>598</v>
       </c>
     </row>
     <row r="132" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A132" t="s">
-        <v>273</v>
+        <v>599</v>
       </c>
     </row>
     <row r="133" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A133" t="s">
-        <v>274</v>
+        <v>600</v>
       </c>
     </row>
     <row r="134" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A134" t="s">
-        <v>275</v>
+        <v>601</v>
       </c>
     </row>
     <row r="135" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A135" t="s">
-        <v>276</v>
+        <v>602</v>
       </c>
     </row>
     <row r="136" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A136" t="s">
-        <v>277</v>
+        <v>603</v>
       </c>
     </row>
     <row r="137" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A137" t="s">
-        <v>278</v>
+        <v>604</v>
       </c>
     </row>
     <row r="138" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A138" t="s">
-        <v>279</v>
+        <v>605</v>
       </c>
     </row>
     <row r="139" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A139" t="s">
-        <v>280</v>
+        <v>606</v>
       </c>
     </row>
     <row r="140" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A140" t="s">
-        <v>281</v>
+        <v>607</v>
       </c>
     </row>
     <row r="141" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A141" t="s">
-        <v>282</v>
+        <v>608</v>
       </c>
     </row>
     <row r="142" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A142" t="s">
-        <v>283</v>
+        <v>609</v>
       </c>
     </row>
     <row r="143" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A143" t="s">
-        <v>284</v>
+        <v>610</v>
       </c>
     </row>
     <row r="144" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A144" t="s">
-        <v>285</v>
+        <v>611</v>
       </c>
     </row>
     <row r="146" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A146" t="s">
-        <v>606</v>
+        <v>545</v>
       </c>
     </row>
     <row r="147" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A147" t="s">
-        <v>286</v>
+        <v>243</v>
       </c>
     </row>
     <row r="148" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A148" t="s">
-        <v>607</v>
+        <v>546</v>
       </c>
     </row>
     <row r="149" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A149" t="s">
-        <v>608</v>
+        <v>547</v>
       </c>
     </row>
     <row r="150" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A150" t="s">
-        <v>287</v>
+        <v>244</v>
       </c>
     </row>
     <row r="151" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A151" t="s">
-        <v>288</v>
+        <v>245</v>
       </c>
     </row>
     <row r="152" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A152" t="s">
-        <v>609</v>
+        <v>548</v>
       </c>
     </row>
     <row r="153" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A153" t="s">
-        <v>610</v>
+        <v>549</v>
       </c>
     </row>
     <row r="154" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A154" t="s">
-        <v>611</v>
+        <v>550</v>
       </c>
     </row>
     <row r="155" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A155" t="s">
-        <v>612</v>
+        <v>551</v>
       </c>
     </row>
     <row r="156" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A156" t="s">
-        <v>289</v>
+        <v>246</v>
       </c>
     </row>
     <row r="157" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A157" t="s">
-        <v>613</v>
+        <v>552</v>
       </c>
     </row>
     <row r="158" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A158" t="s">
-        <v>614</v>
+        <v>553</v>
       </c>
     </row>
     <row r="159" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A159" t="s">
-        <v>615</v>
+        <v>554</v>
       </c>
     </row>
     <row r="160" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A160" t="s">
-        <v>616</v>
+        <v>555</v>
       </c>
     </row>
     <row r="161" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A161" t="s">
-        <v>617</v>
+        <v>556</v>
       </c>
     </row>
     <row r="162" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A162" t="s">
-        <v>618</v>
+        <v>557</v>
       </c>
     </row>
     <row r="163" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A163" t="s">
-        <v>619</v>
+        <v>558</v>
+      </c>
+    </row>
+    <row r="165" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A165" t="s">
+        <v>612</v>
       </c>
     </row>
     <row r="166" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A166" t="s">
-        <v>290</v>
+        <v>613</v>
       </c>
     </row>
     <row r="167" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A167" t="s">
-        <v>291</v>
+        <v>614</v>
       </c>
     </row>
     <row r="168" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A168" t="s">
-        <v>292</v>
+        <v>615</v>
       </c>
     </row>
     <row r="169" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A169" t="s">
-        <v>293</v>
+        <v>616</v>
       </c>
     </row>
     <row r="170" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A170" t="s">
-        <v>294</v>
+        <v>617</v>
       </c>
     </row>
     <row r="171" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A171" t="s">
-        <v>295</v>
+        <v>618</v>
       </c>
     </row>
     <row r="172" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A172" t="s">
-        <v>296</v>
+        <v>619</v>
       </c>
     </row>
     <row r="173" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A173" t="s">
-        <v>297</v>
+        <v>620</v>
       </c>
     </row>
     <row r="174" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A174" t="s">
-        <v>298</v>
+        <v>621</v>
       </c>
     </row>
     <row r="175" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A175" t="s">
-        <v>299</v>
+        <v>622</v>
       </c>
     </row>
     <row r="176" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A176" t="s">
-        <v>300</v>
+        <v>623</v>
       </c>
     </row>
     <row r="177" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A177" t="s">
-        <v>301</v>
+        <v>624</v>
       </c>
     </row>
     <row r="178" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A178" t="s">
-        <v>302</v>
+        <v>625</v>
       </c>
     </row>
     <row r="179" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A179" t="s">
-        <v>303</v>
+        <v>626</v>
       </c>
     </row>
     <row r="180" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A180" t="s">
-        <v>304</v>
+        <v>627</v>
       </c>
     </row>
     <row r="181" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A181" t="s">
-        <v>305</v>
+        <v>628</v>
       </c>
     </row>
     <row r="182" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A182" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="183" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A183" t="s">
-        <v>307</v>
+        <v>629</v>
+      </c>
+    </row>
+    <row r="184" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A184" t="s">
+        <v>247</v>
       </c>
     </row>
     <row r="185" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A185" t="s">
-        <v>308</v>
+        <v>248</v>
       </c>
     </row>
     <row r="186" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A186" t="s">
-        <v>309</v>
+        <v>559</v>
       </c>
     </row>
     <row r="187" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A187" t="s">
-        <v>620</v>
+        <v>560</v>
       </c>
     </row>
     <row r="188" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A188" t="s">
-        <v>621</v>
+        <v>249</v>
       </c>
     </row>
     <row r="189" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A189" t="s">
-        <v>310</v>
+        <v>250</v>
       </c>
     </row>
     <row r="190" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A190" t="s">
-        <v>311</v>
+        <v>561</v>
       </c>
     </row>
     <row r="191" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A191" t="s">
-        <v>622</v>
+        <v>562</v>
       </c>
     </row>
     <row r="192" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A192" t="s">
-        <v>623</v>
+        <v>563</v>
       </c>
     </row>
     <row r="193" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A193" t="s">
-        <v>624</v>
+        <v>564</v>
       </c>
     </row>
     <row r="194" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A194" t="s">
-        <v>625</v>
+        <v>251</v>
       </c>
     </row>
     <row r="195" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A195" t="s">
-        <v>312</v>
+        <v>565</v>
       </c>
     </row>
     <row r="196" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A196" t="s">
-        <v>626</v>
+        <v>566</v>
       </c>
     </row>
     <row r="197" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A197" t="s">
-        <v>627</v>
+        <v>252</v>
       </c>
     </row>
     <row r="198" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A198" t="s">
-        <v>313</v>
+        <v>567</v>
       </c>
     </row>
     <row r="199" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A199" t="s">
-        <v>628</v>
+        <v>253</v>
       </c>
     </row>
     <row r="200" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A200" t="s">
-        <v>314</v>
+        <v>568</v>
       </c>
     </row>
     <row r="201" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A201" t="s">
-        <v>629</v>
-      </c>
-    </row>
-    <row r="202" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A202" t="s">
-        <v>315</v>
+        <v>254</v>
+      </c>
+    </row>
+    <row r="204" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A204" t="s">
+        <v>255</v>
       </c>
     </row>
     <row r="205" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A205" t="s">
-        <v>316</v>
+        <v>256</v>
       </c>
     </row>
     <row r="206" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A206" t="s">
-        <v>317</v>
+        <v>257</v>
       </c>
     </row>
     <row r="207" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A207" t="s">
-        <v>318</v>
+        <v>258</v>
       </c>
     </row>
     <row r="208" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A208" t="s">
-        <v>319</v>
+        <v>259</v>
       </c>
     </row>
     <row r="209" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A209" t="s">
-        <v>320</v>
+        <v>260</v>
       </c>
     </row>
     <row r="210" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A210" t="s">
-        <v>321</v>
+        <v>261</v>
       </c>
     </row>
     <row r="211" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A211" t="s">
-        <v>322</v>
+        <v>262</v>
       </c>
     </row>
     <row r="212" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A212" t="s">
-        <v>323</v>
+        <v>263</v>
       </c>
     </row>
     <row r="213" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A213" t="s">
-        <v>324</v>
+        <v>264</v>
       </c>
     </row>
     <row r="214" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A214" t="s">
-        <v>325</v>
+        <v>265</v>
       </c>
     </row>
     <row r="215" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A215" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="216" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A216" t="s">
-        <v>327</v>
+        <v>266</v>
+      </c>
+    </row>
+    <row r="217" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A217" t="s">
+        <v>267</v>
       </c>
     </row>
     <row r="218" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A218" t="s">
-        <v>328</v>
+        <v>268</v>
       </c>
     </row>
     <row r="219" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A219" t="s">
-        <v>329</v>
+        <v>269</v>
       </c>
     </row>
     <row r="220" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A220" t="s">
-        <v>330</v>
+        <v>270</v>
       </c>
     </row>
     <row r="221" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A221" t="s">
-        <v>331</v>
+        <v>271</v>
       </c>
     </row>
     <row r="222" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A222" t="s">
-        <v>332</v>
+        <v>272</v>
       </c>
     </row>
     <row r="223" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A223" t="s">
-        <v>333</v>
+        <v>273</v>
       </c>
     </row>
     <row r="224" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A224" t="s">
-        <v>334</v>
+        <v>274</v>
       </c>
     </row>
     <row r="225" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A225" t="s">
-        <v>335</v>
+        <v>275</v>
       </c>
     </row>
     <row r="226" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A226" t="s">
-        <v>336</v>
+        <v>276</v>
       </c>
     </row>
     <row r="227" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A227" t="s">
-        <v>337</v>
+        <v>277</v>
       </c>
     </row>
     <row r="228" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A228" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="229" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A229" t="s">
-        <v>339</v>
+        <v>278</v>
+      </c>
+    </row>
+    <row r="231" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A231" t="s">
+        <v>279</v>
       </c>
     </row>
     <row r="232" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A232" t="s">
-        <v>340</v>
+        <v>280</v>
       </c>
     </row>
     <row r="233" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A233" t="s">
-        <v>341</v>
+        <v>281</v>
       </c>
     </row>
     <row r="234" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A234" t="s">
-        <v>342</v>
+        <v>282</v>
       </c>
     </row>
     <row r="235" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A235" t="s">
-        <v>343</v>
+        <v>283</v>
       </c>
     </row>
     <row r="236" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A236" t="s">
-        <v>344</v>
+        <v>284</v>
       </c>
     </row>
     <row r="237" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A237" t="s">
-        <v>345</v>
+        <v>285</v>
       </c>
     </row>
     <row r="238" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A238" t="s">
-        <v>346</v>
+        <v>286</v>
       </c>
     </row>
     <row r="239" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A239" t="s">
-        <v>347</v>
+        <v>287</v>
       </c>
     </row>
     <row r="240" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A240" t="s">
-        <v>348</v>
+        <v>288</v>
       </c>
     </row>
     <row r="241" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A241" t="s">
-        <v>349</v>
+        <v>289</v>
       </c>
     </row>
     <row r="242" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A242" t="s">
-        <v>350</v>
+        <v>290</v>
       </c>
     </row>
     <row r="243" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A243" t="s">
-        <v>351</v>
+        <v>291</v>
       </c>
     </row>
     <row r="244" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A244" t="s">
-        <v>352</v>
+        <v>292</v>
       </c>
     </row>
     <row r="245" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A245" t="s">
-        <v>353</v>
+        <v>293</v>
       </c>
     </row>
     <row r="246" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A246" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="247" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A247" t="s">
-        <v>355</v>
+        <v>294</v>
+      </c>
+    </row>
+    <row r="249" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A249" t="s">
+        <v>295</v>
       </c>
     </row>
     <row r="250" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A250" t="s">
-        <v>356</v>
+        <v>296</v>
       </c>
     </row>
     <row r="251" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A251" t="s">
-        <v>357</v>
+        <v>297</v>
       </c>
     </row>
     <row r="252" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A252" t="s">
-        <v>358</v>
+        <v>298</v>
       </c>
     </row>
     <row r="253" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A253" t="s">
-        <v>359</v>
+        <v>299</v>
       </c>
     </row>
     <row r="254" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A254" t="s">
-        <v>360</v>
+        <v>300</v>
       </c>
     </row>
     <row r="255" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A255" t="s">
-        <v>361</v>
+        <v>301</v>
       </c>
     </row>
     <row r="256" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A256" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="257" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A257" t="s">
-        <v>363</v>
+        <v>302</v>
+      </c>
+    </row>
+    <row r="259" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A259" t="s">
+        <v>303</v>
       </c>
     </row>
     <row r="260" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A260" t="s">
-        <v>364</v>
+        <v>304</v>
       </c>
     </row>
     <row r="261" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A261" t="s">
-        <v>365</v>
+        <v>305</v>
       </c>
     </row>
     <row r="262" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A262" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="263" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A263" t="s">
-        <v>367</v>
+        <v>306</v>
+      </c>
+    </row>
+    <row r="265" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A265" t="s">
+        <v>307</v>
       </c>
     </row>
     <row r="266" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A266" t="s">
-        <v>368</v>
+        <v>308</v>
       </c>
     </row>
     <row r="267" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A267" t="s">
-        <v>369</v>
+        <v>309</v>
       </c>
     </row>
     <row r="268" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A268" t="s">
-        <v>370</v>
+        <v>310</v>
       </c>
     </row>
     <row r="269" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A269" t="s">
-        <v>371</v>
+        <v>311</v>
       </c>
     </row>
     <row r="270" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A270" t="s">
-        <v>372</v>
-      </c>
-    </row>
-    <row r="271" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A271" t="s">
-        <v>373</v>
+        <v>312</v>
+      </c>
+    </row>
+    <row r="273" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A273" t="s">
+        <v>313</v>
       </c>
     </row>
     <row r="274" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A274" t="s">
-        <v>374</v>
+        <v>314</v>
       </c>
     </row>
     <row r="275" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A275" t="s">
-        <v>375</v>
+        <v>315</v>
       </c>
     </row>
     <row r="276" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A276" t="s">
-        <v>376</v>
+        <v>316</v>
       </c>
     </row>
     <row r="277" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A277" t="s">
-        <v>377</v>
+        <v>317</v>
       </c>
     </row>
     <row r="278" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A278" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="279" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A279" t="s">
-        <v>379</v>
+        <v>318</v>
+      </c>
+    </row>
+    <row r="281" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A281" t="s">
+        <v>319</v>
       </c>
     </row>
     <row r="282" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A282" t="s">
-        <v>380</v>
+        <v>320</v>
       </c>
     </row>
     <row r="283" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A283" t="s">
-        <v>381</v>
+        <v>321</v>
       </c>
     </row>
     <row r="284" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A284" t="s">
-        <v>382</v>
+        <v>322</v>
       </c>
     </row>
     <row r="285" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A285" t="s">
-        <v>383</v>
+        <v>323</v>
       </c>
     </row>
     <row r="286" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A286" t="s">
-        <v>384</v>
+        <v>324</v>
       </c>
     </row>
     <row r="287" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A287" t="s">
-        <v>385</v>
+        <v>325</v>
       </c>
     </row>
     <row r="288" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A288" t="s">
-        <v>386</v>
+        <v>326</v>
       </c>
     </row>
     <row r="289" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A289" t="s">
-        <v>387</v>
+        <v>327</v>
       </c>
     </row>
     <row r="290" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A290" t="s">
-        <v>388</v>
+        <v>328</v>
       </c>
     </row>
     <row r="291" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A291" t="s">
-        <v>389</v>
+        <v>329</v>
       </c>
     </row>
     <row r="292" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A292" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="293" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A293" t="s">
-        <v>391</v>
+        <v>330</v>
+      </c>
+    </row>
+    <row r="295" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A295" t="s">
+        <v>331</v>
       </c>
     </row>
     <row r="296" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A296" t="s">
-        <v>392</v>
+        <v>332</v>
       </c>
     </row>
     <row r="297" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A297" t="s">
-        <v>393</v>
+        <v>333</v>
       </c>
     </row>
     <row r="298" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A298" t="s">
-        <v>394</v>
+        <v>334</v>
       </c>
     </row>
     <row r="299" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A299" t="s">
-        <v>395</v>
+        <v>335</v>
       </c>
     </row>
     <row r="300" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A300" t="s">
-        <v>396</v>
+        <v>336</v>
       </c>
     </row>
     <row r="301" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A301" t="s">
-        <v>397</v>
+        <v>337</v>
       </c>
     </row>
     <row r="302" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A302" t="s">
-        <v>398</v>
+        <v>338</v>
       </c>
     </row>
     <row r="303" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A303" t="s">
-        <v>399</v>
+        <v>339</v>
       </c>
     </row>
     <row r="304" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A304" t="s">
-        <v>400</v>
+        <v>340</v>
       </c>
     </row>
     <row r="305" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A305" t="s">
-        <v>401</v>
+        <v>341</v>
       </c>
     </row>
     <row r="306" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A306" t="s">
-        <v>402</v>
-      </c>
-    </row>
-    <row r="307" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A307" t="s">
-        <v>403</v>
+        <v>342</v>
+      </c>
+    </row>
+    <row r="308" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A308" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="309" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A309" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="310" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A310" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="311" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A311" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="312" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A312" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="313" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A313" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="314" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A314" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="315" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A315" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="316" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A316" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="317" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A317" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="318" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A318" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="319" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A319" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="320" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A320" t="s">
         <v>68</v>
+      </c>
+    </row>
+    <row r="322" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A322" t="s">
+        <v>343</v>
       </c>
     </row>
     <row r="323" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A323" t="s">
-        <v>404</v>
+        <v>344</v>
       </c>
     </row>
     <row r="324" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A324" t="s">
-        <v>405</v>
+        <v>345</v>
       </c>
     </row>
     <row r="325" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A325" t="s">
-        <v>406</v>
+        <v>346</v>
       </c>
     </row>
     <row r="326" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A326" t="s">
-        <v>407</v>
+        <v>347</v>
       </c>
     </row>
     <row r="327" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A327" t="s">
-        <v>408</v>
+        <v>348</v>
       </c>
     </row>
     <row r="328" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A328" t="s">
-        <v>409</v>
+        <v>349</v>
       </c>
     </row>
     <row r="329" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A329" t="s">
-        <v>410</v>
+        <v>350</v>
       </c>
     </row>
     <row r="330" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A330" t="s">
-        <v>411</v>
+        <v>351</v>
       </c>
     </row>
     <row r="331" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A331" t="s">
-        <v>412</v>
+        <v>352</v>
       </c>
     </row>
     <row r="332" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A332" t="s">
-        <v>413</v>
+        <v>353</v>
       </c>
     </row>
     <row r="333" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A333" t="s">
-        <v>414</v>
+        <v>354</v>
       </c>
     </row>
     <row r="334" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A334" t="s">
-        <v>415</v>
+        <v>355</v>
       </c>
     </row>
     <row r="335" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A335" t="s">
-        <v>416</v>
+        <v>356</v>
       </c>
     </row>
     <row r="336" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A336" t="s">
-        <v>417</v>
+        <v>357</v>
       </c>
     </row>
     <row r="337" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A337" t="s">
-        <v>418</v>
-      </c>
-    </row>
-    <row r="338" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A338" t="s">
-        <v>419</v>
+        <v>358</v>
+      </c>
+    </row>
+    <row r="340" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A340" t="s">
+        <v>359</v>
       </c>
     </row>
     <row r="341" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A341" t="s">
-        <v>420</v>
+        <v>360</v>
       </c>
     </row>
     <row r="342" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A342" t="s">
-        <v>421</v>
+        <v>361</v>
       </c>
     </row>
     <row r="343" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A343" t="s">
-        <v>422</v>
+        <v>362</v>
       </c>
     </row>
     <row r="344" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A344" t="s">
-        <v>423</v>
+        <v>363</v>
       </c>
     </row>
     <row r="345" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A345" t="s">
-        <v>424</v>
+        <v>364</v>
       </c>
     </row>
     <row r="346" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A346" t="s">
-        <v>425</v>
+        <v>365</v>
       </c>
     </row>
     <row r="347" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A347" t="s">
-        <v>426</v>
-      </c>
-    </row>
-    <row r="348" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A348" t="s">
-        <v>427</v>
+        <v>366</v>
+      </c>
+    </row>
+    <row r="350" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A350" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="351" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A351" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="352" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A352" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="353" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A353" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="354" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A354" t="s">
         <v>108</v>
+      </c>
+    </row>
+    <row r="356" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A356" t="s">
+        <v>367</v>
       </c>
     </row>
     <row r="357" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A357" t="s">
-        <v>428</v>
+        <v>368</v>
       </c>
     </row>
     <row r="358" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A358" t="s">
-        <v>429</v>
+        <v>369</v>
       </c>
     </row>
     <row r="359" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A359" t="s">
-        <v>430</v>
+        <v>370</v>
       </c>
     </row>
     <row r="360" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A360" t="s">
-        <v>431</v>
+        <v>371</v>
       </c>
     </row>
     <row r="361" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A361" t="s">
-        <v>432</v>
-      </c>
-    </row>
-    <row r="362" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A362" t="s">
-        <v>433</v>
+        <v>372</v>
+      </c>
+    </row>
+    <row r="364" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A364" t="s">
+        <v>373</v>
       </c>
     </row>
     <row r="365" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A365" t="s">
-        <v>434</v>
+        <v>374</v>
       </c>
     </row>
     <row r="366" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A366" t="s">
-        <v>435</v>
+        <v>375</v>
       </c>
     </row>
     <row r="367" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A367" t="s">
-        <v>436</v>
+        <v>376</v>
       </c>
     </row>
     <row r="368" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A368" t="s">
-        <v>437</v>
+        <v>377</v>
       </c>
     </row>
     <row r="369" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A369" t="s">
-        <v>438</v>
-      </c>
-    </row>
-    <row r="370" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A370" t="s">
-        <v>439</v>
+        <v>378</v>
+      </c>
+    </row>
+    <row r="372" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A372" t="s">
+        <v>121</v>
       </c>
     </row>
     <row r="373" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A373" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
     </row>
     <row r="374" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A374" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
     </row>
     <row r="375" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A375" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
     </row>
     <row r="376" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A376" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
     </row>
     <row r="377" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A377" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
     </row>
     <row r="378" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A378" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
     </row>
     <row r="379" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A379" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
     </row>
     <row r="380" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A380" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
     </row>
     <row r="381" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A381" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
     </row>
     <row r="382" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A382" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
     </row>
     <row r="383" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A383" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="384" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A384" t="s">
         <v>165</v>
+      </c>
+    </row>
+    <row r="386" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A386" t="s">
+        <v>379</v>
       </c>
     </row>
     <row r="387" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A387" t="s">
-        <v>440</v>
+        <v>380</v>
       </c>
     </row>
     <row r="388" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A388" t="s">
-        <v>441</v>
+        <v>381</v>
       </c>
     </row>
     <row r="389" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A389" t="s">
-        <v>442</v>
+        <v>382</v>
       </c>
     </row>
     <row r="390" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A390" t="s">
-        <v>443</v>
+        <v>383</v>
       </c>
     </row>
     <row r="391" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A391" t="s">
-        <v>444</v>
+        <v>384</v>
       </c>
     </row>
     <row r="392" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A392" t="s">
-        <v>445</v>
+        <v>385</v>
       </c>
     </row>
     <row r="393" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A393" t="s">
-        <v>446</v>
+        <v>386</v>
       </c>
     </row>
     <row r="394" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A394" t="s">
-        <v>447</v>
+        <v>387</v>
       </c>
     </row>
     <row r="395" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A395" t="s">
-        <v>448</v>
+        <v>388</v>
       </c>
     </row>
     <row r="396" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A396" t="s">
-        <v>449</v>
+        <v>389</v>
       </c>
     </row>
     <row r="397" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A397" t="s">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="398" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A398" t="s">
-        <v>451</v>
+        <v>390</v>
+      </c>
+    </row>
+    <row r="399" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A399" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="400" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A400" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="401" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A401" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="402" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A402" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="403" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A403" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="404" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A404" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="405" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A405" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="406" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A406" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="407" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A407" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="408" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A408" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="409" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A409" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="410" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A410" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="411" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A411" t="s">
         <v>80</v>
+      </c>
+    </row>
+    <row r="413" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A413" t="s">
+        <v>391</v>
       </c>
     </row>
     <row r="414" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A414" t="s">
-        <v>452</v>
+        <v>392</v>
       </c>
     </row>
     <row r="415" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A415" t="s">
-        <v>453</v>
+        <v>393</v>
       </c>
     </row>
     <row r="416" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A416" t="s">
-        <v>454</v>
+        <v>394</v>
       </c>
     </row>
     <row r="417" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A417" t="s">
-        <v>455</v>
+        <v>395</v>
       </c>
     </row>
     <row r="418" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A418" t="s">
-        <v>456</v>
+        <v>396</v>
       </c>
     </row>
     <row r="419" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A419" t="s">
-        <v>457</v>
+        <v>397</v>
       </c>
     </row>
     <row r="420" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A420" t="s">
-        <v>458</v>
+        <v>398</v>
       </c>
     </row>
     <row r="421" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A421" t="s">
-        <v>459</v>
+        <v>399</v>
       </c>
     </row>
     <row r="422" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A422" t="s">
-        <v>460</v>
+        <v>400</v>
       </c>
     </row>
     <row r="423" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A423" t="s">
-        <v>461</v>
+        <v>401</v>
       </c>
     </row>
     <row r="424" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A424" t="s">
-        <v>462</v>
+        <v>402</v>
       </c>
     </row>
     <row r="425" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A425" t="s">
-        <v>463</v>
+        <v>403</v>
       </c>
     </row>
     <row r="426" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A426" t="s">
-        <v>464</v>
+        <v>404</v>
       </c>
     </row>
     <row r="427" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A427" t="s">
-        <v>465</v>
+        <v>405</v>
       </c>
     </row>
     <row r="428" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A428" t="s">
-        <v>466</v>
-      </c>
-    </row>
-    <row r="429" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A429" t="s">
-        <v>467</v>
+        <v>406</v>
+      </c>
+    </row>
+    <row r="431" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A431" t="s">
+        <v>407</v>
       </c>
     </row>
     <row r="432" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A432" t="s">
-        <v>468</v>
+        <v>408</v>
       </c>
     </row>
     <row r="433" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A433" t="s">
-        <v>469</v>
+        <v>409</v>
       </c>
     </row>
     <row r="434" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A434" t="s">
-        <v>470</v>
+        <v>410</v>
       </c>
     </row>
     <row r="435" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A435" t="s">
-        <v>471</v>
+        <v>411</v>
       </c>
     </row>
     <row r="436" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A436" t="s">
-        <v>472</v>
+        <v>412</v>
       </c>
     </row>
     <row r="437" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A437" t="s">
-        <v>473</v>
+        <v>413</v>
       </c>
     </row>
     <row r="438" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A438" t="s">
-        <v>474</v>
-      </c>
-    </row>
-    <row r="439" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A439" t="s">
-        <v>475</v>
+        <v>414</v>
+      </c>
+    </row>
+    <row r="441" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A441" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="442" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A442" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
     </row>
     <row r="443" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A443" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
     <row r="444" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A444" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="445" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A445" t="s">
         <v>112</v>
+      </c>
+    </row>
+    <row r="447" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A447" t="s">
+        <v>415</v>
       </c>
     </row>
     <row r="448" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A448" t="s">
-        <v>476</v>
+        <v>416</v>
       </c>
     </row>
     <row r="449" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A449" t="s">
-        <v>477</v>
+        <v>417</v>
       </c>
     </row>
     <row r="450" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A450" t="s">
-        <v>478</v>
+        <v>418</v>
       </c>
     </row>
     <row r="451" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A451" t="s">
-        <v>479</v>
+        <v>419</v>
       </c>
     </row>
     <row r="452" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A452" t="s">
-        <v>480</v>
-      </c>
-    </row>
-    <row r="453" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A453" t="s">
-        <v>481</v>
+        <v>420</v>
+      </c>
+    </row>
+    <row r="455" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A455" t="s">
+        <v>421</v>
       </c>
     </row>
     <row r="456" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A456" t="s">
-        <v>482</v>
+        <v>422</v>
       </c>
     </row>
     <row r="457" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A457" t="s">
-        <v>483</v>
+        <v>423</v>
       </c>
     </row>
     <row r="458" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A458" t="s">
-        <v>484</v>
+        <v>424</v>
       </c>
     </row>
     <row r="459" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A459" t="s">
-        <v>485</v>
+        <v>425</v>
       </c>
     </row>
     <row r="460" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A460" t="s">
-        <v>486</v>
-      </c>
-    </row>
-    <row r="461" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A461" t="s">
-        <v>487</v>
+        <v>426</v>
+      </c>
+    </row>
+    <row r="463" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A463" t="s">
+        <v>122</v>
       </c>
     </row>
     <row r="464" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A464" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
     </row>
     <row r="465" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A465" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
     </row>
     <row r="466" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A466" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
     </row>
     <row r="467" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A467" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
     </row>
     <row r="468" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A468" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
     </row>
     <row r="469" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A469" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
     </row>
     <row r="470" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A470" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
     </row>
     <row r="471" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A471" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
     </row>
     <row r="472" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A472" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
     </row>
     <row r="473" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A473" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
     </row>
     <row r="474" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A474" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="475" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A475" t="s">
         <v>166</v>
+      </c>
+    </row>
+    <row r="478" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A478" t="s">
+        <v>427</v>
       </c>
     </row>
     <row r="479" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A479" t="s">
-        <v>488</v>
+        <v>428</v>
       </c>
     </row>
     <row r="480" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A480" t="s">
-        <v>489</v>
+        <v>429</v>
       </c>
     </row>
     <row r="481" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A481" t="s">
-        <v>490</v>
+        <v>430</v>
       </c>
     </row>
     <row r="482" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A482" t="s">
-        <v>491</v>
+        <v>431</v>
       </c>
     </row>
     <row r="483" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A483" t="s">
-        <v>492</v>
+        <v>432</v>
       </c>
     </row>
     <row r="484" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A484" t="s">
-        <v>493</v>
+        <v>433</v>
       </c>
     </row>
     <row r="485" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A485" t="s">
-        <v>494</v>
+        <v>434</v>
       </c>
     </row>
     <row r="486" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A486" t="s">
-        <v>495</v>
+        <v>435</v>
       </c>
     </row>
     <row r="487" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A487" t="s">
-        <v>496</v>
+        <v>436</v>
       </c>
     </row>
     <row r="488" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A488" t="s">
-        <v>497</v>
+        <v>437</v>
       </c>
     </row>
     <row r="489" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A489" t="s">
-        <v>498</v>
-      </c>
-    </row>
-    <row r="490" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A490" t="s">
-        <v>499</v>
+        <v>438</v>
+      </c>
+    </row>
+    <row r="491" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A491" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="492" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A492" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="493" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A493" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="494" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A494" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="495" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A495" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="496" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A496" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="497" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A497" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="498" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A498" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="499" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A499" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="500" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A500" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="501" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A501" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="502" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A502" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="503" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A503" t="s">
         <v>92</v>
+      </c>
+    </row>
+    <row r="505" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A505" t="s">
+        <v>439</v>
       </c>
     </row>
     <row r="506" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A506" t="s">
-        <v>500</v>
+        <v>440</v>
       </c>
     </row>
     <row r="507" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A507" t="s">
-        <v>501</v>
+        <v>441</v>
       </c>
     </row>
     <row r="508" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A508" t="s">
-        <v>502</v>
+        <v>442</v>
       </c>
     </row>
     <row r="509" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A509" t="s">
-        <v>503</v>
+        <v>443</v>
       </c>
     </row>
     <row r="510" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A510" t="s">
-        <v>504</v>
+        <v>444</v>
       </c>
     </row>
     <row r="511" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A511" t="s">
-        <v>505</v>
+        <v>445</v>
       </c>
     </row>
     <row r="512" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A512" t="s">
-        <v>506</v>
+        <v>446</v>
       </c>
     </row>
     <row r="513" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A513" t="s">
-        <v>507</v>
+        <v>447</v>
       </c>
     </row>
     <row r="514" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A514" t="s">
-        <v>508</v>
+        <v>448</v>
       </c>
     </row>
     <row r="515" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A515" t="s">
-        <v>509</v>
+        <v>449</v>
       </c>
     </row>
     <row r="516" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A516" t="s">
-        <v>510</v>
+        <v>450</v>
       </c>
     </row>
     <row r="517" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A517" t="s">
-        <v>511</v>
+        <v>451</v>
       </c>
     </row>
     <row r="518" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A518" t="s">
-        <v>512</v>
+        <v>452</v>
       </c>
     </row>
     <row r="519" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A519" t="s">
-        <v>513</v>
+        <v>453</v>
       </c>
     </row>
     <row r="520" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A520" t="s">
-        <v>514</v>
-      </c>
-    </row>
-    <row r="521" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A521" t="s">
-        <v>515</v>
+        <v>454</v>
+      </c>
+    </row>
+    <row r="523" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A523" t="s">
+        <v>455</v>
       </c>
     </row>
     <row r="524" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A524" t="s">
-        <v>516</v>
+        <v>456</v>
       </c>
     </row>
     <row r="525" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A525" t="s">
-        <v>517</v>
+        <v>457</v>
       </c>
     </row>
     <row r="526" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A526" t="s">
-        <v>518</v>
+        <v>458</v>
       </c>
     </row>
     <row r="527" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A527" t="s">
-        <v>519</v>
+        <v>459</v>
       </c>
     </row>
     <row r="528" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A528" t="s">
-        <v>520</v>
+        <v>460</v>
       </c>
     </row>
     <row r="529" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A529" t="s">
-        <v>521</v>
+        <v>461</v>
       </c>
     </row>
     <row r="530" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A530" t="s">
-        <v>522</v>
-      </c>
-    </row>
-    <row r="531" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A531" t="s">
-        <v>523</v>
+        <v>462</v>
+      </c>
+    </row>
+    <row r="533" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A533" t="s">
+        <v>113</v>
       </c>
     </row>
     <row r="534" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A534" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
     <row r="535" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A535" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
     </row>
     <row r="536" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A536" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="537" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A537" t="s">
         <v>116</v>
+      </c>
+    </row>
+    <row r="539" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A539" t="s">
+        <v>463</v>
       </c>
     </row>
     <row r="540" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A540" t="s">
-        <v>524</v>
+        <v>464</v>
       </c>
     </row>
     <row r="541" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A541" t="s">
-        <v>525</v>
+        <v>465</v>
       </c>
     </row>
     <row r="542" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A542" t="s">
-        <v>526</v>
+        <v>466</v>
       </c>
     </row>
     <row r="543" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A543" t="s">
-        <v>527</v>
+        <v>467</v>
       </c>
     </row>
     <row r="544" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A544" t="s">
-        <v>528</v>
-      </c>
-    </row>
-    <row r="545" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A545" t="s">
-        <v>529</v>
+        <v>468</v>
+      </c>
+    </row>
+    <row r="547" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A547" t="s">
+        <v>469</v>
       </c>
     </row>
     <row r="548" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A548" t="s">
-        <v>530</v>
+        <v>470</v>
       </c>
     </row>
     <row r="549" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A549" t="s">
-        <v>531</v>
+        <v>471</v>
       </c>
     </row>
     <row r="550" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A550" t="s">
-        <v>532</v>
+        <v>472</v>
       </c>
     </row>
     <row r="551" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A551" t="s">
-        <v>533</v>
+        <v>473</v>
       </c>
     </row>
     <row r="552" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A552" t="s">
-        <v>534</v>
-      </c>
-    </row>
-    <row r="553" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A553" t="s">
-        <v>535</v>
+        <v>474</v>
+      </c>
+    </row>
+    <row r="555" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A555" t="s">
+        <v>123</v>
       </c>
     </row>
     <row r="556" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A556" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
     </row>
     <row r="557" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A557" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
     </row>
     <row r="558" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A558" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
     </row>
     <row r="559" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A559" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
     </row>
     <row r="560" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A560" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
     </row>
     <row r="561" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A561" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
     </row>
     <row r="562" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A562" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
     </row>
     <row r="563" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A563" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
     </row>
     <row r="564" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A564" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
     </row>
     <row r="565" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A565" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
     </row>
     <row r="566" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A566" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="567" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A567" t="s">
         <v>167</v>
+      </c>
+    </row>
+    <row r="569" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A569" t="s">
+        <v>475</v>
       </c>
     </row>
     <row r="570" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A570" t="s">
-        <v>536</v>
+        <v>476</v>
       </c>
     </row>
     <row r="571" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A571" t="s">
-        <v>537</v>
+        <v>477</v>
       </c>
     </row>
     <row r="572" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A572" t="s">
-        <v>538</v>
+        <v>478</v>
       </c>
     </row>
     <row r="573" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A573" t="s">
-        <v>539</v>
+        <v>479</v>
       </c>
     </row>
     <row r="574" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A574" t="s">
-        <v>540</v>
+        <v>480</v>
       </c>
     </row>
     <row r="575" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A575" t="s">
-        <v>541</v>
+        <v>481</v>
       </c>
     </row>
     <row r="576" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A576" t="s">
-        <v>542</v>
+        <v>482</v>
       </c>
     </row>
     <row r="577" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A577" t="s">
-        <v>543</v>
+        <v>483</v>
       </c>
     </row>
     <row r="578" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A578" t="s">
-        <v>544</v>
+        <v>484</v>
       </c>
     </row>
     <row r="579" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A579" t="s">
-        <v>545</v>
+        <v>485</v>
       </c>
     </row>
     <row r="580" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A580" t="s">
-        <v>546</v>
-      </c>
-    </row>
-    <row r="581" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A581" t="s">
-        <v>547</v>
+        <v>486</v>
+      </c>
+    </row>
+    <row r="582" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A582" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="583" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A583" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
     <row r="584" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A584" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="585" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A585" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="586" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A586" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="587" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A587" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="588" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A588" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="589" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A589" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="590" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A590" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="591" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A591" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="592" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A592" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="593" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A593" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="594" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A594" t="s">
         <v>104</v>
+      </c>
+    </row>
+    <row r="596" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A596" t="s">
+        <v>487</v>
       </c>
     </row>
     <row r="597" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A597" t="s">
-        <v>548</v>
+        <v>488</v>
       </c>
     </row>
     <row r="598" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A598" t="s">
-        <v>549</v>
+        <v>489</v>
       </c>
     </row>
     <row r="599" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A599" t="s">
-        <v>550</v>
+        <v>490</v>
       </c>
     </row>
     <row r="600" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A600" t="s">
-        <v>551</v>
+        <v>491</v>
       </c>
     </row>
     <row r="601" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A601" t="s">
-        <v>552</v>
+        <v>492</v>
       </c>
     </row>
     <row r="602" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A602" t="s">
-        <v>553</v>
+        <v>493</v>
       </c>
     </row>
     <row r="603" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A603" t="s">
-        <v>554</v>
+        <v>494</v>
       </c>
     </row>
     <row r="604" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A604" t="s">
-        <v>555</v>
+        <v>495</v>
       </c>
     </row>
     <row r="605" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A605" t="s">
-        <v>556</v>
+        <v>496</v>
       </c>
     </row>
     <row r="606" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A606" t="s">
-        <v>557</v>
+        <v>497</v>
       </c>
     </row>
     <row r="607" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A607" t="s">
-        <v>558</v>
+        <v>498</v>
       </c>
     </row>
     <row r="608" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A608" t="s">
-        <v>559</v>
+        <v>499</v>
       </c>
     </row>
     <row r="609" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A609" t="s">
-        <v>560</v>
+        <v>500</v>
       </c>
     </row>
     <row r="610" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A610" t="s">
-        <v>561</v>
+        <v>501</v>
       </c>
     </row>
     <row r="611" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A611" t="s">
-        <v>562</v>
-      </c>
-    </row>
-    <row r="612" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A612" t="s">
-        <v>563</v>
+        <v>502</v>
+      </c>
+    </row>
+    <row r="614" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A614" t="s">
+        <v>503</v>
       </c>
     </row>
     <row r="615" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A615" t="s">
-        <v>564</v>
+        <v>504</v>
       </c>
     </row>
     <row r="616" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A616" t="s">
-        <v>565</v>
+        <v>505</v>
       </c>
     </row>
     <row r="617" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A617" t="s">
-        <v>566</v>
+        <v>506</v>
       </c>
     </row>
     <row r="618" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A618" t="s">
-        <v>567</v>
+        <v>507</v>
       </c>
     </row>
     <row r="619" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A619" t="s">
-        <v>568</v>
+        <v>508</v>
       </c>
     </row>
     <row r="620" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A620" t="s">
-        <v>569</v>
+        <v>509</v>
       </c>
     </row>
     <row r="621" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A621" t="s">
-        <v>570</v>
-      </c>
-    </row>
-    <row r="622" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A622" t="s">
-        <v>571</v>
+        <v>510</v>
+      </c>
+    </row>
+    <row r="624" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A624" t="s">
+        <v>117</v>
       </c>
     </row>
     <row r="625" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A625" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
     </row>
     <row r="626" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A626" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
     </row>
     <row r="627" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A627" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="628" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A628" t="s">
         <v>120</v>
+      </c>
+    </row>
+    <row r="630" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A630" t="s">
+        <v>511</v>
       </c>
     </row>
     <row r="631" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A631" t="s">
-        <v>572</v>
+        <v>512</v>
       </c>
     </row>
     <row r="632" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A632" t="s">
-        <v>573</v>
+        <v>513</v>
       </c>
     </row>
     <row r="633" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A633" t="s">
-        <v>574</v>
+        <v>514</v>
       </c>
     </row>
     <row r="634" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A634" t="s">
-        <v>575</v>
+        <v>515</v>
       </c>
     </row>
     <row r="635" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A635" t="s">
-        <v>576</v>
-      </c>
-    </row>
-    <row r="636" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A636" t="s">
-        <v>577</v>
+        <v>516</v>
+      </c>
+    </row>
+    <row r="638" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A638" t="s">
+        <v>517</v>
       </c>
     </row>
     <row r="639" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A639" t="s">
-        <v>578</v>
+        <v>518</v>
       </c>
     </row>
     <row r="640" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A640" t="s">
-        <v>579</v>
+        <v>519</v>
       </c>
     </row>
     <row r="641" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A641" t="s">
-        <v>580</v>
+        <v>520</v>
       </c>
     </row>
     <row r="642" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A642" t="s">
-        <v>581</v>
+        <v>521</v>
       </c>
     </row>
     <row r="643" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A643" t="s">
-        <v>582</v>
-      </c>
-    </row>
-    <row r="644" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A644" t="s">
-        <v>583</v>
+        <v>522</v>
+      </c>
+    </row>
+    <row r="646" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A646" t="s">
+        <v>124</v>
       </c>
     </row>
     <row r="647" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A647" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
     </row>
     <row r="648" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A648" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
     </row>
     <row r="649" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A649" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
     </row>
     <row r="650" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A650" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
     </row>
     <row r="651" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A651" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
     </row>
     <row r="652" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A652" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
     </row>
     <row r="653" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A653" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
     </row>
     <row r="654" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A654" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
     </row>
     <row r="655" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A655" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
     </row>
     <row r="656" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A656" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
     </row>
     <row r="657" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A657" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="658" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A658" t="s">
         <v>168</v>
       </c>
     </row>
